--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="home" sheetId="1" r:id="rId1"/>
     <sheet name="2022_2" sheetId="2" r:id="rId2"/>
+    <sheet name="2022_3" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1108,4 +1109,334 @@
     <ignoredError numberStoredAsText="1" sqref="A1:N20"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>phoneNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>model</v>
+      </c>
+      <c r="E1" t="str">
+        <v>path</v>
+      </c>
+      <c r="F1" t="str">
+        <v>action</v>
+      </c>
+      <c r="G1" t="str">
+        <v>status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>failureReason</v>
+      </c>
+      <c r="J1" t="str">
+        <v>userId</v>
+      </c>
+      <c r="K1" t="str">
+        <v>modelId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>07:20:39 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>+22892942601</v>
+      </c>
+      <c r="D2" t="str">
+        <v>User</v>
+      </c>
+      <c r="E2" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F2" t="str">
+        <v>request</v>
+      </c>
+      <c r="G2" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H2" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+      <c r="I2" t="str">
+        <v>phoneNumber.chartAt is not a function</v>
+      </c>
+      <c r="J2" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+      <c r="K2" t="str">
+        <v>phoneNumber.chartAt is not a function</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>07:25:45 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>+22892942601</v>
+      </c>
+      <c r="D3" t="str">
+        <v>User</v>
+      </c>
+      <c r="E3" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F3" t="str">
+        <v>request</v>
+      </c>
+      <c r="G3" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H3" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+      <c r="I3" t="str">
+        <v>phoneNumber.chartAt is not a function</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>07:27:09 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>+22892942601</v>
+      </c>
+      <c r="D4" t="str">
+        <v>User</v>
+      </c>
+      <c r="E4" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F4" t="str">
+        <v>request</v>
+      </c>
+      <c r="G4" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H4" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+      <c r="I4" t="str">
+        <v>phoneNumber.chartAt is not a function</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>07:28:23 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C5" t="str">
+        <v>+22892942601</v>
+      </c>
+      <c r="D5" t="str">
+        <v>User</v>
+      </c>
+      <c r="E5" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F5" t="str">
+        <v>request</v>
+      </c>
+      <c r="G5" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H5" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Cannot read properties of undefined (reading 'apiUrl')</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>07:30:00 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>+22892942601</v>
+      </c>
+      <c r="D6" t="str">
+        <v>User</v>
+      </c>
+      <c r="E6" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F6" t="str">
+        <v>request</v>
+      </c>
+      <c r="G6" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H6" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>07:31:44 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D7" t="str">
+        <v>User</v>
+      </c>
+      <c r="E7" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F7" t="str">
+        <v>request</v>
+      </c>
+      <c r="G7" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H7" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I7" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>07:34:17 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C8" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D8" t="str">
+        <v>User</v>
+      </c>
+      <c r="E8" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F8" t="str">
+        <v>request</v>
+      </c>
+      <c r="G8" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H8" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>07:38:55 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D9" t="str">
+        <v>User</v>
+      </c>
+      <c r="E9" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F9" t="str">
+        <v>request</v>
+      </c>
+      <c r="G9" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H9" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>07:41:48 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D10" t="str">
+        <v>User</v>
+      </c>
+      <c r="E10" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F10" t="str">
+        <v>request</v>
+      </c>
+      <c r="G10" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H10" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>07:46:33 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D11" t="str">
+        <v>User</v>
+      </c>
+      <c r="E11" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F11" t="str">
+        <v>request</v>
+      </c>
+      <c r="G11" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H11" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -1113,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1152,6 +1152,15 @@
       <c r="K1" t="str">
         <v>modelId</v>
       </c>
+      <c r="L1" t="str">
+        <v>email</v>
+      </c>
+      <c r="M1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="N1" t="str">
+        <v>firstName</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1434,9 +1443,1030 @@
         <v>22892942601 request to receive otp</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>07:54:48 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>User</v>
+      </c>
+      <c r="E12" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F12" t="str">
+        <v>login</v>
+      </c>
+      <c r="G12" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H12" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I12" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="L12" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>07:56:13 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>User</v>
+      </c>
+      <c r="E13" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F13" t="str">
+        <v>login</v>
+      </c>
+      <c r="G13" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H13" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I13" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="L13" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>07:57:30 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>User</v>
+      </c>
+      <c r="E14" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F14" t="str">
+        <v>login</v>
+      </c>
+      <c r="G14" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H14" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I14" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="L14" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>07:58:06 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>User</v>
+      </c>
+      <c r="E15" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F15" t="str">
+        <v>login</v>
+      </c>
+      <c r="G15" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H15" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I15" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="L15" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>08:01:12 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C16" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D16" t="str">
+        <v>User</v>
+      </c>
+      <c r="E16" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F16" t="str">
+        <v>request</v>
+      </c>
+      <c r="G16" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H16" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I16" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>08:02:08 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C17" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D17" t="str">
+        <v>User</v>
+      </c>
+      <c r="E17" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F17" t="str">
+        <v>request</v>
+      </c>
+      <c r="G17" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H17" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>08:05:54 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>User</v>
+      </c>
+      <c r="E18" t="str">
+        <v>/api/auth/complete-infos</v>
+      </c>
+      <c r="F18" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G18" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H18" t="str">
+        <v xml:space="preserve">    edit his infos</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="str">
+        <v>2</v>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>08:07:45 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>User</v>
+      </c>
+      <c r="E19" t="str">
+        <v>/api/auth/profile</v>
+      </c>
+      <c r="F19" t="str">
+        <v>read</v>
+      </c>
+      <c r="G19" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Sonik  Kode  read his infos</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="str">
+        <v>2</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B20" t="str">
+        <v>09:04:01 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>User</v>
+      </c>
+      <c r="E20" t="str">
+        <v>/api/auth/add-email-auth</v>
+      </c>
+      <c r="F20" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G20" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Sonik  Kode  edit his infos</v>
+      </c>
+      <c r="I20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.user.findFirst()` invocation:
+{
+  where: {
+    id: 2,
+    deletedAt: null
+  },
+  select: {
+?   email?: true,
+?   password?: true,
+?   firstName?: true,
+    lang: true,
+    ~~~~
+?   id?: true,
+?   countryId?: true,
+?   avatar?: true,
+?   phoneNumber?: true,
+?   emailVerifiedAt?: true,
+?   phoneNumberVerifiedAt?: true,
+?   lastName?: true,
+?   birthDay?: true,
+?   status?: true,
+?   role?: true,
+?   language?: true,
+?   idCard?: true,
+?   driverLicence?: true,
+?   rating?: true,
+?   createdAt?: true,
+?   blockedAt?: true,
+?   updatedAt?: true,
+?   profileCompletedAt?: true,
+?   deletedAt?: true,
+?   deletionReport?: true,
+?   operations?: true,
+?   preferences?: true,
+?   trips?: true,
+?   travels?: true,
+?   vehicles?: true,
+?   historics?: true,
+?   sendedNotifications?: true,
+?   receivedNotifications?: true,
+?   wallets?: true,
+?   devices?: true,
+?   country?: true,
+?   _count?: true
+  }
+}
+Unknown field `lang` for select statement on model User. Available options are listed in green. Did you mean `rating`?
+</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="str">
+        <v>2</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="N20" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>09:09:07 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D21" t="str">
+        <v>User</v>
+      </c>
+      <c r="E21" t="str">
+        <v>/api/auth/add-email-auth</v>
+      </c>
+      <c r="F21" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G21" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Sonik  Kode  edit his infos</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="str">
+        <v>2</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="N21" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>09:12:57 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>User</v>
+      </c>
+      <c r="E22" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F22" t="str">
+        <v>login</v>
+      </c>
+      <c r="G22" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H22" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I22" t="str">
+        <v>error.unauthorized</v>
+      </c>
+      <c r="L22" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>09:28:45 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D23" t="str">
+        <v>User</v>
+      </c>
+      <c r="E23" t="str">
+        <v>/api/auth/confirm-email</v>
+      </c>
+      <c r="F23" t="str">
+        <v>activate</v>
+      </c>
+      <c r="G23" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H23" t="str">
+        <v>k0d3.s0n1k@gmail.com activate his account</v>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>09:34:56 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>User</v>
+      </c>
+      <c r="E24" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F24" t="str">
+        <v>login</v>
+      </c>
+      <c r="G24" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H24" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="L24" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>09:35:47 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>User</v>
+      </c>
+      <c r="E25" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F25" t="str">
+        <v>request</v>
+      </c>
+      <c r="G25" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H25" t="str">
+        <v>undefined request to receive otp</v>
+      </c>
+      <c r="I25" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>09:37:54 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D26" t="str">
+        <v>User</v>
+      </c>
+      <c r="E26" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F26" t="str">
+        <v>login</v>
+      </c>
+      <c r="G26" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I26" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>09:38:05 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D27" t="str">
+        <v>User</v>
+      </c>
+      <c r="E27" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F27" t="str">
+        <v>login</v>
+      </c>
+      <c r="G27" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H27" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="L27" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>09:38:31 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D28" t="str">
+        <v>User</v>
+      </c>
+      <c r="E28" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F28" t="str">
+        <v>login</v>
+      </c>
+      <c r="G28" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I28" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B29" t="str">
+        <v>09:38:52 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D29" t="str">
+        <v>User</v>
+      </c>
+      <c r="E29" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F29" t="str">
+        <v>login</v>
+      </c>
+      <c r="G29" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I29" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>09:40:34 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>User</v>
+      </c>
+      <c r="E30" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F30" t="str">
+        <v>login</v>
+      </c>
+      <c r="G30" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H30" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="L30" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B31" t="str">
+        <v>09:43:02 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C31" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D31" t="str">
+        <v>User</v>
+      </c>
+      <c r="E31" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F31" t="str">
+        <v>request</v>
+      </c>
+      <c r="G31" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H31" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>09:45:09 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D32" t="str">
+        <v>User</v>
+      </c>
+      <c r="E32" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F32" t="str">
+        <v>login</v>
+      </c>
+      <c r="G32" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I32" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>09:45:43 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C33" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D33" t="str">
+        <v>User</v>
+      </c>
+      <c r="E33" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F33" t="str">
+        <v>request</v>
+      </c>
+      <c r="G33" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H33" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I33" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>09:48:44 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D34" t="str">
+        <v>User</v>
+      </c>
+      <c r="E34" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F34" t="str">
+        <v>login</v>
+      </c>
+      <c r="G34" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H34" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I34" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B35" t="str">
+        <v>09:48:51 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>User</v>
+      </c>
+      <c r="E35" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F35" t="str">
+        <v>login</v>
+      </c>
+      <c r="G35" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H35" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="L35" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>09:49:17 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D36" t="str">
+        <v>User</v>
+      </c>
+      <c r="E36" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F36" t="str">
+        <v>login</v>
+      </c>
+      <c r="G36" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I36" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B37" t="str">
+        <v>19:19:47 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>User</v>
+      </c>
+      <c r="E37" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F37" t="str">
+        <v>login</v>
+      </c>
+      <c r="G37" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H37" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I37" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.user.findFirst()` invocation:
+  Can't reach database server at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`
+Please make sure your database server is running at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`.</v>
+      </c>
+      <c r="L37" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>19:22:31 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D38" t="str">
+        <v>User</v>
+      </c>
+      <c r="E38" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F38" t="str">
+        <v>login</v>
+      </c>
+      <c r="G38" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I38" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B39" t="str">
+        <v>19:22:36 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D39" t="str">
+        <v>User</v>
+      </c>
+      <c r="E39" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F39" t="str">
+        <v>login</v>
+      </c>
+      <c r="G39" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H39" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I39" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.user.findFirst()` invocation:
+  Can't reach database server at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`
+Please make sure your database server is running at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`.</v>
+      </c>
+      <c r="L39" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>22:51:37 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D40" t="str">
+        <v>User</v>
+      </c>
+      <c r="E40" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F40" t="str">
+        <v>login</v>
+      </c>
+      <c r="G40" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H40" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I40" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.user.findFirst()` invocation:
+  Can't reach database server at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`
+Please make sure your database server is running at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`.</v>
+      </c>
+      <c r="L40" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B41" t="str">
+        <v>22:54:10 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D41" t="str">
+        <v>User</v>
+      </c>
+      <c r="E41" t="str">
+        <v>/api/auth/verify-email</v>
+      </c>
+      <c r="F41" t="str">
+        <v>login</v>
+      </c>
+      <c r="G41" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H41" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="L41" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B42" t="str">
+        <v>22:56:48 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D42" t="str">
+        <v>User</v>
+      </c>
+      <c r="E42" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F42" t="str">
+        <v>login</v>
+      </c>
+      <c r="G42" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H42" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I42" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Mon Mar 07 2022</v>
+      </c>
+      <c r="B43" t="str">
+        <v>22:58:40 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D43" t="str">
+        <v>User</v>
+      </c>
+      <c r="E43" t="str">
+        <v>/api/auth/verify-password</v>
+      </c>
+      <c r="F43" t="str">
+        <v>login</v>
+      </c>
+      <c r="G43" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H43" t="str">
+        <v>2  login</v>
+      </c>
+      <c r="I43" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N43"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -1113,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2464,9 +2464,131 @@
         <v>2</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Fri Mar 18 2022</v>
+      </c>
+      <c r="B44" t="str">
+        <v>18:45:35 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C44" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D44" t="str">
+        <v>User</v>
+      </c>
+      <c r="E44" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F44" t="str">
+        <v>request</v>
+      </c>
+      <c r="G44" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H44" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Fri Mar 18 2022</v>
+      </c>
+      <c r="B45" t="str">
+        <v>18:48:40 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C45" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D45" t="str">
+        <v>User</v>
+      </c>
+      <c r="E45" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F45" t="str">
+        <v>request</v>
+      </c>
+      <c r="G45" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H45" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I45" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.device.findFirst()` invocation:
+  Can't reach database server at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`
+Please make sure your database server is running at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`.</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Fri Mar 18 2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>18:49:56 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C46" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D46" t="str">
+        <v>User</v>
+      </c>
+      <c r="E46" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F46" t="str">
+        <v>request</v>
+      </c>
+      <c r="G46" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H46" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I46" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.device.findFirst()` invocation:
+  Can't reach database server at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`
+Please make sure your database server is running at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`.</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Fri Mar 18 2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>18:52:05 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C47" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D47" t="str">
+        <v>User</v>
+      </c>
+      <c r="E47" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F47" t="str">
+        <v>request</v>
+      </c>
+      <c r="G47" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H47" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I47" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.user.findFirst()` invocation:
+  Can't reach database server at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`
+Please make sure your database server is running at `ec2-54-216-17-9.eu-west-1.compute.amazonaws.com`:`5432`.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N47"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -6,6 +6,7 @@
     <sheet name="home" sheetId="1" r:id="rId1"/>
     <sheet name="2022_2" sheetId="2" r:id="rId2"/>
     <sheet name="2022_3" sheetId="3" r:id="rId3"/>
+    <sheet name="2022_4" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -2591,4 +2592,3339 @@
     <ignoredError numberStoredAsText="1" sqref="A1:N47"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>phoneNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>model</v>
+      </c>
+      <c r="E1" t="str">
+        <v>path</v>
+      </c>
+      <c r="F1" t="str">
+        <v>action</v>
+      </c>
+      <c r="G1" t="str">
+        <v>status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>userId</v>
+      </c>
+      <c r="J1" t="str">
+        <v>modelId</v>
+      </c>
+      <c r="K1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="L1" t="str">
+        <v>firstName</v>
+      </c>
+      <c r="M1" t="str">
+        <v>failureReason</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>06:41:09 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D2" t="str">
+        <v>User</v>
+      </c>
+      <c r="E2" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F2" t="str">
+        <v>request</v>
+      </c>
+      <c r="G2" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H2" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I2" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="J2" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>06:41:57 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D3" t="str">
+        <v>User</v>
+      </c>
+      <c r="E3" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F3" t="str">
+        <v>request</v>
+      </c>
+      <c r="G3" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H3" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>06:43:29 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D4" t="str">
+        <v>User</v>
+      </c>
+      <c r="E4" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F4" t="str">
+        <v>read</v>
+      </c>
+      <c r="G4" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="str">
+        <v>all</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M4" t="str">
+        <v>error.internal</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>06:46:44 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>User</v>
+      </c>
+      <c r="E5" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F5" t="str">
+        <v>read</v>
+      </c>
+      <c r="G5" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="str">
+        <v>all</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M5" t="str">
+        <v>error.internal</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>06:47:56 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D6" t="str">
+        <v>User</v>
+      </c>
+      <c r="E6" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F6" t="str">
+        <v>read</v>
+      </c>
+      <c r="G6" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Sonik  Kode  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="str">
+        <v>all</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>06:52:14 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D7" t="str">
+        <v>User</v>
+      </c>
+      <c r="E7" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F7" t="str">
+        <v>read</v>
+      </c>
+      <c r="G7" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="str">
+        <v>all</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M7" t="str">
+        <v>error.internal</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>06:54:01 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>User</v>
+      </c>
+      <c r="E8" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F8" t="str">
+        <v>read</v>
+      </c>
+      <c r="G8" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="str">
+        <v>all</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M8" t="str">
+        <v>error.internal</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>06:55:40 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D9" t="str">
+        <v>User</v>
+      </c>
+      <c r="E9" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F9" t="str">
+        <v>read</v>
+      </c>
+      <c r="G9" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="str">
+        <v>all</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M9" t="str">
+        <v>error.internal</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>06:59:18 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D10" t="str">
+        <v>User</v>
+      </c>
+      <c r="E10" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F10" t="str">
+        <v>read</v>
+      </c>
+      <c r="G10" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="str">
+        <v>all</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M10" t="str">
+        <v>error.internal</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>07:02:05 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>User</v>
+      </c>
+      <c r="E11" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F11" t="str">
+        <v>read</v>
+      </c>
+      <c r="G11" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="str">
+        <v>all</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M11" t="str">
+        <v>error.internal</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>07:02:11 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>User</v>
+      </c>
+      <c r="E12" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F12" t="str">
+        <v>read</v>
+      </c>
+      <c r="G12" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Sonik  Kode  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="str">
+        <v>all</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>07:04:30 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>User</v>
+      </c>
+      <c r="E13" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F13" t="str">
+        <v>read</v>
+      </c>
+      <c r="G13" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Sonik  Kode  read all to validate users</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="str">
+        <v>all</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+             id: true,
+             avatar: true,
+             lastName: true,
+             firstName: true,
+             phoneNumber: true,
+             email: true,
+             birthDay: true,
+             createdAt: true,
+             blockedAt: true,
+             driverLicense: true,
+             idCard: true,
+             role: true
+           },
+           where: {
+             OR: [
+               {
+                 driverLicenseStatus: 2
+                 ~~~~~~~~~~~~~~~~~~~
+               },
+               {
+                 idCardStatus: 2
+               }
+             ],
+             deletedAt: null
+           },
+           orderBy: undefined
+         })
+Unknown arg `driverLicenseStatus` in where.OR.0.driverLicenseStatus for type UserWhereInput. Did you mean `diverLicenseStatus`? Available args:
+type UserWhereInput {
+  AND?: UserWhereInput | List&lt;UserWhereInput&gt;
+  OR?: List&lt;UserWhereInput&gt;
+  NOT?: UserWhereInput | List&lt;UserWhereInput&gt;
+  id?: IntFilter | Int
+  countryId?: IntNullableFilter | Int | Null
+  avatar?: StringNullableFilter | String | Null
+  email?: StringNullableFilter | String | Null
+  phoneNumber?: StringFilter | String
+  emailVerifiedAt?: DateTimeNullableFilter | DateTime | Null
+  phoneNumberVerifiedAt?: DateTimeNullableFilter | DateTime | Null
+  firstName?: StringFilter | String
+  lastName?: StringFilter | String
+  gender?: StringNullableFilter | String | Null
+  birthDay?: DateTimeNullableFilter | DateTime | Null
+  status?: IntFilter | Int
+  role?: StringFilter | String
+  language?: StringFilter | String
+  idCard?: StringNullableFilter | String | Null
+  idCardStatus?: IntFilter | Int
+  idCardModifiedAt?: DateTimeNullableFilter | DateTime | Null
+  driverLicense?: StringNullableFilter | String | Null
+  diverLicenseStatus?: IntFilter | Int
+  diverLicenseModifiedAt?: DateTimeNullableFilter | DateTime | Null
+  password?: StringFilter | String
+  rating?: FloatNullableFilter | Float | Null
+  createdAt?: DateTimeFilter | DateTime
+  blockedAt?: DateTimeNullableFilter | DateTime | Null
+  updatedAt?: DateTimeNullableFilter | DateTime | Null
+  profileCompletedAt?: DateTimeNullableFilter | DateTime | Null
+  deletedAt?: DateTimeNullableFilter | DateTime | Null
+  deletionReport?: StringNullableFilter | String | Null
+  operations?: OperationListRelationFilter
+  preferences?: ConfigurationListRelationFilter
+  trips?: TripListRelationFilter
+  travels?: TravelListRelationFilter
+  vehicles?: VehicleListRelationFilter
+  historics?: HistoricListRelationFilter
+  sendedNotifications?: PublicationListRelationFilter
+  receivedNotifications?: NotificationListRelationFilter
+  wallets?: WalletListRelationFilter
+  devices?: DeviceListRelationFilter
+  country?: CountryRelationFilter | CountryWhereInput | Null
+}
+</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>07:09:05 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>User</v>
+      </c>
+      <c r="E14" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F14" t="str">
+        <v>read</v>
+      </c>
+      <c r="G14" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Sonik  Kode  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="str">
+        <v>all</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>23:23:37 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C15" t="str">
+        <v>22891437890</v>
+      </c>
+      <c r="D15" t="str">
+        <v>User</v>
+      </c>
+      <c r="E15" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F15" t="str">
+        <v>request</v>
+      </c>
+      <c r="G15" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H15" t="str">
+        <v>22891437890 request to receive otp</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>23:27:20 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C16" t="str">
+        <v>22891437890</v>
+      </c>
+      <c r="D16" t="str">
+        <v>User</v>
+      </c>
+      <c r="E16" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F16" t="str">
+        <v>request</v>
+      </c>
+      <c r="G16" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H16" t="str">
+        <v>22891437890 request to receive otp</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>23:30:22 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>User</v>
+      </c>
+      <c r="E17" t="str">
+        <v>/api/auth/complete-infos</v>
+      </c>
+      <c r="F17" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G17" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H17" t="str">
+        <v xml:space="preserve">    edit his infos</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17" t="str">
+        <v>6</v>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>23:30:42 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>User</v>
+      </c>
+      <c r="E18" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F18" t="str">
+        <v>read</v>
+      </c>
+      <c r="G18" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Sonik  Kode  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="str">
+        <v>all</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>23:51:56 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>User</v>
+      </c>
+      <c r="E19" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F19" t="str">
+        <v>read</v>
+      </c>
+      <c r="G19" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Sonik  Kode  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="str">
+        <v>all</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B20" t="str">
+        <v>23:57:12 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>User</v>
+      </c>
+      <c r="E20" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F20" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G20" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Joseph  TAGBA  upload his ID card</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20" t="str">
+        <v>6</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L20" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>23:59:42 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D21" t="str">
+        <v>User</v>
+      </c>
+      <c r="E21" t="str">
+        <v>/api/auth/driver-license</v>
+      </c>
+      <c r="F21" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G21" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Joseph  TAGBA  upload his driver license</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21" t="str">
+        <v>6</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L21" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Tue Apr 12 2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>23:59:59 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>User</v>
+      </c>
+      <c r="E22" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F22" t="str">
+        <v>read</v>
+      </c>
+      <c r="G22" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Sonik  Kode  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="str">
+        <v>all</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>00:22:31 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D23" t="str">
+        <v>User</v>
+      </c>
+      <c r="E23" t="str">
+        <v>/api/validate-id-card</v>
+      </c>
+      <c r="F23" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G23" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Sonik  Kode  edit user 6</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="str">
+        <v>6</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Kode</v>
+      </c>
+      <c r="M23" t="str">
+        <v>userDb.findOne is not a function</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>00:24:07 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>User</v>
+      </c>
+      <c r="E24" t="str">
+        <v>/api/validate-id-card</v>
+      </c>
+      <c r="F24" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G24" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Sonik  Kode  edit user 6</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="str">
+        <v>6</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>00:24:34 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>User</v>
+      </c>
+      <c r="E25" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F25" t="str">
+        <v>read</v>
+      </c>
+      <c r="G25" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Sonik  Kode  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="str">
+        <v>all</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>00:26:04 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D26" t="str">
+        <v>User</v>
+      </c>
+      <c r="E26" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F26" t="str">
+        <v>read</v>
+      </c>
+      <c r="G26" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Sonik  Kode  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="str">
+        <v>all</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>00:26:21 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D27" t="str">
+        <v>User</v>
+      </c>
+      <c r="E27" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F27" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G27" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Sonik  Kode  edit user 6</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="str">
+        <v>6</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L27" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>00:26:45 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D28" t="str">
+        <v>User</v>
+      </c>
+      <c r="E28" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F28" t="str">
+        <v>read</v>
+      </c>
+      <c r="G28" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Sonik  Kode  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="str">
+        <v>all</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B29" t="str">
+        <v>00:27:01 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D29" t="str">
+        <v>User</v>
+      </c>
+      <c r="E29" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F29" t="str">
+        <v>read</v>
+      </c>
+      <c r="G29" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Sonik  Kode  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="str">
+        <v>all</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L29" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>00:31:24 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>User</v>
+      </c>
+      <c r="E30" t="str">
+        <v>/api/auth/profile</v>
+      </c>
+      <c r="F30" t="str">
+        <v>read</v>
+      </c>
+      <c r="G30" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Sonik  Kode  read his infos</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="str">
+        <v>2</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L30" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B31" t="str">
+        <v>00:32:24 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D31" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E31" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F31" t="str">
+        <v>read</v>
+      </c>
+      <c r="G31" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Sonik  Kode  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="str">
+        <v>all</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L31" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>00:33:45 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C32" t="str">
+        <v>22891437890</v>
+      </c>
+      <c r="D32" t="str">
+        <v>User</v>
+      </c>
+      <c r="E32" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F32" t="str">
+        <v>request</v>
+      </c>
+      <c r="G32" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H32" t="str">
+        <v>22891437890 request to receive otp</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>00:35:04 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C33" t="str">
+        <v>22891437890</v>
+      </c>
+      <c r="D33" t="str">
+        <v>User</v>
+      </c>
+      <c r="E33" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F33" t="str">
+        <v>request</v>
+      </c>
+      <c r="G33" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H33" t="str">
+        <v>22891437890 request to receive otp</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>00:36:03 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D34" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E34" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F34" t="str">
+        <v>read</v>
+      </c>
+      <c r="G34" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Joseph  TAGBA  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34" t="str">
+        <v>all</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L34" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B35" t="str">
+        <v>00:45:07 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E35" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F35" t="str">
+        <v>read</v>
+      </c>
+      <c r="G35" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Joseph  TAGBA  read all vehicles (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35" t="str">
+        <v>all</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L35" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>00:48:23 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E36" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F36" t="str">
+        <v>write</v>
+      </c>
+      <c r="G36" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H36" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write vehicle </v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L36" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M36" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              type: 'Bus',
+              ~~~~
+              color: 'Bleu',
+              numberPlate: 'TG-4563',
+          +   user: {
+          +     create?: UserCreateWithoutVehiclesInput | UserUncheckedCreateWithoutVehiclesInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutVehiclesInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   vehicles: {
+          +     create?: VehicleTypeCreateWithoutVehiclesInput | VehicleTypeUncheckedCreateWithoutVehiclesInput,
+          +     connectOrCreate?: VehicleTypeCreateOrConnectWithoutVehiclesInput,
+          +     connect?: VehicleTypeWhereUniqueInput
+          +   },
+          ?   id?: BigInt,
+          ?   registrationDoc?: String | null,
+          ?   createdAt?: DateTime,
+          ?   updatedAt?: DateTime | null,
+          ?   deletedAt?: DateTime | null,
+          ?   trip?: {
+          ?     create?: TripCreateWithoutVehiculeInput | TripCreateWithoutVehiculeInput | TripUncheckedCreateWithoutVehiculeInput | TripUncheckedCreateWithoutVehiculeInput,
+          ?     connectOrCreate?: TripCreateOrConnectWithoutVehiculeInput | TripCreateOrConnectWithoutVehiculeInput,
+          ?     createMany?: TripCreateManyVehiculeInputEnvelope,
+          ?     connect?: TripWhereUniqueInput | TripWhereUniqueInput
+          ?   }
+            }
+          })
+Unknown arg `type` in data.type for type VehicleCreateInput. Did you mean `trip`?
+Argument user for data.user is missing.
+Argument vehicles for data.vehicles is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B37" t="str">
+        <v>00:54:48 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E37" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F37" t="str">
+        <v>write</v>
+      </c>
+      <c r="G37" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Joseph  TAGBA  write vehicle 1</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L37" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>00:58:57 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E38" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F38" t="str">
+        <v>write</v>
+      </c>
+      <c r="G38" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Joseph  TAGBA  write vehicle 2</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L38" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B39" t="str">
+        <v>01:02:27 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E39" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F39" t="str">
+        <v>read</v>
+      </c>
+      <c r="G39" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Joseph  TAGBA  read all vehicles (2) from 0 to 100</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39" t="str">
+        <v>all</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L39" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>01:04:11 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D40" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E40" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F40" t="str">
+        <v>read</v>
+      </c>
+      <c r="G40" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Joseph  TAGBA  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40" t="str">
+        <v>all</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L40" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B41" t="str">
+        <v>01:04:17 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E41" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F41" t="str">
+        <v>read</v>
+      </c>
+      <c r="G41" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Joseph  TAGBA  read all vehicles (2) from 0 to 100</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41" t="str">
+        <v>all</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L41" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B42" t="str">
+        <v>01:08:53 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E42" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F42" t="str">
+        <v>read</v>
+      </c>
+      <c r="G42" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Joseph  TAGBA  read all vehicles (2) from 0 to 100</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42" t="str">
+        <v>all</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L42" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B43" t="str">
+        <v>01:18:20 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E43" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F43" t="str">
+        <v>read</v>
+      </c>
+      <c r="G43" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Joseph  TAGBA  read all vehicles (2) from 0 to 100</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43" t="str">
+        <v>all</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L43" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B44" t="str">
+        <v>01:27:17 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E44" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F44" t="str">
+        <v>read</v>
+      </c>
+      <c r="G44" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Joseph  TAGBA  read all vehicles (0) from 0 to 100</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44" t="str">
+        <v>all</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L44" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B45" t="str">
+        <v>01:35:16 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E45" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F45" t="str">
+        <v>read</v>
+      </c>
+      <c r="G45" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Joseph  TAGBA  read all vehicles (0) from 0 to 100</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45" t="str">
+        <v>all</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L45" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>01:35:23 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E46" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F46" t="str">
+        <v>write</v>
+      </c>
+      <c r="G46" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Joseph  TAGBA  write vehicle 1</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L46" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>01:44:33 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E47" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F47" t="str">
+        <v>read</v>
+      </c>
+      <c r="G47" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Joseph  TAGBA  read all vehicles (1) from 0 to 100</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47" t="str">
+        <v>all</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L47" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B48" t="str">
+        <v>02:15:15 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E48" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F48" t="str">
+        <v>read</v>
+      </c>
+      <c r="G48" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Joseph  TAGBA  read all trips</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48" t="str">
+        <v>all</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L48" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M48" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+             id: true,
+             seats: true,
+             status: true,
+             routes: true,
+             createdAt: true
+           },
+           where: {
+             deletedAt: null
+             ~~~~~~~~~
+           },
+           orderBy: undefined
+         })
+Unknown arg `deletedAt` in where.deletedAt for type TripWhereInput. Did you mean `createdAt`? Available args:
+type TripWhereInput {
+  AND?: TripWhereInput | List&lt;TripWhereInput&gt;
+  OR?: List&lt;TripWhereInput&gt;
+  NOT?: TripWhereInput | List&lt;TripWhereInput&gt;
+  id?: IntFilter | Int
+  userId?: IntFilter | Int
+  vehiculeId?: IntFilter | Int
+  seats?: IntFilter | Int
+  status?: IntFilter | Int
+  createdAt?: DateTimeFilter | DateTime
+  startedAt?: DateTimeNullableFilter | DateTime | Null
+  finishedAt?: DateTimeNullableFilter | DateTime | Null
+  routes?: RouteListRelationFilter
+  user?: UserRelationFilter | UserWhereInput
+  vehicule?: VehicleRelationFilter | VehicleWhereInput
+}
+</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B49" t="str">
+        <v>02:16:49 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E49" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F49" t="str">
+        <v>read</v>
+      </c>
+      <c r="G49" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Joseph  TAGBA  read all trips</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="J49" t="str">
+        <v>all</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L49" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M49" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+             id: true,
+             seats: true,
+             status: true,
+             routes: true,
+             createdAt: true
+           },
+           where: {
+             deletedAt: null
+             ~~~~~~~~~
+           },
+           orderBy: undefined
+         })
+Unknown arg `deletedAt` in where.deletedAt for type TripWhereInput. Did you mean `createdAt`? Available args:
+type TripWhereInput {
+  AND?: TripWhereInput | List&lt;TripWhereInput&gt;
+  OR?: List&lt;TripWhereInput&gt;
+  NOT?: TripWhereInput | List&lt;TripWhereInput&gt;
+  id?: IntFilter | Int
+  userId?: IntFilter | Int
+  vehiculeId?: IntFilter | Int
+  seats?: IntFilter | Int
+  status?: IntFilter | Int
+  createdAt?: DateTimeFilter | DateTime
+  startedAt?: DateTimeNullableFilter | DateTime | Null
+  finishedAt?: DateTimeNullableFilter | DateTime | Null
+  routes?: RouteListRelationFilter
+  user?: UserRelationFilter | UserWhereInput
+  vehicule?: VehicleRelationFilter | VehicleWhereInput
+}
+</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B50" t="str">
+        <v>02:18:41 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E50" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F50" t="str">
+        <v>read</v>
+      </c>
+      <c r="G50" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Joseph  TAGBA  read all trips (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50" t="str">
+        <v>all</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L50" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B51" t="str">
+        <v>02:21:12 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E51" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F51" t="str">
+        <v>read</v>
+      </c>
+      <c r="G51" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Joseph  TAGBA  read all trips (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51" t="str">
+        <v>all</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L51" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B52" t="str">
+        <v>02:22:10 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E52" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F52" t="str">
+        <v>read</v>
+      </c>
+      <c r="G52" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Joseph  TAGBA  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52" t="str">
+        <v>all</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L52" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B53" t="str">
+        <v>02:33:27 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E53" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F53" t="str">
+        <v>read</v>
+      </c>
+      <c r="G53" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Sonik  Kode  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="str">
+        <v>all</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B54" t="str">
+        <v>02:33:49 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E54" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F54" t="str">
+        <v>write</v>
+      </c>
+      <c r="G54" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Sonik  Kode  write pricing 2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B55" t="str">
+        <v>02:33:58 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E55" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F55" t="str">
+        <v>read</v>
+      </c>
+      <c r="G55" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Sonik  Kode  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="str">
+        <v>all</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B56" t="str">
+        <v>02:34:40 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E56" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F56" t="str">
+        <v>write</v>
+      </c>
+      <c r="G56" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Sonik  Kode  write pricing 3</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B57" t="str">
+        <v>02:54:43 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E57" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F57" t="str">
+        <v>write</v>
+      </c>
+      <c r="G57" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H57" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L57" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M57" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              ~~~~~~
+              vehicleId: 1,
+              ~~~~~~~~~
+              seats: '4',
+                     ~~~
+              routes: {
+                create: {
+                  routes: [],
+                  ~~~~~~
+          +       distance: Float,
+          +       duration: Int,
+          +       price: Int,
+          +       departure: {
+          +         create?: StopCreateWithoutDepartureRouteInput | StopUncheckedCreateWithoutDepartureRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutDepartureRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          +       arrival: {
+          +         create?: StopCreateWithoutArrivalRouteInput | StopUncheckedCreateWithoutArrivalRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutArrivalRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          ?       deletedAt?: DateTime | null,
+          ?       travels?: {
+          ?         create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?         connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?         createMany?: TravelCreateManyRouteInputEnvelope,
+          ?         connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?       }
+                }
+              },
+          +   user: {
+          +     create?: UserCreateWithoutTripsInput | UserUncheckedCreateWithoutTripsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTripsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   vehicule: {
+          +     create?: VehicleCreateWithoutTripInput | VehicleUncheckedCreateWithoutTripInput,
+          +     connectOrCreate?: VehicleCreateOrConnectWithoutTripInput,
+          +     connect?: VehicleWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   createdAt?: DateTime,
+          ?   deletedAt?: DateTime | null,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null
+            }
+          })
+Unknown arg `userId` in data.userId for type TripCreateInput. Did you mean `user`?
+Unknown arg `vehicleId` in data.vehicleId for type TripCreateInput. Did you mean `vehicule`?
+Argument seats: Got invalid value '4' on prisma.createOneTrip. Provided String, expected Int.
+Unknown arg `routes` in data.routes.create.routes for type RouteCreateWithoutTripInput. Did you mean `price`?
+Argument distance for data.routes.create.distance is missing.
+Argument duration for data.routes.create.duration is missing.
+Argument price for data.routes.create.price is missing.
+Argument departure for data.routes.create.departure is missing.
+Argument arrival for data.routes.create.arrival is missing.
+Argument user for data.user is missing.
+Argument vehicule for data.vehicule is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B58" t="str">
+        <v>02:57:34 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E58" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F58" t="str">
+        <v>write</v>
+      </c>
+      <c r="G58" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H58" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L58" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M58" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              ~~~~~~
+              vehicleId: 1,
+              ~~~~~~~~~
+              seats: 4,
+              routes: {
+                create: {
+                  routes: [],
+                  ~~~~~~
+          +       distance: Float,
+          +       duration: Int,
+          +       price: Int,
+          +       departure: {
+          +         create?: StopCreateWithoutDepartureRouteInput | StopUncheckedCreateWithoutDepartureRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutDepartureRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          +       arrival: {
+          +         create?: StopCreateWithoutArrivalRouteInput | StopUncheckedCreateWithoutArrivalRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutArrivalRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          ?       deletedAt?: DateTime | null,
+          ?       travels?: {
+          ?         create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?         connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?         createMany?: TravelCreateManyRouteInputEnvelope,
+          ?         connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?       }
+                }
+              },
+          +   user: {
+          +     create?: UserCreateWithoutTripsInput | UserUncheckedCreateWithoutTripsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTripsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   vehicule: {
+          +     create?: VehicleCreateWithoutTripInput | VehicleUncheckedCreateWithoutTripInput,
+          +     connectOrCreate?: VehicleCreateOrConnectWithoutTripInput,
+          +     connect?: VehicleWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   createdAt?: DateTime,
+          ?   deletedAt?: DateTime | null,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null
+            }
+          })
+Unknown arg `userId` in data.userId for type TripCreateInput. Did you mean `user`?
+Unknown arg `vehicleId` in data.vehicleId for type TripCreateInput. Did you mean `vehicule`?
+Unknown arg `routes` in data.routes.create.routes for type RouteCreateWithoutTripInput. Did you mean `price`?
+Argument distance for data.routes.create.distance is missing.
+Argument duration for data.routes.create.duration is missing.
+Argument price for data.routes.create.price is missing.
+Argument departure for data.routes.create.departure is missing.
+Argument arrival for data.routes.create.arrival is missing.
+Argument user for data.user is missing.
+Argument vehicule for data.vehicule is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B59" t="str">
+        <v>02:59:52 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E59" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F59" t="str">
+        <v>write</v>
+      </c>
+      <c r="G59" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H59" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L59" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M59" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              ~~~~~~
+              vehicleId: 1,
+              ~~~~~~~~~
+              seats: 4,
+              routes: {
+                create: {
+                  routes: [],
+                  ~~~~~~
+          +       distance: Float,
+          +       duration: Int,
+          +       price: Int,
+          +       departure: {
+          +         create?: StopCreateWithoutDepartureRouteInput | StopUncheckedCreateWithoutDepartureRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutDepartureRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          +       arrival: {
+          +         create?: StopCreateWithoutArrivalRouteInput | StopUncheckedCreateWithoutArrivalRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutArrivalRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          ?       deletedAt?: DateTime | null,
+          ?       travels?: {
+          ?         create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?         connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?         createMany?: TravelCreateManyRouteInputEnvelope,
+          ?         connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?       }
+                }
+              },
+          +   user: {
+          +     create?: UserCreateWithoutTripsInput | UserUncheckedCreateWithoutTripsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTripsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   vehicule: {
+          +     create?: VehicleCreateWithoutTripInput | VehicleUncheckedCreateWithoutTripInput,
+          +     connectOrCreate?: VehicleCreateOrConnectWithoutTripInput,
+          +     connect?: VehicleWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   createdAt?: DateTime,
+          ?   deletedAt?: DateTime | null,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null
+            }
+          })
+Unknown arg `userId` in data.userId for type TripCreateInput. Did you mean `user`?
+Unknown arg `vehicleId` in data.vehicleId for type TripCreateInput. Did you mean `vehicule`?
+Unknown arg `routes` in data.routes.create.routes for type RouteCreateWithoutTripInput. Did you mean `price`?
+Argument distance for data.routes.create.distance is missing.
+Argument duration for data.routes.create.duration is missing.
+Argument price for data.routes.create.price is missing.
+Argument departure for data.routes.create.departure is missing.
+Argument arrival for data.routes.create.arrival is missing.
+Argument user for data.user is missing.
+Argument vehicule for data.vehicule is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B60" t="str">
+        <v>03:08:51 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E60" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F60" t="str">
+        <v>write</v>
+      </c>
+      <c r="G60" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H60" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L60" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M60" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              ~~~~~~
+              vehicleId: 1,
+              ~~~~~~~~~
+              seats: 4,
+              routes: {
+                create: {
+                  routes: [
+                  ~~~~~~
+                    {
+                      distance: 619.383,
+                      duration: 9.751944444444444,
+                      price: 46453.725000000006,
+                      create: {
+                        departure: {
+                          type: 'departure',
+                          address: 'Lome, Togo',
+                          longitude: '1.222186',
+                          latitude: '6.136629'
+                        },
+                        arrival: {
+                          type: 'arrival',
+                          address: 'Dapaong, Togo',
+                          longitude: '0.20762',
+                          latitude: ' 10.86225'
+                        }
+                      }
+                    }
+                  ],
+          +       distance: Float,
+          +       duration: Int,
+          +       price: Int,
+          +       departure: {
+          +         create?: StopCreateWithoutDepartureRouteInput | StopUncheckedCreateWithoutDepartureRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutDepartureRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          +       arrival: {
+          +         create?: StopCreateWithoutArrivalRouteInput | StopUncheckedCreateWithoutArrivalRouteInput,
+          +         connectOrCreate?: StopCreateOrConnectWithoutArrivalRouteInput,
+          +         connect?: StopWhereUniqueInput
+          +       },
+          ?       deletedAt?: DateTime | null,
+          ?       travels?: {
+          ?         create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?         connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?         createMany?: TravelCreateManyRouteInputEnvelope,
+          ?         connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?       }
+                }
+              },
+          +   user: {
+          +     create?: UserCreateWithoutTripsInput | UserUncheckedCreateWithoutTripsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTripsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   vehicule: {
+          +     create?: VehicleCreateWithoutTripInput | VehicleUncheckedCreateWithoutTripInput,
+          +     connectOrCreate?: VehicleCreateOrConnectWithoutTripInput,
+          +     connect?: VehicleWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   createdAt?: DateTime,
+          ?   deletedAt?: DateTime | null,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null
+            }
+          })
+Unknown arg `userId` in data.userId for type TripCreateInput. Did you mean `user`?
+Unknown arg `vehicleId` in data.vehicleId for type TripCreateInput. Did you mean `vehicule`?
+Unknown arg `routes` in data.routes.create.routes for type RouteCreateWithoutTripInput. Did you mean `price`?
+Argument distance for data.routes.create.distance is missing.
+Argument duration for data.routes.create.duration is missing.
+Argument price for data.routes.create.price is missing.
+Argument departure for data.routes.create.departure is missing.
+Argument arrival for data.routes.create.arrival is missing.
+Argument user for data.user is missing.
+Argument vehicule for data.vehicule is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B61" t="str">
+        <v>03:30:16 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E61" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F61" t="str">
+        <v>write</v>
+      </c>
+      <c r="G61" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H61" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L61" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M61" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              ~~~~~~~~~~~~~
+              routes: {
+                create: {
+                  '0': {
+                    distance: 619,
+                    duration: 10,
+                    price: 46425,
+                    create: {
+                    ~~~~~~
+                      departure: {
+                        type: 'departure',
+                        address: 'Lome, Togo',
+                        longitude: '1.222186',
+                        latitude: '6.136629'
+                      },
+                      arrival: {
+                        type: 'arrival',
+                        address: 'Dapaong, Togo',
+                        longitude: '0.20762',
+                        latitude: ' 10.86225'
+                      }
+                    },
+          +         departure: {
+          +           create?: StopCreateWithoutDepartureRouteInput | StopUncheckedCreateWithoutDepartureRouteInput,
+          +           connectOrCreate?: StopCreateOrConnectWithoutDepartureRouteInput,
+          +           connect?: StopWhereUniqueInput
+          +         },
+          +         arrival: {
+          +           create?: StopCreateWithoutArrivalRouteInput | StopUncheckedCreateWithoutArrivalRouteInput,
+          +           connectOrCreate?: StopCreateOrConnectWithoutArrivalRouteInput,
+          +           connect?: StopWhereUniqueInput
+          +         },
+          ?         deletedAt?: DateTime | null,
+          ?         travels?: {
+          ?           create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?           connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?           createMany?: TravelCreateManyRouteInputEnvelope,
+          ?           connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?         }
+                  }
+                }
+              }
+            }
+          })
+Unknown arg `departureDate` in data.departureDate for type TripUncheckedCreateInput.
+Unknown arg `create` in data.routes.create.0.create for type RouteCreateWithoutTripInput. Did you mean `price`?
+Argument departure for data.routes.create.0.departure is missing.
+Argument arrival for data.routes.create.0.arrival is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B62" t="str">
+        <v>03:38:56 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E62" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F62" t="str">
+        <v>write</v>
+      </c>
+      <c r="G62" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H62" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L62" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M62" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              routes: {
+                create: {
+                  '0': {
+                    distance: 619,
+                    duration: 10,
+                    price: 46425,
+                    departure: {
+                    ~~~~~~~~~
+                      create: {
+                        type: 'departure',
+                        address: 'Lome, Togo',
+                        longitude: '1.222186',
+                        latitude: '6.136629'
+                      }
+                    },
+                    arrival: {
+                    ~~~~~~~
+                      create: {
+                        type: 'arrival',
+                        address: 'Dapaong, Togo',
+                        longitude: '0.20762',
+                        latitude: ' 10.86225'
+                      }
+                    },
+          +         departureStopId: Int,
+          +         arrivalStopId: Int,
+          ?         id?: Int,
+          ?         deletedAt?: DateTime | null,
+          ?         travels?: {
+          ?           create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?           connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?           createMany?: TravelCreateManyRouteInputEnvelope,
+          ?           connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?         }
+                  }
+                }
+              }
+            }
+          })
+Unknown arg `departure` in data.routes.create.0.departure for type RouteUncheckedCreateWithoutTripInput.
+Unknown arg `arrival` in data.routes.create.0.arrival for type RouteUncheckedCreateWithoutTripInput. Did you mean `price`?
+Argument departureStopId for data.routes.create.0.departureStopId is missing.
+Argument arrivalStopId for data.routes.create.0.arrivalStopId is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B63" t="str">
+        <v>03:46:35 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E63" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F63" t="str">
+        <v>write</v>
+      </c>
+      <c r="G63" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H63" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L63" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M63" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              routes: {
+                create: {
+                  '0': {
+                    distance: 619,
+                    duration: 10,
+                    price: 46425,
+                    stops: {
+                      create: [
+                        {
+                          type: 'departure',
+                          address: 'Lome, Togo',
+                          longitude: '1.222186',
+                          latitude: '6.136629'
+                        },
+                        {
+                          type: 'arrival',
+                          address: 'Dapaong, Togo',
+                          longitude: '0.20762',
+                          latitude: ' 10.86225'
+                        }
+                      ]
+                      ~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+                    },
+          +         departureStopId: Int,
+          +         arrivalStopId: Int,
+          ?         deletedAt?: DateTime | null,
+          ?         travels?: {
+          ?           create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?           connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?           createMany?: TravelCreateManyRouteInputEnvelope,
+          ?           connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?         }
+                  }
+                }
+              }
+            }
+          })
+Argument create: Got invalid value 
+[
+  {
+    type: 'departure',
+    address: 'Lome, Togo',
+    longitude: '1.222186',
+    latitude: '6.136629'
+  },
+  {
+    type: 'arrival',
+    address: 'Dapaong, Togo',
+    longitude: '0.20762',
+    latitude: ' 10.86225'
+  }
+]
+on prisma.createOneTrip. Provided List&lt;Json&gt;, expected StopCreateWithoutRouteInput or StopCreateWithoutRouteInput or StopUncheckedCreateWithoutRouteInput or StopUncheckedCreateWithoutRouteInput:
+type StopCreateWithoutRouteInput {
+  longitude: Float
+  latitude: Float
+  address: String
+  activateAt?: DateTime | Null
+}
+Argument departureStopId for data.routes.create.0.departureStopId is missing.
+Argument arrivalStopId for data.routes.create.0.arrivalStopId is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B64" t="str">
+        <v>03:48:26 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E64" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F64" t="str">
+        <v>write</v>
+      </c>
+      <c r="G64" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H64" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L64" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              routes: {
+                create: {
+                  '0': {
+                    distance: 619,
+                    duration: 10,
+                    price: 46425,
+                    stops: {
+                      create: [
+                        {
+                          type: 'departure',
+                          ~~~~
+                          address: 'Lome, Togo',
+                          longitude: 1.222186,
+                          latitude: 6.136629
+                        },
+                        {
+                          type: 'arrival',
+                          ~~~~
+                          address: 'Dapaong, Togo',
+                          longitude: 0.20762,
+                          latitude: 10.86225
+                        }
+                      ]
+                    },
+          +         departureStopId: Int,
+          +         arrivalStopId: Int,
+          ?         deletedAt?: DateTime | null,
+          ?         travels?: {
+          ?           create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?           connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?           createMany?: TravelCreateManyRouteInputEnvelope,
+          ?           connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?         }
+                  }
+                }
+              }
+            }
+          })
+Unknown arg `type` in data.routes.create.0.stops.create.0.type for type StopCreateWithoutRouteInput.
+Unknown arg `type` in data.routes.create.0.stops.create.1.type for type StopCreateWithoutRouteInput.
+Argument departureStopId for data.routes.create.0.departureStopId is missing.
+Argument arrivalStopId for data.routes.create.0.arrivalStopId is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B65" t="str">
+        <v>03:50:11 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E65" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F65" t="str">
+        <v>write</v>
+      </c>
+      <c r="G65" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H65" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L65" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M65" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              routes: {
+                create: {
+                  '0': {
+                    distance: 619,
+                    duration: 10,
+                    price: 46425,
+                    stops: {
+                      create: [
+                        {
+                          type: 'departure',
+                          ~~~~
+                          address: 'Lome, Togo',
+                          longitude: 1.222186,
+                          latitude: 6.136629
+                        },
+                        {
+                          type: 'arrival',
+                          ~~~~
+                          address: 'Dapaong, Togo',
+                          longitude: 0.20762,
+                          latitude: 10.86225
+                        }
+                      ]
+                    },
+          +         departureStopId: Int,
+          +         arrivalStopId: Int,
+          ?         deletedAt?: DateTime | null,
+          ?         travels?: {
+          ?           create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?           connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?           createMany?: TravelCreateManyRouteInputEnvelope,
+          ?           connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?         }
+                  }
+                }
+              }
+            }
+          })
+Unknown arg `type` in data.routes.create.0.stops.create.0.type for type StopCreateWithoutRouteInput.
+Unknown arg `type` in data.routes.create.0.stops.create.1.type for type StopCreateWithoutRouteInput.
+Argument departureStopId for data.routes.create.0.departureStopId is missing.
+Argument arrivalStopId for data.routes.create.0.arrivalStopId is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B66" t="str">
+        <v>03:53:08 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E66" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F66" t="str">
+        <v>write</v>
+      </c>
+      <c r="G66" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H66" t="str">
+        <v xml:space="preserve">Joseph  TAGBA  write trip </v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L66" t="str">
+        <v>TAGBA</v>
+      </c>
+      <c r="M66" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/media/sonik/data/Worksapce/Molory/api/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 6,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              routes: {
+                create: {
+                  '0': {
+                    distance: 619,
+                    duration: 10,
+                    price: 46425,
+                    stops: {
+                      create: [
+                        {
+                          type: 'departure',
+                          address: 'Lome, Togo',
+                          longitude: 1.222186,
+                          latitude: 6.136629
+                        },
+                        {
+                          type: 'arrival',
+                          address: 'Dapaong, Togo',
+                          longitude: 0.20762,
+                          latitude: 10.86225
+                        }
+                      ]
+                    },
+          +         departureStopId: Int,
+          +         arrivalStopId: Int,
+          ?         deletedAt?: DateTime | null,
+          ?         travels?: {
+          ?           create?: TravelCreateWithoutRouteInput | TravelCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput | TravelUncheckedCreateWithoutRouteInput,
+          ?           connectOrCreate?: TravelCreateOrConnectWithoutRouteInput | TravelCreateOrConnectWithoutRouteInput,
+          ?           createMany?: TravelCreateManyRouteInputEnvelope,
+          ?           connect?: TravelWhereUniqueInput | TravelWhereUniqueInput
+          ?         }
+                  }
+                }
+              }
+            }
+          })
+Argument departureStopId for data.routes.create.0.departureStopId is missing.
+Argument arrivalStopId for data.routes.create.0.arrivalStopId is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B67" t="str">
+        <v>03:55:36 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E67" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F67" t="str">
+        <v>read</v>
+      </c>
+      <c r="G67" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Joseph  TAGBA  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="J67" t="str">
+        <v>all</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L67" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B68" t="str">
+        <v>03:55:44 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E68" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F68" t="str">
+        <v>write</v>
+      </c>
+      <c r="G68" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Joseph  TAGBA  write trip undefined</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L68" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B69" t="str">
+        <v>04:00:22 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E69" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F69" t="str">
+        <v>read</v>
+      </c>
+      <c r="G69" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Joseph  TAGBA  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="J69" t="str">
+        <v>all</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L69" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Wed Apr 13 2022</v>
+      </c>
+      <c r="B70" t="str">
+        <v>04:03:21 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E70" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F70" t="str">
+        <v>read</v>
+      </c>
+      <c r="G70" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Joseph  TAGBA  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="J70" t="str">
+        <v>all</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="L70" t="str">
+        <v>TAGBA</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M70"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -2596,7 +2596,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5922,9 +5922,235 @@
         <v>TAGBA</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B71" t="str">
+        <v>11:42:18 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C71" t="str">
+        <v>22892942600</v>
+      </c>
+      <c r="D71" t="str">
+        <v>User</v>
+      </c>
+      <c r="E71" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F71" t="str">
+        <v>request</v>
+      </c>
+      <c r="G71" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H71" t="str">
+        <v>22892942600 request to receive otp</v>
+      </c>
+      <c r="M71" t="str">
+        <v>Cannot read properties of undefined (reading 'findFirst')</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B72" t="str">
+        <v>11:43:20 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C72" t="str">
+        <v>22892942600</v>
+      </c>
+      <c r="D72" t="str">
+        <v>User</v>
+      </c>
+      <c r="E72" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F72" t="str">
+        <v>request</v>
+      </c>
+      <c r="G72" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H72" t="str">
+        <v>22892942600 request to receive otp</v>
+      </c>
+      <c r="M72" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B73" t="str">
+        <v>11:43:42 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C73" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D73" t="str">
+        <v>User</v>
+      </c>
+      <c r="E73" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F73" t="str">
+        <v>request</v>
+      </c>
+      <c r="G73" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H73" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B74" t="str">
+        <v>11:43:57 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C74" t="str">
+        <v>22892942600</v>
+      </c>
+      <c r="D74" t="str">
+        <v>User</v>
+      </c>
+      <c r="E74" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F74" t="str">
+        <v>request</v>
+      </c>
+      <c r="G74" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H74" t="str">
+        <v>22892942600 request to receive otp</v>
+      </c>
+      <c r="M74" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B75" t="str">
+        <v>11:44:05 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C75" t="str">
+        <v>22892942600</v>
+      </c>
+      <c r="D75" t="str">
+        <v>User</v>
+      </c>
+      <c r="E75" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F75" t="str">
+        <v>request</v>
+      </c>
+      <c r="G75" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H75" t="str">
+        <v>22892942600 request to receive otp</v>
+      </c>
+      <c r="M75" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B76" t="str">
+        <v>11:44:12 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C76" t="str">
+        <v>22892942600</v>
+      </c>
+      <c r="D76" t="str">
+        <v>User</v>
+      </c>
+      <c r="E76" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F76" t="str">
+        <v>request</v>
+      </c>
+      <c r="G76" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H76" t="str">
+        <v>22892942600 request to receive otp</v>
+      </c>
+      <c r="M76" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B77" t="str">
+        <v>11:44:43 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C77" t="str">
+        <v>22892942600</v>
+      </c>
+      <c r="D77" t="str">
+        <v>User</v>
+      </c>
+      <c r="E77" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F77" t="str">
+        <v>request</v>
+      </c>
+      <c r="G77" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H77" t="str">
+        <v>22892942600 request to receive otp</v>
+      </c>
+      <c r="M77" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Mon Apr 25 2022</v>
+      </c>
+      <c r="B78" t="str">
+        <v>11:47:17 GMT+0000 (Greenwich Mean Time)</v>
+      </c>
+      <c r="C78" t="str">
+        <v>22892942600</v>
+      </c>
+      <c r="D78" t="str">
+        <v>User</v>
+      </c>
+      <c r="E78" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F78" t="str">
+        <v>request</v>
+      </c>
+      <c r="G78" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H78" t="str">
+        <v>22892942600 request to receive otp</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M78"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -7,6 +7,7 @@
     <sheet name="2022_2" sheetId="2" r:id="rId2"/>
     <sheet name="2022_3" sheetId="3" r:id="rId3"/>
     <sheet name="2022_4" sheetId="4" r:id="rId4"/>
+    <sheet name="2022_5" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -6153,4 +6154,523 @@
     <ignoredError numberStoredAsText="1" sqref="A1:M78"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>model</v>
+      </c>
+      <c r="E1" t="str">
+        <v>path</v>
+      </c>
+      <c r="F1" t="str">
+        <v>action</v>
+      </c>
+      <c r="G1" t="str">
+        <v>status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>failureReason</v>
+      </c>
+      <c r="J1" t="str">
+        <v>userId</v>
+      </c>
+      <c r="K1" t="str">
+        <v>modelId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>14:56:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>User</v>
+      </c>
+      <c r="E2" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F2" t="str">
+        <v>login</v>
+      </c>
+      <c r="G2" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H2" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I2" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J2" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="K2" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>14:57:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>k0d3.s0nk@gmail.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>User</v>
+      </c>
+      <c r="E3" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F3" t="str">
+        <v>login</v>
+      </c>
+      <c r="G3" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H3" t="str">
+        <v>k0d3.s0nk@gmail.com  login</v>
+      </c>
+      <c r="I3" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>14:59:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>k0d3.s0nk@gmail.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>User</v>
+      </c>
+      <c r="E4" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F4" t="str">
+        <v>login</v>
+      </c>
+      <c r="G4" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H4" t="str">
+        <v>k0d3.s0nk@gmail.com  login</v>
+      </c>
+      <c r="I4" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>15:01:07 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>User</v>
+      </c>
+      <c r="E5" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F5" t="str">
+        <v>login</v>
+      </c>
+      <c r="G5" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve">  login</v>
+      </c>
+      <c r="I5" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>15:03:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>k0d3.s0n1k@gmail.co</v>
+      </c>
+      <c r="D6" t="str">
+        <v>User</v>
+      </c>
+      <c r="E6" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F6" t="str">
+        <v>login</v>
+      </c>
+      <c r="G6" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H6" t="str">
+        <v>k0d3.s0n1k@gmail.co  login</v>
+      </c>
+      <c r="I6" t="str">
+        <v>User not found</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>15:20:29 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>k0d3.s0n1k@gmail.co</v>
+      </c>
+      <c r="D7" t="str">
+        <v>User</v>
+      </c>
+      <c r="E7" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F7" t="str">
+        <v>login</v>
+      </c>
+      <c r="G7" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H7" t="str">
+        <v>k0d3.s0n1k@gmail.co  login</v>
+      </c>
+      <c r="I7" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>15:21:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C8" t="str">
+        <v>k0d3.s0n1k@gmail.co</v>
+      </c>
+      <c r="D8" t="str">
+        <v>User</v>
+      </c>
+      <c r="E8" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F8" t="str">
+        <v>login</v>
+      </c>
+      <c r="G8" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H8" t="str">
+        <v>k0d3.s0n1k@gmail.co  login</v>
+      </c>
+      <c r="I8" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>15:23:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>k0d3.s0n1k@gmail.co</v>
+      </c>
+      <c r="D9" t="str">
+        <v>User</v>
+      </c>
+      <c r="E9" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F9" t="str">
+        <v>login</v>
+      </c>
+      <c r="G9" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H9" t="str">
+        <v>k0d3.s0n1k@gmail.co  login</v>
+      </c>
+      <c r="I9" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>15:23:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>k0d3.s0n1k@gmail.co</v>
+      </c>
+      <c r="D10" t="str">
+        <v>User</v>
+      </c>
+      <c r="E10" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F10" t="str">
+        <v>login</v>
+      </c>
+      <c r="G10" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H10" t="str">
+        <v>k0d3.s0n1k@gmail.co  login</v>
+      </c>
+      <c r="I10" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>15:32:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>User</v>
+      </c>
+      <c r="E11" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F11" t="str">
+        <v>login</v>
+      </c>
+      <c r="G11" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H11" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I11" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>15:33:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C12" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>User</v>
+      </c>
+      <c r="E12" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F12" t="str">
+        <v>login</v>
+      </c>
+      <c r="G12" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H12" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I12" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>15:34:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C13" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>User</v>
+      </c>
+      <c r="E13" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F13" t="str">
+        <v>login</v>
+      </c>
+      <c r="G13" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H13" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I13" t="str">
+        <v>error.passwordIncorrect</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>15:35:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C14" t="str">
+        <v>k0d3.s0n1k@gmai.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>User</v>
+      </c>
+      <c r="E14" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F14" t="str">
+        <v>login</v>
+      </c>
+      <c r="G14" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H14" t="str">
+        <v>k0d3.s0n1k@gmai.com  login</v>
+      </c>
+      <c r="I14" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>15:36:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C15" t="str">
+        <v>k0d3.s0n1k@gmai.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>User</v>
+      </c>
+      <c r="E15" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F15" t="str">
+        <v>login</v>
+      </c>
+      <c r="G15" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H15" t="str">
+        <v>k0d3.s0n1k@gmai.com  login</v>
+      </c>
+      <c r="I15" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>15:36:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C16" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>User</v>
+      </c>
+      <c r="E16" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F16" t="str">
+        <v>login</v>
+      </c>
+      <c r="G16" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H16" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I16" t="str">
+        <v>error.passwordIncorrect</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Mon May 09 2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>15:37:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C17" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>User</v>
+      </c>
+      <c r="E17" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F17" t="str">
+        <v>login</v>
+      </c>
+      <c r="G17" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H17" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I17" t="str">
+        <v>error.passwordIncorrect</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K17"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -8,6 +8,7 @@
     <sheet name="2022_3" sheetId="3" r:id="rId3"/>
     <sheet name="2022_4" sheetId="4" r:id="rId4"/>
     <sheet name="2022_5" sheetId="5" r:id="rId5"/>
+    <sheet name="2022_7" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -6673,4 +6674,332 @@
     <ignoredError numberStoredAsText="1" sqref="A1:K17"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>phoneNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>model</v>
+      </c>
+      <c r="E1" t="str">
+        <v>path</v>
+      </c>
+      <c r="F1" t="str">
+        <v>action</v>
+      </c>
+      <c r="G1" t="str">
+        <v>status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>failureReason</v>
+      </c>
+      <c r="J1" t="str">
+        <v>userId</v>
+      </c>
+      <c r="K1" t="str">
+        <v>modelId</v>
+      </c>
+      <c r="L1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="M1" t="str">
+        <v>firstName</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Sat Jul 09 2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>16:12:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>+22892942601</v>
+      </c>
+      <c r="D2" t="str">
+        <v>User</v>
+      </c>
+      <c r="E2" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F2" t="str">
+        <v>request</v>
+      </c>
+      <c r="G2" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H2" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+      <c r="I2" t="str">
+        <v>error.invalid</v>
+      </c>
+      <c r="J2" t="str">
+        <v>+22892942601 request to receive otp</v>
+      </c>
+      <c r="K2" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Sat Jul 09 2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>16:13:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D3" t="str">
+        <v>User</v>
+      </c>
+      <c r="E3" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F3" t="str">
+        <v>request</v>
+      </c>
+      <c r="G3" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H3" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I3" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sat Jul 09 2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>16:13:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D4" t="str">
+        <v>User</v>
+      </c>
+      <c r="E4" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F4" t="str">
+        <v>request</v>
+      </c>
+      <c r="G4" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H4" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I4" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Sat Jul 09 2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>16:17:50 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C5" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D5" t="str">
+        <v>User</v>
+      </c>
+      <c r="E5" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F5" t="str">
+        <v>request</v>
+      </c>
+      <c r="G5" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H5" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I5" t="str">
+        <v>getaddrinfo EAI_AGAIN dashboard.smszedekaa.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Sat Jul 09 2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>16:27:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D6" t="str">
+        <v>User</v>
+      </c>
+      <c r="E6" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F6" t="str">
+        <v>request</v>
+      </c>
+      <c r="G6" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H6" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Sat Jul 09 2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>16:28:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D7" t="str">
+        <v>User</v>
+      </c>
+      <c r="E7" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F7" t="str">
+        <v>request</v>
+      </c>
+      <c r="G7" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H7" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Sat Jul 09 2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>16:29:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>User</v>
+      </c>
+      <c r="E8" t="str">
+        <v>/api/auth/complete-infos</v>
+      </c>
+      <c r="F8" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G8" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve">    edit his infos</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Sun Jul 10 2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>01:27:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D9" t="str">
+        <v>User</v>
+      </c>
+      <c r="E9" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F9" t="str">
+        <v>request</v>
+      </c>
+      <c r="G9" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H9" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Sun Jul 10 2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>01:28:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D10" t="str">
+        <v>User</v>
+      </c>
+      <c r="E10" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F10" t="str">
+        <v>request</v>
+      </c>
+      <c r="G10" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H10" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M10"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -6678,7 +6678,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6723,6 +6723,9 @@
       <c r="M1" t="str">
         <v>firstName</v>
       </c>
+      <c r="N1" t="str">
+        <v>email</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -6997,9 +7000,5148 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>16:13:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D11" t="str">
+        <v>User</v>
+      </c>
+      <c r="E11" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F11" t="str">
+        <v>request</v>
+      </c>
+      <c r="G11" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H11" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>16:13:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C12" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D12" t="str">
+        <v>User</v>
+      </c>
+      <c r="E12" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F12" t="str">
+        <v>request</v>
+      </c>
+      <c r="G12" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H12" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>16:14:05 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>User</v>
+      </c>
+      <c r="E13" t="str">
+        <v>/api/auth/profile</v>
+      </c>
+      <c r="F13" t="str">
+        <v>read</v>
+      </c>
+      <c r="G13" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Sonik  Kode  read his infos</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>16:42:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C14" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D14" t="str">
+        <v>User</v>
+      </c>
+      <c r="E14" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F14" t="str">
+        <v>request</v>
+      </c>
+      <c r="G14" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H14" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>16:43:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C15" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D15" t="str">
+        <v>User</v>
+      </c>
+      <c r="E15" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F15" t="str">
+        <v>request</v>
+      </c>
+      <c r="G15" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H15" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>16:44:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>User</v>
+      </c>
+      <c r="E16" t="str">
+        <v>/api/auth/profile</v>
+      </c>
+      <c r="F16" t="str">
+        <v>read</v>
+      </c>
+      <c r="G16" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Sonik  Kode  read his infos</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="str">
+        <v>1</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>16:44:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>User</v>
+      </c>
+      <c r="E17" t="str">
+        <v>/api/auth/edit-avatar</v>
+      </c>
+      <c r="F17" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G17" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Sonik  Kode  upload his avatar</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <v>1</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>16:44:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>User</v>
+      </c>
+      <c r="E18" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F18" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G18" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="str">
+        <v>1</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>16:45:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>User</v>
+      </c>
+      <c r="E19" t="str">
+        <v>/api/auth/driver-license</v>
+      </c>
+      <c r="F19" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G19" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Sonik  Kode  upload his driver license</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="str">
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B20" t="str">
+        <v>16:45:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>User</v>
+      </c>
+      <c r="E20" t="str">
+        <v>/api/auth/profile</v>
+      </c>
+      <c r="F20" t="str">
+        <v>read</v>
+      </c>
+      <c r="G20" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Sonik  Kode  read his infos</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <v>1</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>17:09:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D21" t="str">
+        <v>User</v>
+      </c>
+      <c r="E21" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F21" t="str">
+        <v>login</v>
+      </c>
+      <c r="G21" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H21" t="str">
+        <v>admin@molory.com  login</v>
+      </c>
+      <c r="I21" t="str">
+        <v>error.unauthorized</v>
+      </c>
+      <c r="N21" t="str">
+        <v>admin@molory.com</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>17:11:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>User</v>
+      </c>
+      <c r="E22" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F22" t="str">
+        <v>login</v>
+      </c>
+      <c r="G22" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H22" t="str">
+        <v>admin@molory.com  login</v>
+      </c>
+      <c r="I22" t="str">
+        <v>error.unauthorized</v>
+      </c>
+      <c r="N22" t="str">
+        <v>admin@molory.com</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>17:17:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D23" t="str">
+        <v>User</v>
+      </c>
+      <c r="E23" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F23" t="str">
+        <v>login</v>
+      </c>
+      <c r="G23" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H23" t="str">
+        <v>admin@molory.com  login</v>
+      </c>
+      <c r="I23" t="str">
+        <v>error.passwordIncorrect</v>
+      </c>
+      <c r="N23" t="str">
+        <v>admin@molory.com</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>18:00:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>User</v>
+      </c>
+      <c r="E24" t="str">
+        <v>/api/auth/confirm-email</v>
+      </c>
+      <c r="F24" t="str">
+        <v>activate</v>
+      </c>
+      <c r="G24" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H24" t="str">
+        <v>developer@nex-softwares.com activate his account</v>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>18:03:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>User</v>
+      </c>
+      <c r="E25" t="str">
+        <v>/api/auth/confirm-email</v>
+      </c>
+      <c r="F25" t="str">
+        <v>activate</v>
+      </c>
+      <c r="G25" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H25" t="str">
+        <v>developer@nex-softwares.com activate his account</v>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>18:03:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D26" t="str">
+        <v>User</v>
+      </c>
+      <c r="E26" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F26" t="str">
+        <v>login</v>
+      </c>
+      <c r="G26" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H26" t="str">
+        <v>admin@molory.com  login</v>
+      </c>
+      <c r="I26" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N26" t="str">
+        <v>admin@molory.com</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>18:04:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D27" t="str">
+        <v>User</v>
+      </c>
+      <c r="E27" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F27" t="str">
+        <v>login</v>
+      </c>
+      <c r="G27" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H27" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N27" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>18:32:07 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D28" t="str">
+        <v>User</v>
+      </c>
+      <c r="E28" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F28" t="str">
+        <v>login</v>
+      </c>
+      <c r="G28" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H28" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I28" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B29" t="str">
+        <v>18:34:26 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D29" t="str">
+        <v>User</v>
+      </c>
+      <c r="E29" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F29" t="str">
+        <v>login</v>
+      </c>
+      <c r="G29" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H29" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I29" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>18:36:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>User</v>
+      </c>
+      <c r="E30" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F30" t="str">
+        <v>login</v>
+      </c>
+      <c r="G30" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H30" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N30" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B31" t="str">
+        <v>18:37:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D31" t="str">
+        <v>User</v>
+      </c>
+      <c r="E31" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F31" t="str">
+        <v>login</v>
+      </c>
+      <c r="G31" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H31" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I31" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>18:38:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D32" t="str">
+        <v>User</v>
+      </c>
+      <c r="E32" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F32" t="str">
+        <v>login</v>
+      </c>
+      <c r="G32" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H32" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I32" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>18:39:24 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D33" t="str">
+        <v>User</v>
+      </c>
+      <c r="E33" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F33" t="str">
+        <v>login</v>
+      </c>
+      <c r="G33" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H33" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I33" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>18:40:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D34" t="str">
+        <v>User</v>
+      </c>
+      <c r="E34" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F34" t="str">
+        <v>login</v>
+      </c>
+      <c r="G34" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H34" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I34" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B35" t="str">
+        <v>18:40:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>User</v>
+      </c>
+      <c r="E35" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F35" t="str">
+        <v>login</v>
+      </c>
+      <c r="G35" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H35" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I35" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>18:41:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D36" t="str">
+        <v>User</v>
+      </c>
+      <c r="E36" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F36" t="str">
+        <v>login</v>
+      </c>
+      <c r="G36" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H36" t="str">
+        <v>undefined  login</v>
+      </c>
+      <c r="I36" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B37" t="str">
+        <v>18:42:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>User</v>
+      </c>
+      <c r="E37" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F37" t="str">
+        <v>read</v>
+      </c>
+      <c r="G37" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H37" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37" t="str">
+        <v>all</v>
+      </c>
+      <c r="L37" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>18:42:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D38" t="str">
+        <v>User</v>
+      </c>
+      <c r="E38" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F38" t="str">
+        <v>read</v>
+      </c>
+      <c r="G38" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H38" t="str">
+        <v>NEX  Admin  read user 1</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38" t="str">
+        <v>1</v>
+      </c>
+      <c r="L38" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B39" t="str">
+        <v>18:45:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D39" t="str">
+        <v>User</v>
+      </c>
+      <c r="E39" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F39" t="str">
+        <v>read</v>
+      </c>
+      <c r="G39" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H39" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39" t="str">
+        <v>all</v>
+      </c>
+      <c r="L39" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>18:53:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D40" t="str">
+        <v>User</v>
+      </c>
+      <c r="E40" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F40" t="str">
+        <v>read</v>
+      </c>
+      <c r="G40" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H40" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40" t="str">
+        <v>all</v>
+      </c>
+      <c r="L40" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B41" t="str">
+        <v>18:58:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D41" t="str">
+        <v>User</v>
+      </c>
+      <c r="E41" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F41" t="str">
+        <v>read</v>
+      </c>
+      <c r="G41" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H41" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41" t="str">
+        <v>all</v>
+      </c>
+      <c r="L41" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B42" t="str">
+        <v>18:58:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D42" t="str">
+        <v>User</v>
+      </c>
+      <c r="E42" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F42" t="str">
+        <v>read</v>
+      </c>
+      <c r="G42" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H42" t="str">
+        <v>NEX  Admin  read user 1</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="K42" t="str">
+        <v>1</v>
+      </c>
+      <c r="L42" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M42" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B43" t="str">
+        <v>18:59:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D43" t="str">
+        <v>User</v>
+      </c>
+      <c r="E43" t="str">
+        <v>/api/validate-id-card</v>
+      </c>
+      <c r="F43" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G43" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H43" t="str">
+        <v>NEX  Admin  edit user undefined</v>
+      </c>
+      <c r="I43" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="L43" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M43" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B44" t="str">
+        <v>19:00:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D44" t="str">
+        <v>User</v>
+      </c>
+      <c r="E44" t="str">
+        <v>/api/validate-id-card</v>
+      </c>
+      <c r="F44" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G44" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H44" t="str">
+        <v>NEX  Admin  edit user undefined</v>
+      </c>
+      <c r="I44" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="L44" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B45" t="str">
+        <v>19:00:48 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D45" t="str">
+        <v>User</v>
+      </c>
+      <c r="E45" t="str">
+        <v>/api/validate-id-card</v>
+      </c>
+      <c r="F45" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G45" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H45" t="str">
+        <v>NEX  Admin  edit user 1</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45" t="str">
+        <v>1</v>
+      </c>
+      <c r="L45" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>19:00:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>User</v>
+      </c>
+      <c r="E46" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F46" t="str">
+        <v>read</v>
+      </c>
+      <c r="G46" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H46" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46" t="str">
+        <v>all</v>
+      </c>
+      <c r="L46" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M46" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>19:01:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D47" t="str">
+        <v>User</v>
+      </c>
+      <c r="E47" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F47" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G47" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H47" t="str">
+        <v>NEX  Admin  edit user 1</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47" t="str">
+        <v>1</v>
+      </c>
+      <c r="L47" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M47" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Mon Jul 11 2022</v>
+      </c>
+      <c r="B48" t="str">
+        <v>19:01:46 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D48" t="str">
+        <v>User</v>
+      </c>
+      <c r="E48" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F48" t="str">
+        <v>read</v>
+      </c>
+      <c r="G48" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H48" t="str">
+        <v>NEX  Admin  read user 1</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48" t="str">
+        <v>1</v>
+      </c>
+      <c r="L48" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M48" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B49" t="str">
+        <v>17:31:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E49" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F49" t="str">
+        <v>read</v>
+      </c>
+      <c r="G49" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H49" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="K49" t="str">
+        <v>all</v>
+      </c>
+      <c r="L49" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M49" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B50" t="str">
+        <v>17:38:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E50" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F50" t="str">
+        <v>write</v>
+      </c>
+      <c r="G50" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H50" t="str">
+        <v>NEX  Admin  write preference 1</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M50" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B51" t="str">
+        <v>17:39:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E51" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F51" t="str">
+        <v>read</v>
+      </c>
+      <c r="G51" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H51" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51" t="str">
+        <v>all</v>
+      </c>
+      <c r="L51" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M51" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B52" t="str">
+        <v>17:44:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D52" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E52" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F52" t="str">
+        <v>read</v>
+      </c>
+      <c r="G52" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H52" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J52">
+        <v>9</v>
+      </c>
+      <c r="K52" t="str">
+        <v>all</v>
+      </c>
+      <c r="L52" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M52" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B53" t="str">
+        <v>17:44:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D53" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E53" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F53" t="str">
+        <v>write</v>
+      </c>
+      <c r="G53" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H53" t="str">
+        <v>NEX  Admin  write vehicle type undefined</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="L53" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M53" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B54" t="str">
+        <v>17:44:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D54" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E54" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F54" t="str">
+        <v>read</v>
+      </c>
+      <c r="G54" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H54" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
+      <c r="K54" t="str">
+        <v>all</v>
+      </c>
+      <c r="L54" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M54" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B55" t="str">
+        <v>17:45:39 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D55" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E55" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F55" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G55" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H55" t="str">
+        <v>NEX  Admin  edit vehicle type undefined</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="L55" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M55" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B56" t="str">
+        <v>17:45:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D56" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E56" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F56" t="str">
+        <v>read</v>
+      </c>
+      <c r="G56" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H56" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56" t="str">
+        <v>all</v>
+      </c>
+      <c r="L56" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M56" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B57" t="str">
+        <v>17:47:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D57" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E57" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F57" t="str">
+        <v>write</v>
+      </c>
+      <c r="G57" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H57" t="str">
+        <v>NEX  Admin  write vehicle type undefined</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="L57" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M57" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B58" t="str">
+        <v>17:47:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D58" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E58" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F58" t="str">
+        <v>read</v>
+      </c>
+      <c r="G58" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H58" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
+      <c r="K58" t="str">
+        <v>all</v>
+      </c>
+      <c r="L58" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M58" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B59" t="str">
+        <v>17:49:50 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E59" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F59" t="str">
+        <v>read</v>
+      </c>
+      <c r="G59" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H59" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J59">
+        <v>9</v>
+      </c>
+      <c r="K59" t="str">
+        <v>all</v>
+      </c>
+      <c r="L59" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M59" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B60" t="str">
+        <v>17:50:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E60" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F60" t="str">
+        <v>write</v>
+      </c>
+      <c r="G60" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H60" t="str">
+        <v xml:space="preserve">NEX  Admin  write pricing </v>
+      </c>
+      <c r="I60" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              vehicleTypeName: 'Car',
+              lowerDistance: '1',
+                             ~~~
+              upperDistance: '100',
+                             ~~~~~
+              unitPrice: '30'
+                         ~~~~
+            },
+            include: undefined
+          })
+Argument lowerDistance: Got invalid value '1' on prisma.createOnePricing. Provided String, expected Int.
+Argument upperDistance: Got invalid value '100' on prisma.createOnePricing. Provided String, expected Int.
+Argument unitPrice: Got invalid value '30' on prisma.createOnePricing. Provided String, expected Float.
+</v>
+      </c>
+      <c r="J60">
+        <v>9</v>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B61" t="str">
+        <v>17:51:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E61" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F61" t="str">
+        <v>read</v>
+      </c>
+      <c r="G61" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H61" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J61">
+        <v>9</v>
+      </c>
+      <c r="K61" t="str">
+        <v>all</v>
+      </c>
+      <c r="L61" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M61" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B62" t="str">
+        <v>17:51:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E62" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F62" t="str">
+        <v>read</v>
+      </c>
+      <c r="G62" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H62" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="K62" t="str">
+        <v>all</v>
+      </c>
+      <c r="L62" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M62" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B63" t="str">
+        <v>17:52:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E63" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F63" t="str">
+        <v>write</v>
+      </c>
+      <c r="G63" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H63" t="str">
+        <v>NEX  Admin  write pricing 1</v>
+      </c>
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M63" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B64" t="str">
+        <v>17:52:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E64" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F64" t="str">
+        <v>read</v>
+      </c>
+      <c r="G64" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H64" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J64">
+        <v>9</v>
+      </c>
+      <c r="K64" t="str">
+        <v>all</v>
+      </c>
+      <c r="L64" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M64" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B65" t="str">
+        <v>17:53:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E65" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F65" t="str">
+        <v>write</v>
+      </c>
+      <c r="G65" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H65" t="str">
+        <v>NEX  Admin  write pricing 2</v>
+      </c>
+      <c r="J65">
+        <v>9</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M65" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B66" t="str">
+        <v>17:53:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E66" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F66" t="str">
+        <v>write</v>
+      </c>
+      <c r="G66" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H66" t="str">
+        <v>NEX  Admin  write pricing 3</v>
+      </c>
+      <c r="J66">
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M66" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B67" t="str">
+        <v>17:54:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E67" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F67" t="str">
+        <v>read</v>
+      </c>
+      <c r="G67" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H67" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J67">
+        <v>9</v>
+      </c>
+      <c r="K67" t="str">
+        <v>all</v>
+      </c>
+      <c r="L67" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M67" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B68" t="str">
+        <v>18:00:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E68" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F68" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G68" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H68" t="str">
+        <v>NEX  Admin  edit pricing 2</v>
+      </c>
+      <c r="J68">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M68" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B69" t="str">
+        <v>18:01:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E69" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F69" t="str">
+        <v>read</v>
+      </c>
+      <c r="G69" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H69" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J69">
+        <v>9</v>
+      </c>
+      <c r="K69" t="str">
+        <v>all</v>
+      </c>
+      <c r="L69" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M69" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B70" t="str">
+        <v>18:07:59 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E70" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F70" t="str">
+        <v>read</v>
+      </c>
+      <c r="G70" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H70" t="str">
+        <v>NEX  Admin  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="J70">
+        <v>9</v>
+      </c>
+      <c r="K70" t="str">
+        <v>all</v>
+      </c>
+      <c r="L70" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M70" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B71" t="str">
+        <v>18:11:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C71" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D71" t="str">
+        <v>User</v>
+      </c>
+      <c r="E71" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F71" t="str">
+        <v>request</v>
+      </c>
+      <c r="G71" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H71" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B72" t="str">
+        <v>18:12:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C72" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D72" t="str">
+        <v>User</v>
+      </c>
+      <c r="E72" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F72" t="str">
+        <v>request</v>
+      </c>
+      <c r="G72" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H72" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B73" t="str">
+        <v>18:18:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D73" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E73" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F73" t="str">
+        <v>read</v>
+      </c>
+      <c r="G73" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Sonik  Kode  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="str">
+        <v>all</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M73" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B74" t="str">
+        <v>18:18:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E74" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F74" t="str">
+        <v>read</v>
+      </c>
+      <c r="G74" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Sonik  Kode  read all vehicles (0) from 0 to 100</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="str">
+        <v>all</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M74" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B75" t="str">
+        <v>18:18:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D75" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E75" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F75" t="str">
+        <v>read</v>
+      </c>
+      <c r="G75" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Sonik  Kode  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="str">
+        <v>all</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M75" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B76" t="str">
+        <v>18:19:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E76" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F76" t="str">
+        <v>write</v>
+      </c>
+      <c r="G76" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Sonik  Kode  write vehicle 1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B77" t="str">
+        <v>18:19:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E77" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F77" t="str">
+        <v>read</v>
+      </c>
+      <c r="G77" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Sonik  Kode  read all vehicles (1) from 0 to 100</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="str">
+        <v>all</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M77" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B78" t="str">
+        <v>18:20:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E78" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F78" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G78" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Sonik  Kode  edit vehicle 1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M78" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B79" t="str">
+        <v>18:20:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E79" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F79" t="str">
+        <v>read</v>
+      </c>
+      <c r="G79" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Sonik  Kode  read all vehicles (1) from 0 to 100</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="str">
+        <v>all</v>
+      </c>
+      <c r="L79" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M79" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B80" t="str">
+        <v>18:39:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E80" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F80" t="str">
+        <v>read</v>
+      </c>
+      <c r="G80" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Sonik  Kode  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="str">
+        <v>all</v>
+      </c>
+      <c r="L80" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M80" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B81" t="str">
+        <v>18:48:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E81" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F81" t="str">
+        <v>write</v>
+      </c>
+      <c r="G81" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H81" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I81" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="str">
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M81" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B82" t="str">
+        <v>18:50:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E82" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F82" t="str">
+        <v>write</v>
+      </c>
+      <c r="G82" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H82" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I82" t="str">
+        <v>Cannot read properties of undefined (reading 'toString')</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="str">
+        <v/>
+      </c>
+      <c r="L82" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M82" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B83" t="str">
+        <v>18:55:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E83" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F83" t="str">
+        <v>write</v>
+      </c>
+      <c r="G83" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H83" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I83" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="str">
+        <v/>
+      </c>
+      <c r="L83" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M83" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B84" t="str">
+        <v>18:59:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E84" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F84" t="str">
+        <v>write</v>
+      </c>
+      <c r="G84" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H84" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I84" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M84" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Wed Jul 13 2022</v>
+      </c>
+      <c r="B85" t="str">
+        <v>19:03:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E85" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F85" t="str">
+        <v>write</v>
+      </c>
+      <c r="G85" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H85" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I85" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M85" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B86" t="str">
+        <v>00:33:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E86" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F86" t="str">
+        <v>write</v>
+      </c>
+      <c r="G86" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H86" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I86" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+      <c r="L86" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M86" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B87" t="str">
+        <v>00:34:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E87" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F87" t="str">
+        <v>write</v>
+      </c>
+      <c r="G87" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H87" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I87" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="str">
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M87" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B88" t="str">
+        <v>00:39:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E88" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F88" t="str">
+        <v>read</v>
+      </c>
+      <c r="G88" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Sonik  Kode  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="str">
+        <v>all</v>
+      </c>
+      <c r="L88" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M88" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B89" t="str">
+        <v>00:39:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E89" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F89" t="str">
+        <v>write</v>
+      </c>
+      <c r="G89" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H89" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I89" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="str">
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M89" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B90" t="str">
+        <v>00:40:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E90" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F90" t="str">
+        <v>write</v>
+      </c>
+      <c r="G90" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H90" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I90" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="str">
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M90" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B91" t="str">
+        <v>00:44:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E91" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F91" t="str">
+        <v>write</v>
+      </c>
+      <c r="G91" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H91" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I91" t="str">
+        <v>timeout of 10000ms exceeded</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="str">
+        <v/>
+      </c>
+      <c r="L91" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M91" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B92" t="str">
+        <v>00:45:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E92" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F92" t="str">
+        <v>write</v>
+      </c>
+      <c r="G92" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H92" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I92" t="str">
+        <v>timeout of 10000ms exceeded</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="str">
+        <v/>
+      </c>
+      <c r="L92" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M92" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B93" t="str">
+        <v>01:41:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E93" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F93" t="str">
+        <v>write</v>
+      </c>
+      <c r="G93" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H93" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I93" t="str">
+        <v>Request failed with status code 403</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="str">
+        <v/>
+      </c>
+      <c r="L93" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M93" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B94" t="str">
+        <v>01:43:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E94" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F94" t="str">
+        <v>write</v>
+      </c>
+      <c r="G94" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H94" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I94" t="str">
+        <v>Cannot read properties of undefined (reading 'value')</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="str">
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M94" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B95" t="str">
+        <v>11:01:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E95" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F95" t="str">
+        <v>write</v>
+      </c>
+      <c r="G95" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H95" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I95" t="str">
+        <v>Cannot read properties of undefined (reading 'value')</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="str">
+        <v/>
+      </c>
+      <c r="L95" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M95" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B96" t="str">
+        <v>11:10:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E96" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F96" t="str">
+        <v>write</v>
+      </c>
+      <c r="G96" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H96" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I96" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 1,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              routes: {
+                create: [
+                  {
+                    distance: 619,
+                    duration: 10,
+                    price: 6190,
+                    stops: {
+                      create: [
+                        {
+                          type: 'departure',
+                          address: 'Lome, Togo',
+                          longitude: 1.222186,
+                          latitude: 6.136629
+                        },
+                        {
+                          type: 'arrival',
+                          address: 'Dapaong, Togo',
+                          longitude: 0.20762,
+                          latitude: 10.86225
+                        }
+                      ]
+                    }
+                  }
+                ]
+              }
+            },
+            include: {
+              routes: {
+                include: {
+                  departure: true,
+                  arrival: true
+                }
+              },
+              departure: {
+                include: {
+          ?       travels?: true,
+          ?       stops?: true,
+          ?       trip?: true,
+          ?       _count?: true
+                }
+              },
+              arrival: {
+                include: {
+          ?       travels?: true,
+          ?       stops?: true,
+          ?       trip?: true,
+          ?       _count?: true
+                }
+              }
+            }
+          })
+Unknown field `departure` for include statement on model Route. Available options are listed in green. Did you mean `travels`?
+Unknown field `arrival` for include statement on model Route. Available options are listed in green. Did you mean `travels`?
+</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="str">
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M96" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B97" t="str">
+        <v>11:16:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E97" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F97" t="str">
+        <v>write</v>
+      </c>
+      <c r="G97" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H97" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I97" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 1,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: new Date('2022-04-14T08:00:00.000Z'),
+              routes: {
+                create: [
+                  {
+                    distance: 619,
+                    duration: 10,
+                    price: 6190,
+                    stops: {
+                      create: [
+                        {
+                          type: 'departure',
+                          address: 'Lome, Togo',
+                          longitude: 1.222186,
+                          latitude: 6.136629
+                        },
+                        {
+                          type: 'arrival',
+                          address: 'Dapaong, Togo',
+                          longitude: 0.20762,
+                          latitude: 10.86225
+                        }
+                      ]
+                    }
+                  }
+                ]
+              }
+            },
+            include: {
+              routes: {
+                include: {
+                  departure: true,
+                  arrival: true
+                }
+              },
+              departure: {
+                include: {
+          ?       travels?: true,
+          ?       stops?: true,
+          ?       trip?: true,
+          ?       _count?: true
+                }
+              },
+              arrival: {
+                include: {
+          ?       travels?: true,
+          ?       stops?: true,
+          ?       trip?: true,
+          ?       _count?: true
+                }
+              }
+            }
+          })
+Unknown field `departure` for include statement on model Route. Available options are listed in green. Did you mean `travels`?
+Unknown field `arrival` for include statement on model Route. Available options are listed in green. Did you mean `travels`?
+</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M97" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B98" t="str">
+        <v>11:23:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E98" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F98" t="str">
+        <v>write</v>
+      </c>
+      <c r="G98" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Sonik  Kode  write trip undefined</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M98" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Thu Jul 14 2022</v>
+      </c>
+      <c r="B99" t="str">
+        <v>11:23:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E99" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F99" t="str">
+        <v>read</v>
+      </c>
+      <c r="G99" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Sonik  Kode  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="str">
+        <v>all</v>
+      </c>
+      <c r="L99" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M99" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B100" t="str">
+        <v>01:18:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C100" t="str">
+        <v>90000000</v>
+      </c>
+      <c r="D100" t="str">
+        <v>User</v>
+      </c>
+      <c r="E100" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F100" t="str">
+        <v>request</v>
+      </c>
+      <c r="G100" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H100" t="str">
+        <v>90000000 request to receive otp</v>
+      </c>
+      <c r="I100" t="str">
+        <v>error.invalid</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B101" t="str">
+        <v>01:19:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C101" t="str">
+        <v>22890000000</v>
+      </c>
+      <c r="D101" t="str">
+        <v>User</v>
+      </c>
+      <c r="E101" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F101" t="str">
+        <v>request</v>
+      </c>
+      <c r="G101" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H101" t="str">
+        <v>22890000000 request to receive otp</v>
+      </c>
+      <c r="I101" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B102" t="str">
+        <v>01:20:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C102" t="str">
+        <v>22890000000</v>
+      </c>
+      <c r="D102" t="str">
+        <v>User</v>
+      </c>
+      <c r="E102" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F102" t="str">
+        <v>request</v>
+      </c>
+      <c r="G102" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H102" t="str">
+        <v>22890000000 request to receive otp</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B103" t="str">
+        <v>01:22:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C103" t="str">
+        <v>22890000000</v>
+      </c>
+      <c r="D103" t="str">
+        <v>User</v>
+      </c>
+      <c r="E103" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F103" t="str">
+        <v>request</v>
+      </c>
+      <c r="G103" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H103" t="str">
+        <v>22890000000 request to receive otp</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B104" t="str">
+        <v>01:24:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C104" t="str">
+        <v>22890000000</v>
+      </c>
+      <c r="D104" t="str">
+        <v>User</v>
+      </c>
+      <c r="E104" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F104" t="str">
+        <v>request</v>
+      </c>
+      <c r="G104" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H104" t="str">
+        <v>22890000000 request to receive otp</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B105" t="str">
+        <v>01:27:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C105" t="str">
+        <v>22890000000</v>
+      </c>
+      <c r="D105" t="str">
+        <v>User</v>
+      </c>
+      <c r="E105" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F105" t="str">
+        <v>request</v>
+      </c>
+      <c r="G105" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H105" t="str">
+        <v>22890000000 request to receive otp</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B106" t="str">
+        <v>01:28:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C106" t="str">
+        <v>22890000000</v>
+      </c>
+      <c r="D106" t="str">
+        <v>User</v>
+      </c>
+      <c r="E106" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F106" t="str">
+        <v>request</v>
+      </c>
+      <c r="G106" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H106" t="str">
+        <v>22890000000 request to receive otp</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+      <c r="K106" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B107" t="str">
+        <v>01:29:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D107" t="str">
+        <v>User</v>
+      </c>
+      <c r="E107" t="str">
+        <v>/api/auth/complete-infos</v>
+      </c>
+      <c r="F107" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G107" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H107" t="str">
+        <v xml:space="preserve">    edit his infos</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107" t="str">
+        <v>10</v>
+      </c>
+      <c r="L107" t="str">
+        <v/>
+      </c>
+      <c r="M107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B108" t="str">
+        <v>01:33:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E108" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F108" t="str">
+        <v>read</v>
+      </c>
+      <c r="G108" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H108" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J108">
+        <v>10</v>
+      </c>
+      <c r="K108" t="str">
+        <v>all</v>
+      </c>
+      <c r="L108" t="str">
+        <v>John</v>
+      </c>
+      <c r="M108" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B109" t="str">
+        <v>01:41:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E109" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F109" t="str">
+        <v>read</v>
+      </c>
+      <c r="G109" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H109" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J109">
+        <v>10</v>
+      </c>
+      <c r="K109" t="str">
+        <v>all</v>
+      </c>
+      <c r="L109" t="str">
+        <v>John</v>
+      </c>
+      <c r="M109" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B110" t="str">
+        <v>01:44:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E110" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F110" t="str">
+        <v>read</v>
+      </c>
+      <c r="G110" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H110" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J110">
+        <v>10</v>
+      </c>
+      <c r="K110" t="str">
+        <v>all</v>
+      </c>
+      <c r="L110" t="str">
+        <v>John</v>
+      </c>
+      <c r="M110" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B111" t="str">
+        <v>01:46:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E111" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F111" t="str">
+        <v>read</v>
+      </c>
+      <c r="G111" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H111" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J111">
+        <v>10</v>
+      </c>
+      <c r="K111" t="str">
+        <v>all</v>
+      </c>
+      <c r="L111" t="str">
+        <v>John</v>
+      </c>
+      <c r="M111" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B112" t="str">
+        <v>02:04:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E112" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F112" t="str">
+        <v>write</v>
+      </c>
+      <c r="G112" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H112" t="str">
+        <v xml:space="preserve">Sonik  Kode  write trip </v>
+      </c>
+      <c r="I112" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 1,
+              vehicleId: 1,
+              seats: 4,
+              departureDate: '2022-04-14',
+                             ~~~~~~~~~~~~
+              departureTime: '08:00',
+              ~~~~~~~~~~~~~
+              routes: {
+                create: [
+                  {
+                    distance: 619,
+                    duration: 10,
+                    price: 6190,
+                    stops: {
+                      create: [
+                        {
+                          type: 'departure',
+                          address: 'Lome, Togo',
+                          longitude: 1.222186,
+                          latitude: 6.136629
+                        },
+                        {
+                          type: 'arrival',
+                          address: 'Dapaong, Togo',
+                          longitude: 0.20762,
+                          latitude: 10.86225
+                        }
+                      ]
+                    }
+                  }
+                ]
+              }
+            },
+            include: {
+              routes: {
+                select: {
+                  distance: true,
+                  duration: true,
+                  price: true,
+                  stops: true
+                }
+              }
+            }
+          })
+Argument departureDate: Got invalid value '2022-04-14' on prisma.createOneTrip. Provided String, expected DateTime.
+Unknown arg `departureTime` in data.departureTime for type TripUncheckedCreateInput. Did you mean `departureDate`? Available args:
+type TripUncheckedCreateInput {
+  id?: Int
+  userId: Int
+  vehicleId: Int
+  seats: Int
+  status?: Int
+  departureDate: DateTime
+  createdAt?: DateTime
+  deletedAt?: DateTime | Null
+  startedAt?: DateTime | Null
+  finishedAt?: DateTime | Null
+  routes?: RouteUncheckedCreateNestedManyWithoutTripInput
+}
+</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="str">
+        <v/>
+      </c>
+      <c r="L112" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M112" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B113" t="str">
+        <v>02:07:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E113" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F113" t="str">
+        <v>write</v>
+      </c>
+      <c r="G113" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H113" t="str">
+        <v>Sonik  Kode  write trip undefined</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M113" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B114" t="str">
+        <v>02:08:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E114" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F114" t="str">
+        <v>read</v>
+      </c>
+      <c r="G114" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H114" t="str">
+        <v>John  DOE  read all trips</v>
+      </c>
+      <c r="I114" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/app/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+             id: true,
+             seats: true,
+             status: true,
+             departureDate: true,
+             routes: {
+               select: {
+                 distance: true,
+                 duration: true,
+                 price: true,
+                 stops: true
+               }
+             },
+             createdAt: true
+           },
+           where: {
+             date: '2022-04-15',
+             ~~~~
+             deletedAt: null
+           },
+           orderBy: undefined
+         })
+Unknown arg `date` in where.date for type TripWhereInput. Did you mean `seats`? Available args:
+type TripWhereInput {
+  AND?: TripWhereInput | List&lt;TripWhereInput&gt;
+  OR?: List&lt;TripWhereInput&gt;
+  NOT?: TripWhereInput | List&lt;TripWhereInput&gt;
+  id?: IntFilter | Int
+  userId?: IntFilter | Int
+  vehicleId?: IntFilter | Int
+  seats?: IntFilter | Int
+  status?: IntFilter | Int
+  departureDate?: StringFilter | String
+  departureTime?: StringFilter | String
+  createdAt?: DateTimeFilter | DateTime
+  deletedAt?: DateTimeNullableFilter | DateTime | Null
+  startedAt?: DateTimeNullableFilter | DateTime | Null
+  finishedAt?: DateTimeNullableFilter | DateTime | Null
+  routes?: RouteListRelationFilter
+  user?: UserRelationFilter | UserWhereInput
+  vehicule?: VehicleRelationFilter | VehicleWhereInput
+}
+</v>
+      </c>
+      <c r="J114">
+        <v>10</v>
+      </c>
+      <c r="K114" t="str">
+        <v>all</v>
+      </c>
+      <c r="L114" t="str">
+        <v>John</v>
+      </c>
+      <c r="M114" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B115" t="str">
+        <v>02:10:02 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E115" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F115" t="str">
+        <v>read</v>
+      </c>
+      <c r="G115" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H115" t="str">
+        <v>John  DOE  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="J115">
+        <v>10</v>
+      </c>
+      <c r="K115" t="str">
+        <v>all</v>
+      </c>
+      <c r="L115" t="str">
+        <v>John</v>
+      </c>
+      <c r="M115" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B116" t="str">
+        <v>02:10:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E116" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F116" t="str">
+        <v>read</v>
+      </c>
+      <c r="G116" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H116" t="str">
+        <v>John  DOE  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="J116">
+        <v>10</v>
+      </c>
+      <c r="K116" t="str">
+        <v>all</v>
+      </c>
+      <c r="L116" t="str">
+        <v>John</v>
+      </c>
+      <c r="M116" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B117" t="str">
+        <v>02:10:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E117" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F117" t="str">
+        <v>read</v>
+      </c>
+      <c r="G117" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H117" t="str">
+        <v>Sonik  Kode  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="str">
+        <v>all</v>
+      </c>
+      <c r="L117" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M117" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B118" t="str">
+        <v>02:10:59 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E118" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F118" t="str">
+        <v>read</v>
+      </c>
+      <c r="G118" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H118" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J118">
+        <v>10</v>
+      </c>
+      <c r="K118" t="str">
+        <v>all</v>
+      </c>
+      <c r="L118" t="str">
+        <v>John</v>
+      </c>
+      <c r="M118" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B119" t="str">
+        <v>02:16:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E119" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F119" t="str">
+        <v>read</v>
+      </c>
+      <c r="G119" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H119" t="str">
+        <v>John  DOE  read all trips</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Cannot set properties of undefined (setting 'stops')</v>
+      </c>
+      <c r="J119">
+        <v>10</v>
+      </c>
+      <c r="K119" t="str">
+        <v>all</v>
+      </c>
+      <c r="L119" t="str">
+        <v>John</v>
+      </c>
+      <c r="M119" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B120" t="str">
+        <v>02:26:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E120" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F120" t="str">
+        <v>read</v>
+      </c>
+      <c r="G120" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H120" t="str">
+        <v>John  DOE  read all trips</v>
+      </c>
+      <c r="I120" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/app/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+             id: true,
+             seats: true,
+             status: true,
+             departureDate: true,
+             routes: {
+               select: {
+                 distance: true,
+                 duration: true,
+                 price: true,
+                 stops: true
+               }
+             },
+             createdAt: true
+           },
+           where: {
+             routes: {
+               stops: {
+               ~~~~~
+                 address: {
+                   contains: 'Lome'
+                 },
+                 type: 'departure'
+               }
+             },
+             deletedAt: null
+           },
+           orderBy: undefined
+         })
+Unknown arg `stops` in where.routes.stops for type RouteListRelationFilter. Did you mean `some`? Available args:
+type RouteListRelationFilter {
+  every?: RouteWhereInput
+  some?: RouteWhereInput
+  none?: RouteWhereInput
+}
+</v>
+      </c>
+      <c r="J120">
+        <v>10</v>
+      </c>
+      <c r="K120" t="str">
+        <v>all</v>
+      </c>
+      <c r="L120" t="str">
+        <v>John</v>
+      </c>
+      <c r="M120" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B121" t="str">
+        <v>02:31:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E121" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F121" t="str">
+        <v>write</v>
+      </c>
+      <c r="G121" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H121" t="str">
+        <v>Sonik  Kode  write trip undefined</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="L121" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M121" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B122" t="str">
+        <v>02:41:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E122" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F122" t="str">
+        <v>read</v>
+      </c>
+      <c r="G122" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H122" t="str">
+        <v>John  DOE  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J122">
+        <v>10</v>
+      </c>
+      <c r="K122" t="str">
+        <v>all</v>
+      </c>
+      <c r="L122" t="str">
+        <v>John</v>
+      </c>
+      <c r="M122" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B123" t="str">
+        <v>02:41:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E123" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F123" t="str">
+        <v>read</v>
+      </c>
+      <c r="G123" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H123" t="str">
+        <v>John  DOE  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J123">
+        <v>10</v>
+      </c>
+      <c r="K123" t="str">
+        <v>all</v>
+      </c>
+      <c r="L123" t="str">
+        <v>John</v>
+      </c>
+      <c r="M123" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B124" t="str">
+        <v>02:45:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E124" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F124" t="str">
+        <v>read</v>
+      </c>
+      <c r="G124" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H124" t="str">
+        <v>John  DOE  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J124">
+        <v>10</v>
+      </c>
+      <c r="K124" t="str">
+        <v>all</v>
+      </c>
+      <c r="L124" t="str">
+        <v>John</v>
+      </c>
+      <c r="M124" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B125" t="str">
+        <v>02:49:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E125" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F125" t="str">
+        <v>read</v>
+      </c>
+      <c r="G125" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H125" t="str">
+        <v>John  DOE  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J125">
+        <v>10</v>
+      </c>
+      <c r="K125" t="str">
+        <v>all</v>
+      </c>
+      <c r="L125" t="str">
+        <v>John</v>
+      </c>
+      <c r="M125" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Fri Jul 15 2022</v>
+      </c>
+      <c r="B126" t="str">
+        <v>02:52:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E126" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F126" t="str">
+        <v>read</v>
+      </c>
+      <c r="G126" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H126" t="str">
+        <v>John  DOE  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J126">
+        <v>10</v>
+      </c>
+      <c r="K126" t="str">
+        <v>all</v>
+      </c>
+      <c r="L126" t="str">
+        <v>John</v>
+      </c>
+      <c r="M126" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B127" t="str">
+        <v>01:01:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D127" t="str">
+        <v>User</v>
+      </c>
+      <c r="E127" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F127" t="str">
+        <v>login</v>
+      </c>
+      <c r="G127" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H127" t="str">
+        <v>aroamadou1@gmail.com  login</v>
+      </c>
+      <c r="I127" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N127" t="str">
+        <v>aroamadou1@gmail.com</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B128" t="str">
+        <v>01:16:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D128" t="str">
+        <v>User</v>
+      </c>
+      <c r="E128" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F128" t="str">
+        <v>login</v>
+      </c>
+      <c r="G128" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H128" t="str">
+        <v>aroamadou1@gmail.com  login</v>
+      </c>
+      <c r="I128" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N128" t="str">
+        <v>aroamadou1@gmail.com</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B129" t="str">
+        <v>01:34:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D129" t="str">
+        <v>User</v>
+      </c>
+      <c r="E129" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F129" t="str">
+        <v>login</v>
+      </c>
+      <c r="G129" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H129" t="str">
+        <v xml:space="preserve">  login</v>
+      </c>
+      <c r="I129" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="N129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B130" t="str">
+        <v>01:37:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D130" t="str">
+        <v>User</v>
+      </c>
+      <c r="E130" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F130" t="str">
+        <v>login</v>
+      </c>
+      <c r="G130" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H130" t="str">
+        <v xml:space="preserve">  login</v>
+      </c>
+      <c r="I130" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="N130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B131" t="str">
+        <v>01:39:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D131" t="str">
+        <v>User</v>
+      </c>
+      <c r="E131" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F131" t="str">
+        <v>login</v>
+      </c>
+      <c r="G131" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H131" t="str">
+        <v xml:space="preserve">  login</v>
+      </c>
+      <c r="I131" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="N131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B132" t="str">
+        <v>01:40:46 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D132" t="str">
+        <v>User</v>
+      </c>
+      <c r="E132" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F132" t="str">
+        <v>login</v>
+      </c>
+      <c r="G132" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H132" t="str">
+        <v xml:space="preserve">  login</v>
+      </c>
+      <c r="I132" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="N132" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B133" t="str">
+        <v>02:01:11 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D133" t="str">
+        <v>User</v>
+      </c>
+      <c r="E133" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F133" t="str">
+        <v>login</v>
+      </c>
+      <c r="G133" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H133" t="str">
+        <v>k0d3.s0n1k@gmail.com  login</v>
+      </c>
+      <c r="I133" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N133" t="str">
+        <v>k0d3.s0n1k@gmail.com</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B134" t="str">
+        <v>02:01:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D134" t="str">
+        <v>User</v>
+      </c>
+      <c r="E134" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F134" t="str">
+        <v>login</v>
+      </c>
+      <c r="G134" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H134" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N134" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B135" t="str">
+        <v>02:11:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D135" t="str">
+        <v>User</v>
+      </c>
+      <c r="E135" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F135" t="str">
+        <v>login</v>
+      </c>
+      <c r="G135" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H135" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N135" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B136" t="str">
+        <v>15:09:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D136" t="str">
+        <v>User</v>
+      </c>
+      <c r="E136" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F136" t="str">
+        <v>login</v>
+      </c>
+      <c r="G136" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H136" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N136" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Sat Jul 16 2022</v>
+      </c>
+      <c r="B137" t="str">
+        <v>16:19:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D137" t="str">
+        <v>User</v>
+      </c>
+      <c r="E137" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F137" t="str">
+        <v>login</v>
+      </c>
+      <c r="G137" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H137" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N137" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B138" t="str">
+        <v>07:07:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E138" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F138" t="str">
+        <v>read</v>
+      </c>
+      <c r="G138" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H138" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J138">
+        <v>9</v>
+      </c>
+      <c r="K138" t="str">
+        <v>all</v>
+      </c>
+      <c r="L138" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M138" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B139" t="str">
+        <v>07:08:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E139" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F139" t="str">
+        <v>read</v>
+      </c>
+      <c r="G139" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H139" t="str">
+        <v>John  DOE  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J139">
+        <v>10</v>
+      </c>
+      <c r="K139" t="str">
+        <v>all</v>
+      </c>
+      <c r="L139" t="str">
+        <v>John</v>
+      </c>
+      <c r="M139" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B140" t="str">
+        <v>07:12:02 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E140" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F140" t="str">
+        <v>write</v>
+      </c>
+      <c r="G140" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H140" t="str">
+        <v>Sonik  Kode  write trip undefined</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M140" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B141" t="str">
+        <v>07:15:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E141" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F141" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G141" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H141" t="str">
+        <v>Sonik  Kode  edit trip 4</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>4</v>
+      </c>
+      <c r="L141" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M141" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B142" t="str">
+        <v>07:16:11 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E142" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F142" t="str">
+        <v>read</v>
+      </c>
+      <c r="G142" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H142" t="str">
+        <v>Sonik  Kode  read all trips (3) from 0 to 100</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="str">
+        <v>all</v>
+      </c>
+      <c r="L142" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M142" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B143" t="str">
+        <v>07:17:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E143" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F143" t="str">
+        <v>read</v>
+      </c>
+      <c r="G143" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H143" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J143">
+        <v>10</v>
+      </c>
+      <c r="K143" t="str">
+        <v>all</v>
+      </c>
+      <c r="L143" t="str">
+        <v>John</v>
+      </c>
+      <c r="M143" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B144" t="str">
+        <v>07:17:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E144" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F144" t="str">
+        <v>read</v>
+      </c>
+      <c r="G144" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H144" t="str">
+        <v>John  DOE  read all trips (3) from 0 to 100</v>
+      </c>
+      <c r="J144">
+        <v>10</v>
+      </c>
+      <c r="K144" t="str">
+        <v>all</v>
+      </c>
+      <c r="L144" t="str">
+        <v>John</v>
+      </c>
+      <c r="M144" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B145" t="str">
+        <v>07:24:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E145" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F145" t="str">
+        <v>read</v>
+      </c>
+      <c r="G145" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H145" t="str">
+        <v>John  DOE  read all trips (3) from 0 to 100</v>
+      </c>
+      <c r="J145">
+        <v>10</v>
+      </c>
+      <c r="K145" t="str">
+        <v>all</v>
+      </c>
+      <c r="L145" t="str">
+        <v>John</v>
+      </c>
+      <c r="M145" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B146" t="str">
+        <v>07:30:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E146" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F146" t="str">
+        <v>read</v>
+      </c>
+      <c r="G146" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H146" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J146">
+        <v>10</v>
+      </c>
+      <c r="K146" t="str">
+        <v>all</v>
+      </c>
+      <c r="L146" t="str">
+        <v>John</v>
+      </c>
+      <c r="M146" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B147" t="str">
+        <v>07:31:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E147" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F147" t="str">
+        <v>read</v>
+      </c>
+      <c r="G147" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H147" t="str">
+        <v>John  DOE  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="J147">
+        <v>10</v>
+      </c>
+      <c r="K147" t="str">
+        <v>all</v>
+      </c>
+      <c r="L147" t="str">
+        <v>John</v>
+      </c>
+      <c r="M147" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B148" t="str">
+        <v>07:31:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E148" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F148" t="str">
+        <v>read</v>
+      </c>
+      <c r="G148" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H148" t="str">
+        <v>John  DOE  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J148">
+        <v>10</v>
+      </c>
+      <c r="K148" t="str">
+        <v>all</v>
+      </c>
+      <c r="L148" t="str">
+        <v>John</v>
+      </c>
+      <c r="M148" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B149" t="str">
+        <v>07:34:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E149" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F149" t="str">
+        <v>read</v>
+      </c>
+      <c r="G149" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H149" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J149">
+        <v>9</v>
+      </c>
+      <c r="K149" t="str">
+        <v>all</v>
+      </c>
+      <c r="L149" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M149" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B150" t="str">
+        <v>07:41:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E150" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F150" t="str">
+        <v>read</v>
+      </c>
+      <c r="G150" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H150" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="J150">
+        <v>10</v>
+      </c>
+      <c r="K150" t="str">
+        <v>all</v>
+      </c>
+      <c r="L150" t="str">
+        <v>John</v>
+      </c>
+      <c r="M150" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B151" t="str">
+        <v>08:01:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Route</v>
+      </c>
+      <c r="E151" t="str">
+        <v>/api/route</v>
+      </c>
+      <c r="F151" t="str">
+        <v>read</v>
+      </c>
+      <c r="G151" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H151" t="str">
+        <v>John  DOE  read all routes (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J151">
+        <v>10</v>
+      </c>
+      <c r="K151" t="str">
+        <v>all</v>
+      </c>
+      <c r="L151" t="str">
+        <v>John</v>
+      </c>
+      <c r="M151" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B152" t="str">
+        <v>08:03:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Route</v>
+      </c>
+      <c r="E152" t="str">
+        <v>/api/route</v>
+      </c>
+      <c r="F152" t="str">
+        <v>read</v>
+      </c>
+      <c r="G152" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H152" t="str">
+        <v>John  DOE  read all routes (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J152">
+        <v>10</v>
+      </c>
+      <c r="K152" t="str">
+        <v>all</v>
+      </c>
+      <c r="L152" t="str">
+        <v>John</v>
+      </c>
+      <c r="M152" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B153" t="str">
+        <v>08:12:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Route</v>
+      </c>
+      <c r="E153" t="str">
+        <v>/api/route/:id</v>
+      </c>
+      <c r="F153" t="str">
+        <v>read</v>
+      </c>
+      <c r="G153" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H153" t="str">
+        <v>John  DOE  read route 4</v>
+      </c>
+      <c r="J153">
+        <v>10</v>
+      </c>
+      <c r="K153" t="str">
+        <v>4</v>
+      </c>
+      <c r="L153" t="str">
+        <v>John</v>
+      </c>
+      <c r="M153" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B154" t="str">
+        <v>08:17:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Route</v>
+      </c>
+      <c r="E154" t="str">
+        <v>/api/route/:id</v>
+      </c>
+      <c r="F154" t="str">
+        <v>read</v>
+      </c>
+      <c r="G154" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H154" t="str">
+        <v>John  DOE  read route 4</v>
+      </c>
+      <c r="J154">
+        <v>10</v>
+      </c>
+      <c r="K154" t="str">
+        <v>4</v>
+      </c>
+      <c r="L154" t="str">
+        <v>John</v>
+      </c>
+      <c r="M154" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Tue Jul 19 2022</v>
+      </c>
+      <c r="B155" t="str">
+        <v>08:19:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Route</v>
+      </c>
+      <c r="E155" t="str">
+        <v>/api/route/:id</v>
+      </c>
+      <c r="F155" t="str">
+        <v>read</v>
+      </c>
+      <c r="G155" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H155" t="str">
+        <v>John  DOE  read route 4</v>
+      </c>
+      <c r="J155">
+        <v>10</v>
+      </c>
+      <c r="K155" t="str">
+        <v>4</v>
+      </c>
+      <c r="L155" t="str">
+        <v>John</v>
+      </c>
+      <c r="M155" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N155"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -6678,7 +6678,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -12139,9 +12139,665 @@
         <v>DOE</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B156" t="str">
+        <v>14:42:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D156" t="str">
+        <v>User</v>
+      </c>
+      <c r="E156" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F156" t="str">
+        <v>login</v>
+      </c>
+      <c r="G156" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H156" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N156" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B157" t="str">
+        <v>14:43:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E157" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F157" t="str">
+        <v>read</v>
+      </c>
+      <c r="G157" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H157" t="str">
+        <v>NEX  Admin  read all logs (0) rows</v>
+      </c>
+      <c r="J157">
+        <v>9</v>
+      </c>
+      <c r="K157" t="str">
+        <v>all</v>
+      </c>
+      <c r="L157" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M157" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B158" t="str">
+        <v>14:43:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E158" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F158" t="str">
+        <v>read</v>
+      </c>
+      <c r="G158" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H158" t="str">
+        <v>NEX  Admin  read all logs (314) rows</v>
+      </c>
+      <c r="J158">
+        <v>9</v>
+      </c>
+      <c r="K158" t="str">
+        <v>all</v>
+      </c>
+      <c r="L158" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M158" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B159" t="str">
+        <v>14:48:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E159" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F159" t="str">
+        <v>read</v>
+      </c>
+      <c r="G159" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H159" t="str">
+        <v>NEX  Admin  read all logs (48) rows</v>
+      </c>
+      <c r="J159">
+        <v>9</v>
+      </c>
+      <c r="K159" t="str">
+        <v>all</v>
+      </c>
+      <c r="L159" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M159" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B160" t="str">
+        <v>15:02:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E160" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F160" t="str">
+        <v>read</v>
+      </c>
+      <c r="G160" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H160" t="str">
+        <v>NEX  Admin  read all logs (2) rows</v>
+      </c>
+      <c r="J160">
+        <v>9</v>
+      </c>
+      <c r="K160" t="str">
+        <v>all</v>
+      </c>
+      <c r="L160" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M160" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B161" t="str">
+        <v>15:04:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E161" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F161" t="str">
+        <v>read</v>
+      </c>
+      <c r="G161" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H161" t="str">
+        <v>NEX  Admin  read all logs (0) rows</v>
+      </c>
+      <c r="J161">
+        <v>9</v>
+      </c>
+      <c r="K161" t="str">
+        <v>all</v>
+      </c>
+      <c r="L161" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M161" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B162" t="str">
+        <v>15:05:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E162" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F162" t="str">
+        <v>read</v>
+      </c>
+      <c r="G162" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H162" t="str">
+        <v>NEX  Admin  read all logs (2) rows</v>
+      </c>
+      <c r="J162">
+        <v>9</v>
+      </c>
+      <c r="K162" t="str">
+        <v>all</v>
+      </c>
+      <c r="L162" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M162" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B163" t="str">
+        <v>15:06:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E163" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F163" t="str">
+        <v>read</v>
+      </c>
+      <c r="G163" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H163" t="str">
+        <v>NEX  Admin  read all logs (0) rows</v>
+      </c>
+      <c r="J163">
+        <v>9</v>
+      </c>
+      <c r="K163" t="str">
+        <v>all</v>
+      </c>
+      <c r="L163" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M163" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B164" t="str">
+        <v>15:07:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E164" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F164" t="str">
+        <v>read</v>
+      </c>
+      <c r="G164" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H164" t="str">
+        <v>NEX  Admin  read all logs (0) rows</v>
+      </c>
+      <c r="J164">
+        <v>9</v>
+      </c>
+      <c r="K164" t="str">
+        <v>all</v>
+      </c>
+      <c r="L164" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M164" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B165" t="str">
+        <v>15:07:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E165" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F165" t="str">
+        <v>read</v>
+      </c>
+      <c r="G165" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H165" t="str">
+        <v>NEX  Admin  read all logs (2) rows</v>
+      </c>
+      <c r="J165">
+        <v>9</v>
+      </c>
+      <c r="K165" t="str">
+        <v>all</v>
+      </c>
+      <c r="L165" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M165" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B166" t="str">
+        <v>15:07:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E166" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F166" t="str">
+        <v>read</v>
+      </c>
+      <c r="G166" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H166" t="str">
+        <v>NEX  Admin  read all logs (19) rows</v>
+      </c>
+      <c r="J166">
+        <v>9</v>
+      </c>
+      <c r="K166" t="str">
+        <v>all</v>
+      </c>
+      <c r="L166" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M166" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B167" t="str">
+        <v>15:10:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E167" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F167" t="str">
+        <v>read</v>
+      </c>
+      <c r="G167" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H167" t="str">
+        <v>NEX  Admin  read all logs (19) rows</v>
+      </c>
+      <c r="J167">
+        <v>9</v>
+      </c>
+      <c r="K167" t="str">
+        <v>all</v>
+      </c>
+      <c r="L167" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M167" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B168" t="str">
+        <v>15:13:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E168" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F168" t="str">
+        <v>read</v>
+      </c>
+      <c r="G168" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H168" t="str">
+        <v>NEX  Admin  read all logs (19) rows</v>
+      </c>
+      <c r="J168">
+        <v>9</v>
+      </c>
+      <c r="K168" t="str">
+        <v>all</v>
+      </c>
+      <c r="L168" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M168" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B169" t="str">
+        <v>15:16:05 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E169" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F169" t="str">
+        <v>read</v>
+      </c>
+      <c r="G169" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H169" t="str">
+        <v>NEX  Admin  read all logs (19) rows</v>
+      </c>
+      <c r="J169">
+        <v>9</v>
+      </c>
+      <c r="K169" t="str">
+        <v>all</v>
+      </c>
+      <c r="L169" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M169" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B170" t="str">
+        <v>15:18:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E170" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F170" t="str">
+        <v>read</v>
+      </c>
+      <c r="G170" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H170" t="str">
+        <v>NEX  Admin  read all logs (19) rows</v>
+      </c>
+      <c r="J170">
+        <v>9</v>
+      </c>
+      <c r="K170" t="str">
+        <v>all</v>
+      </c>
+      <c r="L170" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M170" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B171" t="str">
+        <v>15:19:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E171" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F171" t="str">
+        <v>read</v>
+      </c>
+      <c r="G171" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H171" t="str">
+        <v>NEX  Admin  read all logs (19) rows</v>
+      </c>
+      <c r="J171">
+        <v>9</v>
+      </c>
+      <c r="K171" t="str">
+        <v>all</v>
+      </c>
+      <c r="L171" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M171" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B172" t="str">
+        <v>15:20:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E172" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F172" t="str">
+        <v>read</v>
+      </c>
+      <c r="G172" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H172" t="str">
+        <v>NEX  Admin  read all logs (19) rows</v>
+      </c>
+      <c r="J172">
+        <v>9</v>
+      </c>
+      <c r="K172" t="str">
+        <v>all</v>
+      </c>
+      <c r="L172" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M172" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B173" t="str">
+        <v>15:20:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E173" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F173" t="str">
+        <v>read</v>
+      </c>
+      <c r="G173" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H173" t="str">
+        <v>NEX  Admin  read all logs (10) rows</v>
+      </c>
+      <c r="J173">
+        <v>9</v>
+      </c>
+      <c r="K173" t="str">
+        <v>all</v>
+      </c>
+      <c r="L173" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M173" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Wed Jul 20 2022</v>
+      </c>
+      <c r="B174" t="str">
+        <v>15:20:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Log</v>
+      </c>
+      <c r="E174" t="str">
+        <v>/api/logs</v>
+      </c>
+      <c r="F174" t="str">
+        <v>read</v>
+      </c>
+      <c r="G174" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H174" t="str">
+        <v>NEX  Admin  read all logs (12) rows</v>
+      </c>
+      <c r="J174">
+        <v>9</v>
+      </c>
+      <c r="K174" t="str">
+        <v>all</v>
+      </c>
+      <c r="L174" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M174" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N155"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N174"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -6678,7 +6678,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -12795,9 +12795,236 @@
         <v>Admin</v>
       </c>
     </row>
+    <row r="175" xml:space="preserve">
+      <c r="A175" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B175" t="str">
+        <v>12:10:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E175" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F175" t="str">
+        <v>read</v>
+      </c>
+      <c r="G175" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H175" t="str">
+        <v>John  DOE  read all travels</v>
+      </c>
+      <c r="I175" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/app/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+         ?   id?: true,
+             title: true,
+             ~~~~~
+             description: true,
+             ~~~~~~~~~~~
+         ?   createdAt?: true,
+         ?   userId?: true,
+         ?   routeId?: true,
+         ?   seats?: true,
+         ?   reamingSeats?: true,
+         ?   status?: true,
+         ?   startedAt?: true,
+         ?   finishedAt?: true,
+         ?   driverRating?: true,
+         ?   passengerRating?: true,
+         ?   operations?: true,
+         ?   user?: true,
+         ?   route?: true,
+         ?   _count?: true
+           },
+           where: {
+             deletedAt: null
+             ~~~~~~~~~
+           },
+           orderBy: undefined
+         })
+Unknown arg `deletedAt` in where.deletedAt for type TravelWhereInput. Did you mean `createdAt`? Available args:
+type TravelWhereInput {
+  AND?: TravelWhereInput | List&lt;TravelWhereInput&gt;
+  OR?: List&lt;TravelWhereInput&gt;
+  NOT?: TravelWhereInput | List&lt;TravelWhereInput&gt;
+  id?: IntFilter | Int
+  userId?: IntFilter | Int
+  routeId?: IntFilter | Int
+  seats?: IntFilter | Int
+  reamingSeats?: IntFilter | Int
+  status?: IntFilter | Int
+  createdAt?: DateTimeFilter | DateTime
+  startedAt?: DateTimeNullableFilter | DateTime | Null
+  finishedAt?: DateTimeNullableFilter | DateTime | Null
+  driverRating?: IntFilter | Int
+  passengerRating?: IntFilter | Int
+  operations?: OperationListRelationFilter
+  user?: UserRelationFilter | UserWhereInput
+  route?: RouteRelationFilter | RouteWhereInput
+}
+Unknown field `title` for select statement on model Travel. Available options are listed in green. Did you mean `id`?
+Unknown field `description` for select statement on model Travel. Available options are listed in green.
+</v>
+      </c>
+      <c r="J175">
+        <v>10</v>
+      </c>
+      <c r="K175" t="str">
+        <v>all</v>
+      </c>
+      <c r="L175" t="str">
+        <v>John</v>
+      </c>
+      <c r="M175" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="176" xml:space="preserve">
+      <c r="A176" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B176" t="str">
+        <v>12:16:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E176" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F176" t="str">
+        <v>read</v>
+      </c>
+      <c r="G176" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H176" t="str">
+        <v>John  DOE  read all travels</v>
+      </c>
+      <c r="I176" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/app/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+         ?   id?: true,
+             title: true,
+             ~~~~~
+             description: true,
+             ~~~~~~~~~~~
+         ?   createdAt?: true,
+         ?   userId?: true,
+         ?   routeId?: true,
+         ?   seats?: true,
+         ?   reamingSeats?: true,
+         ?   status?: true,
+         ?   startedAt?: true,
+         ?   finishedAt?: true,
+         ?   driverRating?: true,
+         ?   passengerRating?: true,
+         ?   operations?: true,
+         ?   user?: true,
+         ?   route?: true,
+         ?   _count?: true
+           },
+           where: {
+             deletedAt: null
+             ~~~~~~~~~
+           },
+           orderBy: undefined
+         })
+Unknown arg `deletedAt` in where.deletedAt for type TravelWhereInput. Did you mean `createdAt`? Available args:
+type TravelWhereInput {
+  AND?: TravelWhereInput | List&lt;TravelWhereInput&gt;
+  OR?: List&lt;TravelWhereInput&gt;
+  NOT?: TravelWhereInput | List&lt;TravelWhereInput&gt;
+  id?: IntFilter | Int
+  userId?: IntFilter | Int
+  routeId?: IntFilter | Int
+  seats?: IntFilter | Int
+  reamingSeats?: IntFilter | Int
+  status?: IntFilter | Int
+  createdAt?: DateTimeFilter | DateTime
+  startedAt?: DateTimeNullableFilter | DateTime | Null
+  finishedAt?: DateTimeNullableFilter | DateTime | Null
+  driverRating?: IntFilter | Int
+  passengerRating?: IntFilter | Int
+  operations?: OperationListRelationFilter
+  user?: UserRelationFilter | UserWhereInput
+  route?: RouteRelationFilter | RouteWhereInput
+}
+Unknown field `title` for select statement on model Travel. Available options are listed in green. Did you mean `id`?
+Unknown field `description` for select statement on model Travel. Available options are listed in green.
+</v>
+      </c>
+      <c r="J176">
+        <v>10</v>
+      </c>
+      <c r="K176" t="str">
+        <v>all</v>
+      </c>
+      <c r="L176" t="str">
+        <v>John</v>
+      </c>
+      <c r="M176" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B177" t="str">
+        <v>12:21:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E177" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F177" t="str">
+        <v>read</v>
+      </c>
+      <c r="G177" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H177" t="str">
+        <v>John  DOE  read all travels (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J177">
+        <v>10</v>
+      </c>
+      <c r="K177" t="str">
+        <v>all</v>
+      </c>
+      <c r="L177" t="str">
+        <v>John</v>
+      </c>
+      <c r="M177" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N174"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N177"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -6678,7 +6678,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13022,9 +13022,427 @@
         <v>DOE</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B178" t="str">
+        <v>12:56:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E178" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F178" t="str">
+        <v>read</v>
+      </c>
+      <c r="G178" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H178" t="str">
+        <v>John  DOE  read all travels (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J178">
+        <v>10</v>
+      </c>
+      <c r="K178" t="str">
+        <v>all</v>
+      </c>
+      <c r="L178" t="str">
+        <v>John</v>
+      </c>
+      <c r="M178" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B179" t="str">
+        <v>12:57:02 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E179" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F179" t="str">
+        <v>read</v>
+      </c>
+      <c r="G179" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H179" t="str">
+        <v>John  DOE  read all travels (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J179">
+        <v>10</v>
+      </c>
+      <c r="K179" t="str">
+        <v>all</v>
+      </c>
+      <c r="L179" t="str">
+        <v>John</v>
+      </c>
+      <c r="M179" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B180" t="str">
+        <v>12:58:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E180" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F180" t="str">
+        <v>write</v>
+      </c>
+      <c r="G180" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H180" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I180" t="str">
+        <v>Cannot read properties of undefined (reading 'findFirst')</v>
+      </c>
+      <c r="J180">
+        <v>10</v>
+      </c>
+      <c r="K180" t="str">
+        <v/>
+      </c>
+      <c r="L180" t="str">
+        <v>John</v>
+      </c>
+      <c r="M180" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="181" xml:space="preserve">
+      <c r="A181" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B181" t="str">
+        <v>13:03:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E181" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F181" t="str">
+        <v>write</v>
+      </c>
+      <c r="G181" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H181" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I181" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.route.findFirst()` invocation:
+{
+  where: {
+    id: 1,
+    deletedAt: null
+  },
+  select: {
+    price: true,
+    trip: {
+      remaningSeats: true
+      ~~~~~~~~~~~~~
+    }
+  }
+}
+Unknown arg `remaningSeats` in select.trip.remaningSeats for type Trip.
+→ Did you forget to wrap it with `select`? e.g. { select: { remaningSeats: true } }
+</v>
+      </c>
+      <c r="J181">
+        <v>10</v>
+      </c>
+      <c r="K181" t="str">
+        <v/>
+      </c>
+      <c r="L181" t="str">
+        <v>John</v>
+      </c>
+      <c r="M181" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B182" t="str">
+        <v>13:07:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E182" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F182" t="str">
+        <v>write</v>
+      </c>
+      <c r="G182" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H182" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I182" t="str">
+        <v>Cannot destructure property 'price' of '(intermediate value)' as it is null.</v>
+      </c>
+      <c r="J182">
+        <v>10</v>
+      </c>
+      <c r="K182" t="str">
+        <v/>
+      </c>
+      <c r="L182" t="str">
+        <v>John</v>
+      </c>
+      <c r="M182" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="183" xml:space="preserve">
+      <c r="A183" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B183" t="str">
+        <v>13:08:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E183" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F183" t="str">
+        <v>read</v>
+      </c>
+      <c r="G183" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H183" t="str">
+        <v>Sonik  Kode  read all trips</v>
+      </c>
+      <c r="I183" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/app/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+         ?   id?: true,
+         ?   seats?: true,
+             reamingSeats: true,
+             ~~~~~~~~~~~~
+         ?   status?: true,
+         ?   departureDate?: true,
+         ?   departureTime?: true,
+         ?   routes?: true,
+         ?   createdAt?: true,
+         ?   userId?: true,
+         ?   vehicleId?: true,
+         ?   remainingSeats?: true,
+         ?   deletedAt?: true,
+         ?   startedAt?: true,
+         ?   finishedAt?: true,
+         ?   user?: true,
+         ?   vehicle?: true,
+         ?   _count?: true
+           },
+           where: {
+             userId: 1,
+             deletedAt: null
+           },
+           orderBy: undefined
+         })
+Unknown field `reamingSeats` for select statement on model Trip. Available options are listed in green. Did you mean `remainingSeats`?
+</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183" t="str">
+        <v>all</v>
+      </c>
+      <c r="L183" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M183" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B184" t="str">
+        <v>13:11:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E184" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F184" t="str">
+        <v>write</v>
+      </c>
+      <c r="G184" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H184" t="str">
+        <v>Sonik  Kode  write trip undefined</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M184" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B185" t="str">
+        <v>13:12:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E185" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F185" t="str">
+        <v>write</v>
+      </c>
+      <c r="G185" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H185" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I185" t="str">
+        <v>Cannot destructure property 'price' of '(intermediate value)' as it is null.</v>
+      </c>
+      <c r="J185">
+        <v>10</v>
+      </c>
+      <c r="K185" t="str">
+        <v/>
+      </c>
+      <c r="L185" t="str">
+        <v>John</v>
+      </c>
+      <c r="M185" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B186" t="str">
+        <v>13:12:48 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E186" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F186" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G186" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H186" t="str">
+        <v>Sonik  Kode  edit trip 5</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>5</v>
+      </c>
+      <c r="L186" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M186" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Fri Jul 22 2022</v>
+      </c>
+      <c r="B187" t="str">
+        <v>13:13:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E187" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F187" t="str">
+        <v>write</v>
+      </c>
+      <c r="G187" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H187" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I187" t="str">
+        <v>Cannot destructure property 'price' of '(intermediate value)' as it is null.</v>
+      </c>
+      <c r="J187">
+        <v>10</v>
+      </c>
+      <c r="K187" t="str">
+        <v/>
+      </c>
+      <c r="L187" t="str">
+        <v>John</v>
+      </c>
+      <c r="M187" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N177"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N187"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -6678,7 +6678,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13440,9 +13440,847 @@
         <v>DOE</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B188" t="str">
+        <v>14:40:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E188" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F188" t="str">
+        <v>write</v>
+      </c>
+      <c r="G188" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H188" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I188" t="str">
+        <v>Cannot destructure property 'price' of '(intermediate value)' as it is null.</v>
+      </c>
+      <c r="J188">
+        <v>10</v>
+      </c>
+      <c r="K188" t="str">
+        <v/>
+      </c>
+      <c r="L188" t="str">
+        <v>John</v>
+      </c>
+      <c r="M188" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B189" t="str">
+        <v>14:43:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E189" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F189" t="str">
+        <v>write</v>
+      </c>
+      <c r="G189" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H189" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I189" t="str">
+        <v>Unvailable Resource</v>
+      </c>
+      <c r="J189">
+        <v>10</v>
+      </c>
+      <c r="K189" t="str">
+        <v/>
+      </c>
+      <c r="L189" t="str">
+        <v>John</v>
+      </c>
+      <c r="M189" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B190" t="str">
+        <v>14:49:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E190" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F190" t="str">
+        <v>write</v>
+      </c>
+      <c r="G190" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H190" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I190" t="str">
+        <v>Missing 4resource</v>
+      </c>
+      <c r="J190">
+        <v>10</v>
+      </c>
+      <c r="K190" t="str">
+        <v/>
+      </c>
+      <c r="L190" t="str">
+        <v>John</v>
+      </c>
+      <c r="M190" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="191" xml:space="preserve">
+      <c r="A191" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B191" t="str">
+        <v>14:50:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E191" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F191" t="str">
+        <v>write</v>
+      </c>
+      <c r="G191" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H191" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I191" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 10,
+              ~~~~~~
+              routeId: 4,
+              ~~~~~~~
+              seats: 1,
+          +   createdAt: DateTime,
+          +   driverRating: Int,
+          +   passengerRating: Int,
+          +   user: {
+          +     create?: UserCreateWithoutTravelsInput | UserUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTravelsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   route: {
+          +     create?: RouteCreateWithoutTravelsInput | RouteUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: RouteCreateOrConnectWithoutTravelsInput,
+          +     connect?: RouteWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null,
+          ?   deletedAt?: DateTime | null,
+          ?   operations?: {
+          ?     create?: OperationCreateWithoutTravelInput | OperationCreateWithoutTravelInput | OperationUncheckedCreateWithoutTravelInput | OperationUncheckedCreateWithoutTravelInput,
+          ?     connectOrCreate?: OperationCreateOrConnectWithoutTravelInput | OperationCreateOrConnectWithoutTravelInput,
+          ?     createMany?: OperationCreateManyTravelInputEnvelope,
+          ?     connect?: OperationWhereUniqueInput | OperationWhereUniqueInput
+          ?   }
+            },
+            include: undefined
+          })
+Unknown arg `userId` in data.userId for type TravelCreateInput. Did you mean `user`?
+Unknown arg `routeId` in data.routeId for type TravelCreateInput. Did you mean `route`?
+Argument createdAt for data.createdAt is missing.
+Argument driverRating for data.driverRating is missing.
+Argument passengerRating for data.passengerRating is missing.
+Argument user for data.user is missing.
+Argument route for data.route is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+      <c r="J191">
+        <v>10</v>
+      </c>
+      <c r="K191" t="str">
+        <v/>
+      </c>
+      <c r="L191" t="str">
+        <v>John</v>
+      </c>
+      <c r="M191" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="192" xml:space="preserve">
+      <c r="A192" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B192" t="str">
+        <v>14:56:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E192" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F192" t="str">
+        <v>write</v>
+      </c>
+      <c r="G192" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H192" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I192" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 10,
+              ~~~~~~
+              routeId: 4,
+              ~~~~~~~
+              seats: 1,
+          +   createdAt: DateTime,
+          +   driverRating: Int,
+          +   passengerRating: Int,
+          +   user: {
+          +     create?: UserCreateWithoutTravelsInput | UserUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTravelsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   route: {
+          +     create?: RouteCreateWithoutTravelsInput | RouteUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: RouteCreateOrConnectWithoutTravelsInput,
+          +     connect?: RouteWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null,
+          ?   deletedAt?: DateTime | null,
+          ?   operations?: {
+          ?     create?: OperationCreateWithoutTravelInput | OperationCreateWithoutTravelInput | OperationUncheckedCreateWithoutTravelInput | OperationUncheckedCreateWithoutTravelInput,
+          ?     connectOrCreate?: OperationCreateOrConnectWithoutTravelInput | OperationCreateOrConnectWithoutTravelInput,
+          ?     createMany?: OperationCreateManyTravelInputEnvelope,
+          ?     connect?: OperationWhereUniqueInput | OperationWhereUniqueInput
+          ?   }
+            },
+            include: undefined
+          })
+Unknown arg `userId` in data.userId for type TravelCreateInput. Did you mean `user`?
+Unknown arg `routeId` in data.routeId for type TravelCreateInput. Did you mean `route`?
+Argument createdAt for data.createdAt is missing.
+Argument driverRating for data.driverRating is missing.
+Argument passengerRating for data.passengerRating is missing.
+Argument user for data.user is missing.
+Argument route for data.route is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+      <c r="J192">
+        <v>10</v>
+      </c>
+      <c r="K192" t="str">
+        <v/>
+      </c>
+      <c r="L192" t="str">
+        <v>John</v>
+      </c>
+      <c r="M192" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="193" xml:space="preserve">
+      <c r="A193" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B193" t="str">
+        <v>14:59:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E193" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F193" t="str">
+        <v>write</v>
+      </c>
+      <c r="G193" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H193" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I193" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 10,
+              ~~~~~~
+              routeId: 4,
+              ~~~~~~~
+              seats: 1,
+          +   createdAt: DateTime,
+          +   driverRating: Int,
+          +   passengerRating: Int,
+          +   user: {
+          +     create?: UserCreateWithoutTravelsInput | UserUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTravelsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   route: {
+          +     create?: RouteCreateWithoutTravelsInput | RouteUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: RouteCreateOrConnectWithoutTravelsInput,
+          +     connect?: RouteWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null,
+          ?   deletedAt?: DateTime | null,
+          ?   operations?: {
+          ?     create?: OperationCreateWithoutTravelInput | OperationCreateWithoutTravelInput | OperationUncheckedCreateWithoutTravelInput | OperationUncheckedCreateWithoutTravelInput,
+          ?     connectOrCreate?: OperationCreateOrConnectWithoutTravelInput | OperationCreateOrConnectWithoutTravelInput,
+          ?     createMany?: OperationCreateManyTravelInputEnvelope,
+          ?     connect?: OperationWhereUniqueInput | OperationWhereUniqueInput
+          ?   }
+            },
+            include: undefined
+          })
+Unknown arg `userId` in data.userId for type TravelCreateInput. Did you mean `user`?
+Unknown arg `routeId` in data.routeId for type TravelCreateInput. Did you mean `route`?
+Argument createdAt for data.createdAt is missing.
+Argument driverRating for data.driverRating is missing.
+Argument passengerRating for data.passengerRating is missing.
+Argument user for data.user is missing.
+Argument route for data.route is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+      <c r="J193">
+        <v>10</v>
+      </c>
+      <c r="K193" t="str">
+        <v/>
+      </c>
+      <c r="L193" t="str">
+        <v>John</v>
+      </c>
+      <c r="M193" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="194" xml:space="preserve">
+      <c r="A194" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B194" t="str">
+        <v>15:01:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E194" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F194" t="str">
+        <v>write</v>
+      </c>
+      <c r="G194" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H194" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I194" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              travelId: 1,
+              ~~~~~~~~
+              userId: 10,
+              ~~~~~~
+              type: 'payment',
+              amount: 6190,
+          +   method: String,
+          +   status: Int,
+          +   travel: {
+          +     create?: TravelCreateWithoutOperationsInput | TravelUncheckedCreateWithoutOperationsInput,
+          +     connectOrCreate?: TravelCreateOrConnectWithoutOperationsInput,
+          +     connect?: TravelWhereUniqueInput
+          +   },
+          +   user: {
+          +     create?: UserCreateWithoutOperationsInput | UserUncheckedCreateWithoutOperationsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutOperationsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          ?   createdAt?: DateTime,
+          ?   validatedAt?: DateTime | null
+            },
+            include: undefined
+          })
+Unknown arg `travelId` in data.travelId for type OperationCreateInput. Did you mean `travel`?
+Unknown arg `userId` in data.userId for type OperationCreateInput. Did you mean `user`?
+Argument method for data.method is missing.
+Argument status for data.status is missing.
+Argument travel for data.travel is missing.
+Argument user for data.user is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+      <c r="J194">
+        <v>10</v>
+      </c>
+      <c r="K194" t="str">
+        <v/>
+      </c>
+      <c r="L194" t="str">
+        <v>John</v>
+      </c>
+      <c r="M194" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="195" xml:space="preserve">
+      <c r="A195" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B195" t="str">
+        <v>19:21:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E195" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F195" t="str">
+        <v>write</v>
+      </c>
+      <c r="G195" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H195" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I195" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 10,
+              ~~~~~~
+              routeId: 4,
+              ~~~~~~~
+              seats: 1,
+              payment: {
+                create: {
+                  userId: 10,
+                  amount: 6190
+                }
+              },
+          +   user: {
+          +     create?: UserCreateWithoutTravelsInput | UserUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTravelsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   route: {
+          +     create?: RouteCreateWithoutTravelsInput | RouteUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: RouteCreateOrConnectWithoutTravelsInput,
+          +     connect?: RouteWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   createdAt?: DateTime,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null,
+          ?   deletedAt?: DateTime | null,
+          ?   driverRating?: Int | null,
+          ?   passengerRating?: Int | null
+            },
+            include: {
+              payment: true
+            }
+          })
+Unknown arg `userId` in data.userId for type TravelCreateInput. Did you mean `user`?
+Unknown arg `routeId` in data.routeId for type TravelCreateInput. Did you mean `route`?
+Argument user for data.user is missing.
+Argument route for data.route is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+      <c r="J195">
+        <v>10</v>
+      </c>
+      <c r="K195" t="str">
+        <v/>
+      </c>
+      <c r="L195" t="str">
+        <v>John</v>
+      </c>
+      <c r="M195" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="196" xml:space="preserve">
+      <c r="A196" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B196" t="str">
+        <v>19:34:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E196" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F196" t="str">
+        <v>write</v>
+      </c>
+      <c r="G196" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H196" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I196" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 10,
+              ~~~~~~
+              routeId: 4,
+              ~~~~~~~
+              seats: 1,
+              payment: {
+                create: {
+                  userId: 10,
+                  amount: 6190
+                }
+              },
+          +   user: {
+          +     create?: UserCreateWithoutTravelsInput | UserUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTravelsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   route: {
+          +     create?: RouteCreateWithoutTravelsInput | RouteUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: RouteCreateOrConnectWithoutTravelsInput,
+          +     connect?: RouteWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   createdAt?: DateTime,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null,
+          ?   deletedAt?: DateTime | null,
+          ?   driverRating?: Int | null,
+          ?   passengerRating?: Int | null
+            },
+            include: {
+              payment: true
+            }
+          })
+Unknown arg `userId` in data.userId for type TravelCreateInput. Did you mean `user`?
+Unknown arg `routeId` in data.routeId for type TravelCreateInput. Did you mean `route`?
+Argument user for data.user is missing.
+Argument route for data.route is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+      <c r="J196">
+        <v>10</v>
+      </c>
+      <c r="K196" t="str">
+        <v/>
+      </c>
+      <c r="L196" t="str">
+        <v>John</v>
+      </c>
+      <c r="M196" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="197" xml:space="preserve">
+      <c r="A197" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B197" t="str">
+        <v>19:36:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E197" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F197" t="str">
+        <v>write</v>
+      </c>
+      <c r="G197" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H197" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I197" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.create()` invocation in
+/app/src/db/query.ts:66:38
+   63 
+   64 
+   65 async insertOne({ data, include }): Promise&lt;T&gt; {
+→  66     return await this.collection.create({
+            data: {
+              userId: 10,
+              ~~~~~~
+              routeId: 4,
+              ~~~~~~~
+              seats: 1,
+              payment: {
+                create: {
+                  userId: 10,
+                  amount: 6190
+                }
+              },
+          +   user: {
+          +     create?: UserCreateWithoutTravelsInput | UserUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: UserCreateOrConnectWithoutTravelsInput,
+          +     connect?: UserWhereUniqueInput
+          +   },
+          +   route: {
+          +     create?: RouteCreateWithoutTravelsInput | RouteUncheckedCreateWithoutTravelsInput,
+          +     connectOrCreate?: RouteCreateOrConnectWithoutTravelsInput,
+          +     connect?: RouteWhereUniqueInput
+          +   },
+          ?   status?: Int,
+          ?   createdAt?: DateTime,
+          ?   startedAt?: DateTime | null,
+          ?   finishedAt?: DateTime | null,
+          ?   deletedAt?: DateTime | null,
+          ?   driverRating?: Int | null,
+          ?   passengerRating?: Int | null
+            },
+            include: undefined
+          })
+Unknown arg `userId` in data.userId for type TravelCreateInput. Did you mean `user`?
+Unknown arg `routeId` in data.routeId for type TravelCreateInput. Did you mean `route`?
+Argument user for data.user is missing.
+Argument route for data.route is missing.
+Note: Lines with + are required, lines with ? are optional.
+</v>
+      </c>
+      <c r="J197">
+        <v>10</v>
+      </c>
+      <c r="K197" t="str">
+        <v/>
+      </c>
+      <c r="L197" t="str">
+        <v>John</v>
+      </c>
+      <c r="M197" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B198" t="str">
+        <v>19:43:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E198" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F198" t="str">
+        <v>write</v>
+      </c>
+      <c r="G198" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H198" t="str">
+        <v>John  DOE  write travel 2</v>
+      </c>
+      <c r="J198">
+        <v>10</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198" t="str">
+        <v>John</v>
+      </c>
+      <c r="M198" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B199" t="str">
+        <v>19:45:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E199" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F199" t="str">
+        <v>write</v>
+      </c>
+      <c r="G199" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H199" t="str">
+        <v xml:space="preserve">John  DOE  write travel </v>
+      </c>
+      <c r="I199" t="str">
+        <v>Cannot destructure property 'price' of '(intermediate value)' as it is null.</v>
+      </c>
+      <c r="J199">
+        <v>10</v>
+      </c>
+      <c r="K199" t="str">
+        <v/>
+      </c>
+      <c r="L199" t="str">
+        <v>John</v>
+      </c>
+      <c r="M199" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B200" t="str">
+        <v>19:46:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E200" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F200" t="str">
+        <v>write</v>
+      </c>
+      <c r="G200" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H200" t="str">
+        <v>John  DOE  write travel 3</v>
+      </c>
+      <c r="J200">
+        <v>10</v>
+      </c>
+      <c r="K200">
+        <v>3</v>
+      </c>
+      <c r="L200" t="str">
+        <v>John</v>
+      </c>
+      <c r="M200" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Tue Jul 26 2022</v>
+      </c>
+      <c r="B201" t="str">
+        <v>19:48:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="E201" t="str">
+        <v>/api/travel</v>
+      </c>
+      <c r="F201" t="str">
+        <v>write</v>
+      </c>
+      <c r="G201" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H201" t="str">
+        <v>John  DOE  write travel 4</v>
+      </c>
+      <c r="J201">
+        <v>10</v>
+      </c>
+      <c r="K201">
+        <v>4</v>
+      </c>
+      <c r="L201" t="str">
+        <v>John</v>
+      </c>
+      <c r="M201" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N187"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N201"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -9,6 +9,7 @@
     <sheet name="2022_4" sheetId="4" r:id="rId4"/>
     <sheet name="2022_5" sheetId="5" r:id="rId5"/>
     <sheet name="2022_7" sheetId="6" r:id="rId6"/>
+    <sheet name="2022_8" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -14283,4 +14284,1258 @@
     <ignoredError numberStoredAsText="1" sqref="A1:N201"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>phoneNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>model</v>
+      </c>
+      <c r="E1" t="str">
+        <v>path</v>
+      </c>
+      <c r="F1" t="str">
+        <v>action</v>
+      </c>
+      <c r="G1" t="str">
+        <v>status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>failureReason</v>
+      </c>
+      <c r="J1" t="str">
+        <v>userId</v>
+      </c>
+      <c r="K1" t="str">
+        <v>modelId</v>
+      </c>
+      <c r="L1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="M1" t="str">
+        <v>firstName</v>
+      </c>
+      <c r="N1" t="str">
+        <v>email</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>10:08:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D2" t="str">
+        <v>User</v>
+      </c>
+      <c r="E2" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F2" t="str">
+        <v>request</v>
+      </c>
+      <c r="G2" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H2" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+      <c r="I2" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="J2" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+      <c r="K2" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>10:09:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D3" t="str">
+        <v>User</v>
+      </c>
+      <c r="E3" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F3" t="str">
+        <v>request</v>
+      </c>
+      <c r="G3" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H3" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10:09:48 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D4" t="str">
+        <v>User</v>
+      </c>
+      <c r="E4" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F4" t="str">
+        <v>request</v>
+      </c>
+      <c r="G4" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H4" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10:10:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>User</v>
+      </c>
+      <c r="E5" t="str">
+        <v>/api/auth/complete-infos</v>
+      </c>
+      <c r="F5" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G5" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve">    edit his infos</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5" t="str">
+        <v>11</v>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>10:18:50 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D6" t="str">
+        <v>User</v>
+      </c>
+      <c r="E6" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F6" t="str">
+        <v>request</v>
+      </c>
+      <c r="G6" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H6" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+      <c r="I6" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>10:19:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D7" t="str">
+        <v>User</v>
+      </c>
+      <c r="E7" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F7" t="str">
+        <v>request</v>
+      </c>
+      <c r="G7" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H7" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>10:19:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C8" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D8" t="str">
+        <v>User</v>
+      </c>
+      <c r="E8" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F8" t="str">
+        <v>request</v>
+      </c>
+      <c r="G8" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H8" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+      <c r="I8" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>10:19:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D9" t="str">
+        <v>User</v>
+      </c>
+      <c r="E9" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F9" t="str">
+        <v>request</v>
+      </c>
+      <c r="G9" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H9" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>10:20:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>22890494008</v>
+      </c>
+      <c r="D10" t="str">
+        <v>User</v>
+      </c>
+      <c r="E10" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F10" t="str">
+        <v>request</v>
+      </c>
+      <c r="G10" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H10" t="str">
+        <v>22890494008 request to receive otp</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>10:21:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>User</v>
+      </c>
+      <c r="E11" t="str">
+        <v>/api/auth/complete-infos</v>
+      </c>
+      <c r="F11" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G11" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H11" t="str">
+        <v xml:space="preserve">    edit his infos</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11" t="str">
+        <v>12</v>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>11:20:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>User</v>
+      </c>
+      <c r="E12" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F12" t="str">
+        <v>login</v>
+      </c>
+      <c r="G12" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H12" t="str">
+        <v>test1@oreonyx.com  login</v>
+      </c>
+      <c r="I12" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N12" t="str">
+        <v>test1@oreonyx.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>11:22:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>User</v>
+      </c>
+      <c r="E13" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F13" t="str">
+        <v>login</v>
+      </c>
+      <c r="G13" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H13" t="str">
+        <v>test1@oreonyx.com  login</v>
+      </c>
+      <c r="I13" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N13" t="str">
+        <v>test1@oreonyx.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>11:27:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>User</v>
+      </c>
+      <c r="E14" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F14" t="str">
+        <v>login</v>
+      </c>
+      <c r="G14" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H14" t="str">
+        <v>test1@oreonyx.com  login</v>
+      </c>
+      <c r="I14" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N14" t="str">
+        <v>test1@oreonyx.com</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>11:27:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>User</v>
+      </c>
+      <c r="E15" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F15" t="str">
+        <v>login</v>
+      </c>
+      <c r="G15" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H15" t="str">
+        <v>test1@oreonyx.com  login</v>
+      </c>
+      <c r="I15" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N15" t="str">
+        <v>test1@oreonyx.com</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>11:28:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>User</v>
+      </c>
+      <c r="E16" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F16" t="str">
+        <v>login</v>
+      </c>
+      <c r="G16" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H16" t="str">
+        <v>test1@oreonyx.com  login</v>
+      </c>
+      <c r="I16" t="str">
+        <v>error.userNotFound</v>
+      </c>
+      <c r="N16" t="str">
+        <v>test1@oreonyx.com</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>11:28:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>User</v>
+      </c>
+      <c r="E17" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F17" t="str">
+        <v>login</v>
+      </c>
+      <c r="G17" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H17" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N17" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>11:46:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>User</v>
+      </c>
+      <c r="E18" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F18" t="str">
+        <v>login</v>
+      </c>
+      <c r="G18" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H18" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N18" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>11:47:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>User</v>
+      </c>
+      <c r="E19" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F19" t="str">
+        <v>login</v>
+      </c>
+      <c r="G19" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H19" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N19" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B20" t="str">
+        <v>13:34:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C20" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D20" t="str">
+        <v>User</v>
+      </c>
+      <c r="E20" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F20" t="str">
+        <v>request</v>
+      </c>
+      <c r="G20" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H20" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>13:35:59 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D21" t="str">
+        <v>User</v>
+      </c>
+      <c r="E21" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F21" t="str">
+        <v>request</v>
+      </c>
+      <c r="G21" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H21" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>13:36:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C22" t="str">
+        <v>22892942601</v>
+      </c>
+      <c r="D22" t="str">
+        <v>User</v>
+      </c>
+      <c r="E22" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F22" t="str">
+        <v>request</v>
+      </c>
+      <c r="G22" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H22" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>13:37:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D23" t="str">
+        <v>User</v>
+      </c>
+      <c r="E23" t="str">
+        <v>/api/auth/profile</v>
+      </c>
+      <c r="F23" t="str">
+        <v>read</v>
+      </c>
+      <c r="G23" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Sonik  Kode  read his infos</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <v>1</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>13:50:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>User</v>
+      </c>
+      <c r="E24" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F24" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G24" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I24" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>13:53:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>User</v>
+      </c>
+      <c r="E25" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F25" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G25" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I25" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <v>1</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>13:58:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D26" t="str">
+        <v>User</v>
+      </c>
+      <c r="E26" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F26" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G26" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I26" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <v>1</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>14:00:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D27" t="str">
+        <v>User</v>
+      </c>
+      <c r="E27" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F27" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G27" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Cannot read properties of undefined (reading 'idCard')</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="str">
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>14:07:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D28" t="str">
+        <v>User</v>
+      </c>
+      <c r="E28" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F28" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G28" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I28" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <v>1</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B29" t="str">
+        <v>14:08:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D29" t="str">
+        <v>User</v>
+      </c>
+      <c r="E29" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F29" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G29" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I29" t="str">
+        <v>error.missing</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M29" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>14:09:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>User</v>
+      </c>
+      <c r="E30" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F30" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G30" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.user.findFirst()` invocation:
+{
+  where: {
+    id: 1,
+    deletedAt: null
+  },
+  select: {
+    idCard: true,
+    ~~~~~~
+?   idCardStatus?: true,
+?   id?: true,
+?   countryId?: true,
+?   avatar?: true,
+?   email?: true,
+?   phoneNumber?: true,
+?   emailVerifiedAt?: true,
+?   phoneNumberVerifiedAt?: true,
+?   firstName?: true,
+?   lastName?: true,
+?   gender?: true,
+?   birthDay?: true,
+?   status?: true,
+?   role?: true,
+?   language?: true,
+?   idCardFront?: true,
+?   idCardBack?: true,
+?   idCardRejectionMessage?: true,
+?   idCardModifiedAt?: true,
+?   driverLicenseFront?: true,
+?   driverLicenseBack?: true,
+?   driverLicenseRejectionMessage?: true,
+?   driverLicenseStatus?: true,
+?   driverLicenseModifiedAt?: true,
+?   password?: true,
+?   rating?: true,
+?   createdAt?: true,
+?   blockedAt?: true,
+?   updatedAt?: true,
+?   profileCompletedAt?: true,
+?   deletedAt?: true,
+?   deletionReport?: true,
+?   preferences?: true,
+?   trips?: true,
+?   travels?: true,
+?   vehicles?: true,
+?   historics?: true,
+?   sendedNotifications?: true,
+?   receivedNotifications?: true,
+?   wallets?: true,
+?   devices?: true,
+?   payments?: true,
+?   country?: true,
+?   _count?: true
+  }
+}
+Unknown field `idCard` for select statement on model User. Available options are listed in green. Did you mean `id`?
+</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="str">
+        <v>1</v>
+      </c>
+      <c r="L30" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B31" t="str">
+        <v>14:10:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D31" t="str">
+        <v>User</v>
+      </c>
+      <c r="E31" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F31" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G31" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="I31" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `prisma.user.findFirst()` invocation:
+{
+  where: {
+    id: 1,
+    deletedAt: null
+  },
+  select: {
+    idCard: true,
+    ~~~~~~
+?   idCardStatus?: true,
+?   id?: true,
+?   countryId?: true,
+?   avatar?: true,
+?   email?: true,
+?   phoneNumber?: true,
+?   emailVerifiedAt?: true,
+?   phoneNumberVerifiedAt?: true,
+?   firstName?: true,
+?   lastName?: true,
+?   gender?: true,
+?   birthDay?: true,
+?   status?: true,
+?   role?: true,
+?   language?: true,
+?   idCardFront?: true,
+?   idCardBack?: true,
+?   idCardRejectionMessage?: true,
+?   idCardModifiedAt?: true,
+?   driverLicenseFront?: true,
+?   driverLicenseBack?: true,
+?   driverLicenseRejectionMessage?: true,
+?   driverLicenseStatus?: true,
+?   driverLicenseModifiedAt?: true,
+?   password?: true,
+?   rating?: true,
+?   createdAt?: true,
+?   blockedAt?: true,
+?   updatedAt?: true,
+?   profileCompletedAt?: true,
+?   deletedAt?: true,
+?   deletionReport?: true,
+?   preferences?: true,
+?   trips?: true,
+?   travels?: true,
+?   vehicles?: true,
+?   historics?: true,
+?   sendedNotifications?: true,
+?   receivedNotifications?: true,
+?   wallets?: true,
+?   devices?: true,
+?   payments?: true,
+?   country?: true,
+?   _count?: true
+  }
+}
+Unknown field `idCard` for select statement on model User. Available options are listed in green. Did you mean `id`?
+</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="str">
+        <v>1</v>
+      </c>
+      <c r="L31" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M31" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>14:14:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D32" t="str">
+        <v>User</v>
+      </c>
+      <c r="E32" t="str">
+        <v>/api/auth/id-card</v>
+      </c>
+      <c r="F32" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G32" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Sonik  Kode  upload his ID card</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="str">
+        <v>1</v>
+      </c>
+      <c r="L32" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>14:45:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D33" t="str">
+        <v>User</v>
+      </c>
+      <c r="E33" t="str">
+        <v>/api/auth/driver-license</v>
+      </c>
+      <c r="F33" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G33" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Sonik  Kode  upload his driver license</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="str">
+        <v>1</v>
+      </c>
+      <c r="L33" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M33" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Sun Aug 07 2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>14:47:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D34" t="str">
+        <v>User</v>
+      </c>
+      <c r="E34" t="str">
+        <v>/api/auth/upload-document</v>
+      </c>
+      <c r="F34" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G34" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Sonik  Kode  upload his documents</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="str">
+        <v>1</v>
+      </c>
+      <c r="L34" t="str">
+        <v>Sonik</v>
+      </c>
+      <c r="M34" t="str">
+        <v>Kode</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Mon Aug 08 2022</v>
+      </c>
+      <c r="B35" t="str">
+        <v>02:00:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>User</v>
+      </c>
+      <c r="E35" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F35" t="str">
+        <v>login</v>
+      </c>
+      <c r="G35" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H35" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N35" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:N35"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -14288,7 +14288,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -15533,9 +15533,525 @@
         <v>developer@nex-softwares.com</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>16:08:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D36" t="str">
+        <v>User</v>
+      </c>
+      <c r="E36" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F36" t="str">
+        <v>login</v>
+      </c>
+      <c r="G36" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H36" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="N36" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B37" t="str">
+        <v>16:08:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>User</v>
+      </c>
+      <c r="E37" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F37" t="str">
+        <v>read</v>
+      </c>
+      <c r="G37" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H37" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37" t="str">
+        <v>all</v>
+      </c>
+      <c r="L37" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>16:08:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D38" t="str">
+        <v>User</v>
+      </c>
+      <c r="E38" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F38" t="str">
+        <v>read</v>
+      </c>
+      <c r="G38" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H38" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38" t="str">
+        <v>all</v>
+      </c>
+      <c r="L38" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B39" t="str">
+        <v>16:08:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D39" t="str">
+        <v>User</v>
+      </c>
+      <c r="E39" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F39" t="str">
+        <v>read</v>
+      </c>
+      <c r="G39" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H39" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39" t="str">
+        <v>all</v>
+      </c>
+      <c r="L39" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>16:09:11 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E40" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F40" t="str">
+        <v>read</v>
+      </c>
+      <c r="G40" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H40" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40" t="str">
+        <v>all</v>
+      </c>
+      <c r="L40" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B41" t="str">
+        <v>16:09:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E41" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F41" t="str">
+        <v>read</v>
+      </c>
+      <c r="G41" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H41" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41" t="str">
+        <v>all</v>
+      </c>
+      <c r="L41" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B42" t="str">
+        <v>16:09:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D42" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E42" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F42" t="str">
+        <v>read</v>
+      </c>
+      <c r="G42" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H42" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="K42" t="str">
+        <v>all</v>
+      </c>
+      <c r="L42" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M42" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B43" t="str">
+        <v>16:09:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E43" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F43" t="str">
+        <v>read</v>
+      </c>
+      <c r="G43" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H43" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43" t="str">
+        <v>all</v>
+      </c>
+      <c r="L43" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M43" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B44" t="str">
+        <v>16:09:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D44" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E44" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F44" t="str">
+        <v>read</v>
+      </c>
+      <c r="G44" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H44" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44" t="str">
+        <v>all</v>
+      </c>
+      <c r="L44" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B45" t="str">
+        <v>16:09:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E45" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F45" t="str">
+        <v>read</v>
+      </c>
+      <c r="G45" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H45" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45" t="str">
+        <v>all</v>
+      </c>
+      <c r="L45" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>16:41:59 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E46" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F46" t="str">
+        <v>read</v>
+      </c>
+      <c r="G46" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H46" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46" t="str">
+        <v>all</v>
+      </c>
+      <c r="L46" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M46" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>21:29:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D47" t="str">
+        <v>User</v>
+      </c>
+      <c r="E47" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F47" t="str">
+        <v>read</v>
+      </c>
+      <c r="G47" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H47" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47" t="str">
+        <v>all</v>
+      </c>
+      <c r="L47" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M47" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B48" t="str">
+        <v>21:38:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E48" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F48" t="str">
+        <v>read</v>
+      </c>
+      <c r="G48" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H48" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48" t="str">
+        <v>all</v>
+      </c>
+      <c r="L48" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M48" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B49" t="str">
+        <v>21:38:39 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E49" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F49" t="str">
+        <v>read</v>
+      </c>
+      <c r="G49" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H49" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="K49" t="str">
+        <v>all</v>
+      </c>
+      <c r="L49" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M49" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Tue Aug 23 2022</v>
+      </c>
+      <c r="B50" t="str">
+        <v>21:38:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D50" t="str">
+        <v>User</v>
+      </c>
+      <c r="E50" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F50" t="str">
+        <v>read</v>
+      </c>
+      <c r="G50" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H50" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50" t="str">
+        <v>all</v>
+      </c>
+      <c r="L50" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="M50" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N50"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="2022_5" sheetId="5" r:id="rId5"/>
     <sheet name="2022_7" sheetId="6" r:id="rId6"/>
     <sheet name="2022_8" sheetId="7" r:id="rId7"/>
+    <sheet name="2022_9" sheetId="8" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -16054,4 +16055,2538 @@
     <ignoredError numberStoredAsText="1" sqref="A1:N50"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>model</v>
+      </c>
+      <c r="E1" t="str">
+        <v>path</v>
+      </c>
+      <c r="F1" t="str">
+        <v>action</v>
+      </c>
+      <c r="G1" t="str">
+        <v>status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>userId</v>
+      </c>
+      <c r="J1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="K1" t="str">
+        <v>firstName</v>
+      </c>
+      <c r="L1" t="str">
+        <v>modelId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>03:15:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>User</v>
+      </c>
+      <c r="E2" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F2" t="str">
+        <v>login</v>
+      </c>
+      <c r="G2" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H2" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+      <c r="I2" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="J2" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>03:15:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D3" t="str">
+        <v>User</v>
+      </c>
+      <c r="E3" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F3" t="str">
+        <v>read</v>
+      </c>
+      <c r="G3" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H3" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L3" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>03:15:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E4" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F4" t="str">
+        <v>read</v>
+      </c>
+      <c r="G4" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H4" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L4" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>03:15:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E5" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F5" t="str">
+        <v>read</v>
+      </c>
+      <c r="G5" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H5" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L5" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>03:15:50 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E6" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F6" t="str">
+        <v>read</v>
+      </c>
+      <c r="G6" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H6" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L6" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>03:16:48 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D7" t="str">
+        <v>User</v>
+      </c>
+      <c r="E7" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F7" t="str">
+        <v>read</v>
+      </c>
+      <c r="G7" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H7" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L7" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>03:17:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>User</v>
+      </c>
+      <c r="E8" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F8" t="str">
+        <v>read</v>
+      </c>
+      <c r="G8" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H8" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L8" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>03:17:02 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D9" t="str">
+        <v>User</v>
+      </c>
+      <c r="E9" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F9" t="str">
+        <v>read</v>
+      </c>
+      <c r="G9" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H9" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L9" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>03:17:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E10" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F10" t="str">
+        <v>read</v>
+      </c>
+      <c r="G10" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H10" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L10" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>03:17:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E11" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F11" t="str">
+        <v>read</v>
+      </c>
+      <c r="G11" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H11" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L11" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>03:19:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>User</v>
+      </c>
+      <c r="E12" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F12" t="str">
+        <v>read</v>
+      </c>
+      <c r="G12" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H12" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L12" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>03:19:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E13" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F13" t="str">
+        <v>read</v>
+      </c>
+      <c r="G13" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H13" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L13" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>03:44:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E14" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F14" t="str">
+        <v>read</v>
+      </c>
+      <c r="G14" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H14" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L14" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>03:45:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E15" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F15" t="str">
+        <v>read</v>
+      </c>
+      <c r="G15" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H15" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L15" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>03:45:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E16" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F16" t="str">
+        <v>read</v>
+      </c>
+      <c r="G16" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H16" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L16" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>03:46:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>User</v>
+      </c>
+      <c r="E17" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F17" t="str">
+        <v>read</v>
+      </c>
+      <c r="G17" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H17" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L17" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>03:46:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E18" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F18" t="str">
+        <v>read</v>
+      </c>
+      <c r="G18" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H18" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L18" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>03:46:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E19" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F19" t="str">
+        <v>read</v>
+      </c>
+      <c r="G19" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H19" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L19" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B20" t="str">
+        <v>03:47:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>User</v>
+      </c>
+      <c r="E20" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F20" t="str">
+        <v>read</v>
+      </c>
+      <c r="G20" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H20" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L20" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>03:47:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E21" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F21" t="str">
+        <v>read</v>
+      </c>
+      <c r="G21" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H21" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L21" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>03:49:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E22" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F22" t="str">
+        <v>read</v>
+      </c>
+      <c r="G22" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H22" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L22" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>03:51:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E23" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F23" t="str">
+        <v>read</v>
+      </c>
+      <c r="G23" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H23" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L23" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>03:52:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E24" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F24" t="str">
+        <v>read</v>
+      </c>
+      <c r="G24" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H24" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L24" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>03:54:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>User</v>
+      </c>
+      <c r="E25" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F25" t="str">
+        <v>read</v>
+      </c>
+      <c r="G25" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H25" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L25" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>03:54:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D26" t="str">
+        <v>User</v>
+      </c>
+      <c r="E26" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F26" t="str">
+        <v>read</v>
+      </c>
+      <c r="G26" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H26" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L26" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>03:54:29 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D27" t="str">
+        <v>User</v>
+      </c>
+      <c r="E27" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F27" t="str">
+        <v>read</v>
+      </c>
+      <c r="G27" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H27" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L27" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>03:54:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D28" t="str">
+        <v>User</v>
+      </c>
+      <c r="E28" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F28" t="str">
+        <v>read</v>
+      </c>
+      <c r="G28" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H28" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I28">
+        <v>9</v>
+      </c>
+      <c r="J28" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L28" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B29" t="str">
+        <v>03:54:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D29" t="str">
+        <v>User</v>
+      </c>
+      <c r="E29" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F29" t="str">
+        <v>read</v>
+      </c>
+      <c r="G29" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H29" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L29" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>03:54:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>User</v>
+      </c>
+      <c r="E30" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F30" t="str">
+        <v>read</v>
+      </c>
+      <c r="G30" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H30" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L30" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B31" t="str">
+        <v>03:54:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E31" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F31" t="str">
+        <v>read</v>
+      </c>
+      <c r="G31" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H31" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L31" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>04:02:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D32" t="str">
+        <v>User</v>
+      </c>
+      <c r="E32" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F32" t="str">
+        <v>read</v>
+      </c>
+      <c r="G32" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H32" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L32" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>04:05:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E33" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F33" t="str">
+        <v>read</v>
+      </c>
+      <c r="G33" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H33" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L33" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>04:23:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D34" t="str">
+        <v>User</v>
+      </c>
+      <c r="E34" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F34" t="str">
+        <v>read</v>
+      </c>
+      <c r="G34" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H34" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L34" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B35" t="str">
+        <v>04:28:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>User</v>
+      </c>
+      <c r="E35" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F35" t="str">
+        <v>read</v>
+      </c>
+      <c r="G35" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H35" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L35" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>04:29:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D36" t="str">
+        <v>User</v>
+      </c>
+      <c r="E36" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F36" t="str">
+        <v>read</v>
+      </c>
+      <c r="G36" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H36" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L36" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B37" t="str">
+        <v>04:37:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>User</v>
+      </c>
+      <c r="E37" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F37" t="str">
+        <v>read</v>
+      </c>
+      <c r="G37" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H37" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L37" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>04:37:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D38" t="str">
+        <v>User</v>
+      </c>
+      <c r="E38" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F38" t="str">
+        <v>read</v>
+      </c>
+      <c r="G38" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H38" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L38" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B39" t="str">
+        <v>04:37:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D39" t="str">
+        <v>User</v>
+      </c>
+      <c r="E39" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F39" t="str">
+        <v>read</v>
+      </c>
+      <c r="G39" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H39" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L39" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>04:39:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D40" t="str">
+        <v>User</v>
+      </c>
+      <c r="E40" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F40" t="str">
+        <v>read</v>
+      </c>
+      <c r="G40" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H40" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L40" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B41" t="str">
+        <v>04:39:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E41" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F41" t="str">
+        <v>read</v>
+      </c>
+      <c r="G41" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H41" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L41" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B42" t="str">
+        <v>04:39:24 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E42" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F42" t="str">
+        <v>read</v>
+      </c>
+      <c r="G42" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H42" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L42" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B43" t="str">
+        <v>05:02:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E43" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F43" t="str">
+        <v>read</v>
+      </c>
+      <c r="G43" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H43" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I43">
+        <v>9</v>
+      </c>
+      <c r="J43" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L43" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B44" t="str">
+        <v>05:02:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D44" t="str">
+        <v>User</v>
+      </c>
+      <c r="E44" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F44" t="str">
+        <v>read</v>
+      </c>
+      <c r="G44" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H44" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+      <c r="J44" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L44" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B45" t="str">
+        <v>05:02:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E45" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F45" t="str">
+        <v>read</v>
+      </c>
+      <c r="G45" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H45" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L45" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>05:10:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E46" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F46" t="str">
+        <v>read</v>
+      </c>
+      <c r="G46" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H46" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L46" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>05:12:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D47" t="str">
+        <v>User</v>
+      </c>
+      <c r="E47" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F47" t="str">
+        <v>read</v>
+      </c>
+      <c r="G47" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H47" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L47" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B48" t="str">
+        <v>05:12:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D48" t="str">
+        <v>User</v>
+      </c>
+      <c r="E48" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F48" t="str">
+        <v>read</v>
+      </c>
+      <c r="G48" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H48" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="J48" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L48" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B49" t="str">
+        <v>05:12:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E49" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F49" t="str">
+        <v>read</v>
+      </c>
+      <c r="G49" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H49" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="J49" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L49" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B50" t="str">
+        <v>05:12:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D50" t="str">
+        <v>User</v>
+      </c>
+      <c r="E50" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F50" t="str">
+        <v>read</v>
+      </c>
+      <c r="G50" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H50" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L50" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B51" t="str">
+        <v>05:12:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D51" t="str">
+        <v>User</v>
+      </c>
+      <c r="E51" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F51" t="str">
+        <v>read</v>
+      </c>
+      <c r="G51" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H51" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L51" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B52" t="str">
+        <v>05:12:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D52" t="str">
+        <v>User</v>
+      </c>
+      <c r="E52" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F52" t="str">
+        <v>read</v>
+      </c>
+      <c r="G52" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H52" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L52" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B53" t="str">
+        <v>05:12:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D53" t="str">
+        <v>User</v>
+      </c>
+      <c r="E53" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F53" t="str">
+        <v>read</v>
+      </c>
+      <c r="G53" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H53" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="J53" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L53" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B54" t="str">
+        <v>05:12:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E54" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F54" t="str">
+        <v>read</v>
+      </c>
+      <c r="G54" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H54" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L54" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B55" t="str">
+        <v>05:15:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E55" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F55" t="str">
+        <v>read</v>
+      </c>
+      <c r="G55" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H55" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I55">
+        <v>9</v>
+      </c>
+      <c r="J55" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L55" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B56" t="str">
+        <v>05:15:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D56" t="str">
+        <v>User</v>
+      </c>
+      <c r="E56" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F56" t="str">
+        <v>read</v>
+      </c>
+      <c r="G56" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H56" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L56" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B57" t="str">
+        <v>05:15:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E57" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F57" t="str">
+        <v>read</v>
+      </c>
+      <c r="G57" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H57" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I57">
+        <v>9</v>
+      </c>
+      <c r="J57" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L57" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B58" t="str">
+        <v>05:15:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D58" t="str">
+        <v>User</v>
+      </c>
+      <c r="E58" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F58" t="str">
+        <v>read</v>
+      </c>
+      <c r="G58" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H58" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
+      </c>
+      <c r="J58" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L58" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B59" t="str">
+        <v>05:15:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D59" t="str">
+        <v>User</v>
+      </c>
+      <c r="E59" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F59" t="str">
+        <v>read</v>
+      </c>
+      <c r="G59" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H59" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+      <c r="J59" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L59" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B60" t="str">
+        <v>05:15:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D60" t="str">
+        <v>User</v>
+      </c>
+      <c r="E60" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F60" t="str">
+        <v>read</v>
+      </c>
+      <c r="G60" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H60" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="J60" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L60" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B61" t="str">
+        <v>05:15:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E61" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F61" t="str">
+        <v>read</v>
+      </c>
+      <c r="G61" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H61" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="J61" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L61" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B62" t="str">
+        <v>05:15:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D62" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E62" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F62" t="str">
+        <v>read</v>
+      </c>
+      <c r="G62" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H62" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L62" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B63" t="str">
+        <v>05:15:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E63" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F63" t="str">
+        <v>read</v>
+      </c>
+      <c r="G63" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H63" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
+      </c>
+      <c r="J63" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L63" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B64" t="str">
+        <v>05:15:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D64" t="str">
+        <v>User</v>
+      </c>
+      <c r="E64" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F64" t="str">
+        <v>read</v>
+      </c>
+      <c r="G64" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H64" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="J64" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L64" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B65" t="str">
+        <v>05:15:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E65" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F65" t="str">
+        <v>read</v>
+      </c>
+      <c r="G65" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H65" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="J65" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L65" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B66" t="str">
+        <v>05:36:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E66" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F66" t="str">
+        <v>read</v>
+      </c>
+      <c r="G66" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H66" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I66">
+        <v>9</v>
+      </c>
+      <c r="J66" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L66" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B67" t="str">
+        <v>05:36:24 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E67" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F67" t="str">
+        <v>read</v>
+      </c>
+      <c r="G67" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H67" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I67">
+        <v>9</v>
+      </c>
+      <c r="J67" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L67" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B68" t="str">
+        <v>05:37:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E68" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F68" t="str">
+        <v>read</v>
+      </c>
+      <c r="G68" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H68" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I68">
+        <v>9</v>
+      </c>
+      <c r="J68" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L68" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B69" t="str">
+        <v>05:37:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D69" t="str">
+        <v>User</v>
+      </c>
+      <c r="E69" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F69" t="str">
+        <v>read</v>
+      </c>
+      <c r="G69" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H69" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I69">
+        <v>9</v>
+      </c>
+      <c r="J69" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L69" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B70" t="str">
+        <v>05:37:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D70" t="str">
+        <v>User</v>
+      </c>
+      <c r="E70" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F70" t="str">
+        <v>read</v>
+      </c>
+      <c r="G70" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H70" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I70">
+        <v>9</v>
+      </c>
+      <c r="J70" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L70" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B71" t="str">
+        <v>05:37:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D71" t="str">
+        <v>User</v>
+      </c>
+      <c r="E71" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F71" t="str">
+        <v>read</v>
+      </c>
+      <c r="G71" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H71" t="str">
+        <v>NEX  Admin  read all users (4) from 0 to 100</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+      <c r="J71" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L71" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Fri Sep 02 2022</v>
+      </c>
+      <c r="B72" t="str">
+        <v>05:37:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E72" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F72" t="str">
+        <v>read</v>
+      </c>
+      <c r="G72" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H72" t="str">
+        <v>NEX  Admin  read all trips (2) from 0 to 100</v>
+      </c>
+      <c r="I72">
+        <v>9</v>
+      </c>
+      <c r="J72" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L72" t="str">
+        <v>all</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L72"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -16059,7 +16059,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -16101,6 +16101,12 @@
       <c r="L1" t="str">
         <v>modelId</v>
       </c>
+      <c r="M1" t="str">
+        <v>failureReason</v>
+      </c>
+      <c r="N1" t="str">
+        <v>phoneNumber</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -18584,9 +18590,7599 @@
         <v>all</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B73" t="str">
+        <v>01:18:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C73" t="str">
+        <v>student1@oreonyx.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>User</v>
+      </c>
+      <c r="E73" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F73" t="str">
+        <v>login</v>
+      </c>
+      <c r="G73" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H73" t="str">
+        <v>student1@oreonyx.com  login</v>
+      </c>
+      <c r="M73" t="str">
+        <v>error.userNotFound</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B74" t="str">
+        <v>01:19:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C74" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+      <c r="D74" t="str">
+        <v>User</v>
+      </c>
+      <c r="E74" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F74" t="str">
+        <v>login</v>
+      </c>
+      <c r="G74" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H74" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B75" t="str">
+        <v>01:19:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D75" t="str">
+        <v>User</v>
+      </c>
+      <c r="E75" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F75" t="str">
+        <v>read</v>
+      </c>
+      <c r="G75" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H75" t="str">
+        <v>NEX  Admin  read all users (1) from 0 to 100</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L75" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B76" t="str">
+        <v>01:19:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E76" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F76" t="str">
+        <v>read</v>
+      </c>
+      <c r="G76" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H76" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L76" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B77" t="str">
+        <v>01:19:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D77" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E77" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F77" t="str">
+        <v>read</v>
+      </c>
+      <c r="G77" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H77" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K77" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L77" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B78" t="str">
+        <v>01:19:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E78" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F78" t="str">
+        <v>read</v>
+      </c>
+      <c r="G78" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H78" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K78" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L78" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B79" t="str">
+        <v>01:19:39 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E79" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F79" t="str">
+        <v>read</v>
+      </c>
+      <c r="G79" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H79" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K79" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L79" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B80" t="str">
+        <v>01:33:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E80" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F80" t="str">
+        <v>read</v>
+      </c>
+      <c r="G80" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H80" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K80" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L80" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B81" t="str">
+        <v>01:40:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E81" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F81" t="str">
+        <v>write</v>
+      </c>
+      <c r="G81" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H81" t="str">
+        <v>NEX  Admin  write preference 1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B82" t="str">
+        <v>01:40:59 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E82" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F82" t="str">
+        <v>read</v>
+      </c>
+      <c r="G82" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H82" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L82" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B83" t="str">
+        <v>01:42:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E83" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F83" t="str">
+        <v>read</v>
+      </c>
+      <c r="G83" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H83" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L83" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B84" t="str">
+        <v>01:43:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E84" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F84" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G84" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H84" t="str">
+        <v>NEX  Admin  edit preference 1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K84" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B85" t="str">
+        <v>01:43:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E85" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F85" t="str">
+        <v>read</v>
+      </c>
+      <c r="G85" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H85" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K85" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L85" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B86" t="str">
+        <v>01:43:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E86" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F86" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G86" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H86" t="str">
+        <v>NEX  Admin  edit preference 1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B87" t="str">
+        <v>01:43:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E87" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F87" t="str">
+        <v>read</v>
+      </c>
+      <c r="G87" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H87" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L87" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B88" t="str">
+        <v>01:43:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E88" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F88" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G88" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H88" t="str">
+        <v>NEX  Admin  edit preference 1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B89" t="str">
+        <v>01:43:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E89" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F89" t="str">
+        <v>read</v>
+      </c>
+      <c r="G89" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H89" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L89" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B90" t="str">
+        <v>01:44:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E90" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F90" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G90" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H90" t="str">
+        <v>NEX  Admin  edit preference 1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B91" t="str">
+        <v>01:44:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E91" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F91" t="str">
+        <v>read</v>
+      </c>
+      <c r="G91" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H91" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K91" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L91" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B92" t="str">
+        <v>01:48:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D92" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E92" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F92" t="str">
+        <v>read</v>
+      </c>
+      <c r="G92" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H92" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K92" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L92" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B93" t="str">
+        <v>01:58:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D93" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E93" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F93" t="str">
+        <v>write</v>
+      </c>
+      <c r="G93" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H93" t="str">
+        <v>NEX  Admin  write vehicle type undefined</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K93" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B94" t="str">
+        <v>01:58:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D94" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E94" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F94" t="str">
+        <v>read</v>
+      </c>
+      <c r="G94" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H94" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K94" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L94" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B95" t="str">
+        <v>02:03:07 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D95" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E95" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F95" t="str">
+        <v>read</v>
+      </c>
+      <c r="G95" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H95" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K95" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L95" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B96" t="str">
+        <v>02:05:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D96" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E96" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F96" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G96" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H96" t="str">
+        <v>NEX  Admin  edit vehicle type null</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K96" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B97" t="str">
+        <v>02:05:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D97" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E97" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F97" t="str">
+        <v>read</v>
+      </c>
+      <c r="G97" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H97" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K97" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L97" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B98" t="str">
+        <v>02:05:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D98" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E98" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F98" t="str">
+        <v>write</v>
+      </c>
+      <c r="G98" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H98" t="str">
+        <v>NEX  Admin  write vehicle type undefined</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B99" t="str">
+        <v>02:05:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D99" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E99" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F99" t="str">
+        <v>read</v>
+      </c>
+      <c r="G99" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H99" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K99" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L99" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B100" t="str">
+        <v>02:05:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E100" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F100" t="str">
+        <v>read</v>
+      </c>
+      <c r="G100" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H100" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K100" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L100" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B101" t="str">
+        <v>02:07:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E101" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F101" t="str">
+        <v>read</v>
+      </c>
+      <c r="G101" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H101" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K101" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L101" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B102" t="str">
+        <v>02:10:46 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E102" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F102" t="str">
+        <v>write</v>
+      </c>
+      <c r="G102" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H102" t="str">
+        <v>NEX  Admin  write pricing 1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K102" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B103" t="str">
+        <v>02:10:46 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E103" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F103" t="str">
+        <v>read</v>
+      </c>
+      <c r="G103" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H103" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K103" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L103" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B104" t="str">
+        <v>02:11:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E104" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F104" t="str">
+        <v>write</v>
+      </c>
+      <c r="G104" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H104" t="str">
+        <v>NEX  Admin  write pricing 2</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K104" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B105" t="str">
+        <v>02:11:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E105" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F105" t="str">
+        <v>read</v>
+      </c>
+      <c r="G105" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H105" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K105" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L105" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B106" t="str">
+        <v>02:11:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E106" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F106" t="str">
+        <v>write</v>
+      </c>
+      <c r="G106" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H106" t="str">
+        <v>NEX  Admin  write pricing 3</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K106" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B107" t="str">
+        <v>02:11:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E107" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F107" t="str">
+        <v>read</v>
+      </c>
+      <c r="G107" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H107" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K107" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L107" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B108" t="str">
+        <v>02:11:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E108" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F108" t="str">
+        <v>write</v>
+      </c>
+      <c r="G108" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H108" t="str">
+        <v>NEX  Admin  write pricing 4</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K108" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B109" t="str">
+        <v>02:11:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E109" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F109" t="str">
+        <v>read</v>
+      </c>
+      <c r="G109" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H109" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K109" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L109" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B110" t="str">
+        <v>02:12:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E110" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F110" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G110" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H110" t="str">
+        <v>NEX  Admin  edit pricing 2</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K110" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B111" t="str">
+        <v>02:12:07 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E111" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F111" t="str">
+        <v>read</v>
+      </c>
+      <c r="G111" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H111" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K111" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L111" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B112" t="str">
+        <v>02:12:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E112" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F112" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G112" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H112" t="str">
+        <v>NEX  Admin  edit pricing 3</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K112" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B113" t="str">
+        <v>02:12:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E113" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F113" t="str">
+        <v>read</v>
+      </c>
+      <c r="G113" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H113" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K113" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L113" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B114" t="str">
+        <v>02:18:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E114" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F114" t="str">
+        <v>read</v>
+      </c>
+      <c r="G114" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H114" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K114" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L114" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B115" t="str">
+        <v>02:19:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E115" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F115" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G115" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H115" t="str">
+        <v>NEX  Admin  edit pricing 1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K115" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B116" t="str">
+        <v>02:19:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E116" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F116" t="str">
+        <v>read</v>
+      </c>
+      <c r="G116" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H116" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K116" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L116" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B117" t="str">
+        <v>02:20:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E117" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F117" t="str">
+        <v>write</v>
+      </c>
+      <c r="G117" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H117" t="str">
+        <v>NEX  Admin  write pricing 5</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B118" t="str">
+        <v>02:20:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E118" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F118" t="str">
+        <v>read</v>
+      </c>
+      <c r="G118" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H118" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K118" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L118" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B119" t="str">
+        <v>02:21:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E119" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F119" t="str">
+        <v>write</v>
+      </c>
+      <c r="G119" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H119" t="str">
+        <v>NEX  Admin  write pricing 6</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B120" t="str">
+        <v>02:21:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E120" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F120" t="str">
+        <v>read</v>
+      </c>
+      <c r="G120" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H120" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L120" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B121" t="str">
+        <v>02:21:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E121" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F121" t="str">
+        <v>write</v>
+      </c>
+      <c r="G121" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H121" t="str">
+        <v>NEX  Admin  write pricing 7</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K121" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B122" t="str">
+        <v>02:21:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E122" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F122" t="str">
+        <v>read</v>
+      </c>
+      <c r="G122" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H122" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K122" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L122" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B123" t="str">
+        <v>02:21:59 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D123" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E123" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F123" t="str">
+        <v>read</v>
+      </c>
+      <c r="G123" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H123" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L123" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B124" t="str">
+        <v>02:22:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D124" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E124" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F124" t="str">
+        <v>write</v>
+      </c>
+      <c r="G124" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H124" t="str">
+        <v>NEX  Admin  write vehicle type undefined</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B125" t="str">
+        <v>02:22:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D125" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E125" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F125" t="str">
+        <v>read</v>
+      </c>
+      <c r="G125" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H125" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K125" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L125" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B126" t="str">
+        <v>02:22:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E126" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F126" t="str">
+        <v>read</v>
+      </c>
+      <c r="G126" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H126" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K126" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L126" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B127" t="str">
+        <v>02:23:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E127" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F127" t="str">
+        <v>read</v>
+      </c>
+      <c r="G127" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H127" t="str">
+        <v>NEX  Admin  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K127" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L127" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B128" t="str">
+        <v>02:23:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D128" t="str">
+        <v>User</v>
+      </c>
+      <c r="E128" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F128" t="str">
+        <v>read</v>
+      </c>
+      <c r="G128" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H128" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K128" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L128" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B129" t="str">
+        <v>02:23:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D129" t="str">
+        <v>User</v>
+      </c>
+      <c r="E129" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F129" t="str">
+        <v>read</v>
+      </c>
+      <c r="G129" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H129" t="str">
+        <v>NEX  Admin  read all users (1) from 0 to 100</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K129" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L129" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B130" t="str">
+        <v>02:27:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D130" t="str">
+        <v>User</v>
+      </c>
+      <c r="E130" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F130" t="str">
+        <v>read</v>
+      </c>
+      <c r="G130" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H130" t="str">
+        <v>NEX  Admin  read all users (1) from 0 to 100</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K130" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L130" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B131" t="str">
+        <v>03:36:02 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D131" t="str">
+        <v>User</v>
+      </c>
+      <c r="E131" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F131" t="str">
+        <v>read</v>
+      </c>
+      <c r="G131" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H131" t="str">
+        <v>NEX  Admin  read all users (1) from 0 to 100</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K131" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L131" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B132" t="str">
+        <v>03:38:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D132" t="str">
+        <v>User</v>
+      </c>
+      <c r="E132" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F132" t="str">
+        <v>read</v>
+      </c>
+      <c r="G132" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H132" t="str">
+        <v>NEX  Admin  read all users (1) from 0 to 100</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K132" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L132" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B133" t="str">
+        <v>03:39:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D133" t="str">
+        <v>User</v>
+      </c>
+      <c r="E133" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F133" t="str">
+        <v>read</v>
+      </c>
+      <c r="G133" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H133" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K133" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L133" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B134" t="str">
+        <v>03:39:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D134" t="str">
+        <v>User</v>
+      </c>
+      <c r="E134" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F134" t="str">
+        <v>read</v>
+      </c>
+      <c r="G134" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H134" t="str">
+        <v>NEX  Admin  read all users (1) from 0 to 100</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K134" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L134" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B135" t="str">
+        <v>03:43:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D135" t="str">
+        <v>User</v>
+      </c>
+      <c r="E135" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F135" t="str">
+        <v>request</v>
+      </c>
+      <c r="G135" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H135" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="N135" t="str">
+        <v>22892942601</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B136" t="str">
+        <v>03:46:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D136" t="str">
+        <v>User</v>
+      </c>
+      <c r="E136" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F136" t="str">
+        <v>request</v>
+      </c>
+      <c r="G136" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H136" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="L136" t="str">
+        <v>2</v>
+      </c>
+      <c r="N136" t="str">
+        <v>22892942601</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B137" t="str">
+        <v>03:47:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D137" t="str">
+        <v>User</v>
+      </c>
+      <c r="E137" t="str">
+        <v>/api/auth/complete-infos</v>
+      </c>
+      <c r="F137" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G137" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H137" t="str">
+        <v xml:space="preserve">    edit his infos</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="str">
+        <v/>
+      </c>
+      <c r="K137" t="str">
+        <v/>
+      </c>
+      <c r="L137" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B138" t="str">
+        <v>03:48:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D138" t="str">
+        <v>User</v>
+      </c>
+      <c r="E138" t="str">
+        <v>/api/auth/profile</v>
+      </c>
+      <c r="F138" t="str">
+        <v>read</v>
+      </c>
+      <c r="G138" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H138" t="str">
+        <v>John  DOE  read his infos</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="str">
+        <v>John</v>
+      </c>
+      <c r="K138" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L138" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B139" t="str">
+        <v>03:49:46 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D139" t="str">
+        <v>User</v>
+      </c>
+      <c r="E139" t="str">
+        <v>/api/auth/edit-avatar</v>
+      </c>
+      <c r="F139" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G139" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H139" t="str">
+        <v>John  DOE  upload his avatar</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="str">
+        <v>John</v>
+      </c>
+      <c r="K139" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L139" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B140" t="str">
+        <v>03:50:29 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D140" t="str">
+        <v>User</v>
+      </c>
+      <c r="E140" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F140" t="str">
+        <v>read</v>
+      </c>
+      <c r="G140" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H140" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K140" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L140" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B141" t="str">
+        <v>03:56:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D141" t="str">
+        <v>User</v>
+      </c>
+      <c r="E141" t="str">
+        <v>/api/auth/edit-avatar</v>
+      </c>
+      <c r="F141" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G141" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H141" t="str">
+        <v>John  DOE  upload his avatar</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="str">
+        <v>John</v>
+      </c>
+      <c r="K141" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L141" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B142" t="str">
+        <v>03:56:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D142" t="str">
+        <v>User</v>
+      </c>
+      <c r="E142" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F142" t="str">
+        <v>read</v>
+      </c>
+      <c r="G142" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H142" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K142" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L142" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B143" t="str">
+        <v>03:59:50 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D143" t="str">
+        <v>User</v>
+      </c>
+      <c r="E143" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F143" t="str">
+        <v>read</v>
+      </c>
+      <c r="G143" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H143" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K143" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L143" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B144" t="str">
+        <v>04:00:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D144" t="str">
+        <v>User</v>
+      </c>
+      <c r="E144" t="str">
+        <v>/api/auth/edit-avatar</v>
+      </c>
+      <c r="F144" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G144" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H144" t="str">
+        <v>John  DOE  upload his avatar</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="str">
+        <v>John</v>
+      </c>
+      <c r="K144" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L144" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B145" t="str">
+        <v>04:00:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D145" t="str">
+        <v>User</v>
+      </c>
+      <c r="E145" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F145" t="str">
+        <v>read</v>
+      </c>
+      <c r="G145" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H145" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K145" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L145" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B146" t="str">
+        <v>04:09:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D146" t="str">
+        <v>User</v>
+      </c>
+      <c r="E146" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F146" t="str">
+        <v>read</v>
+      </c>
+      <c r="G146" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H146" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K146" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L146" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B147" t="str">
+        <v>04:09:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D147" t="str">
+        <v>User</v>
+      </c>
+      <c r="E147" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F147" t="str">
+        <v>read</v>
+      </c>
+      <c r="G147" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H147" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K147" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L147" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B148" t="str">
+        <v>04:12:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D148" t="str">
+        <v>User</v>
+      </c>
+      <c r="E148" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F148" t="str">
+        <v>read</v>
+      </c>
+      <c r="G148" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H148" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K148" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L148" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B149" t="str">
+        <v>04:15:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D149" t="str">
+        <v>User</v>
+      </c>
+      <c r="E149" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F149" t="str">
+        <v>read</v>
+      </c>
+      <c r="G149" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H149" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K149" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L149" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B150" t="str">
+        <v>04:15:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D150" t="str">
+        <v>User</v>
+      </c>
+      <c r="E150" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F150" t="str">
+        <v>read</v>
+      </c>
+      <c r="G150" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H150" t="str">
+        <v>NEX  Admin  read user 1</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K150" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L150" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B151" t="str">
+        <v>04:15:48 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D151" t="str">
+        <v>User</v>
+      </c>
+      <c r="E151" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F151" t="str">
+        <v>read</v>
+      </c>
+      <c r="G151" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H151" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K151" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L151" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B152" t="str">
+        <v>04:15:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D152" t="str">
+        <v>User</v>
+      </c>
+      <c r="E152" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F152" t="str">
+        <v>read</v>
+      </c>
+      <c r="G152" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H152" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K152" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L152" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B153" t="str">
+        <v>04:15:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D153" t="str">
+        <v>User</v>
+      </c>
+      <c r="E153" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F153" t="str">
+        <v>read</v>
+      </c>
+      <c r="G153" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H153" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K153" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L153" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B154" t="str">
+        <v>04:16:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D154" t="str">
+        <v>User</v>
+      </c>
+      <c r="E154" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F154" t="str">
+        <v>read</v>
+      </c>
+      <c r="G154" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H154" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K154" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L154" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B155" t="str">
+        <v>04:16:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D155" t="str">
+        <v>User</v>
+      </c>
+      <c r="E155" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F155" t="str">
+        <v>read</v>
+      </c>
+      <c r="G155" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H155" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K155" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L155" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B156" t="str">
+        <v>04:16:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D156" t="str">
+        <v>User</v>
+      </c>
+      <c r="E156" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F156" t="str">
+        <v>read</v>
+      </c>
+      <c r="G156" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H156" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K156" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L156" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B157" t="str">
+        <v>04:16:24 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D157" t="str">
+        <v>User</v>
+      </c>
+      <c r="E157" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F157" t="str">
+        <v>read</v>
+      </c>
+      <c r="G157" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H157" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K157" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L157" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B158" t="str">
+        <v>04:16:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D158" t="str">
+        <v>User</v>
+      </c>
+      <c r="E158" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F158" t="str">
+        <v>read</v>
+      </c>
+      <c r="G158" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H158" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K158" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L158" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B159" t="str">
+        <v>04:21:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D159" t="str">
+        <v>User</v>
+      </c>
+      <c r="E159" t="str">
+        <v>/api/auth/upload-document</v>
+      </c>
+      <c r="F159" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G159" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H159" t="str">
+        <v>John  DOE  upload his documents</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" t="str">
+        <v>John</v>
+      </c>
+      <c r="K159" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L159" t="str">
+        <v>2</v>
+      </c>
+      <c r="M159" t="str">
+        <v>Cannot read properties of undefined (reading 'driverLicense')</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B160" t="str">
+        <v>04:22:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D160" t="str">
+        <v>User</v>
+      </c>
+      <c r="E160" t="str">
+        <v>/api/auth/upload-document</v>
+      </c>
+      <c r="F160" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G160" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H160" t="str">
+        <v>John  DOE  upload his documents</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" t="str">
+        <v>John</v>
+      </c>
+      <c r="K160" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L160" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B161" t="str">
+        <v>04:22:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D161" t="str">
+        <v>User</v>
+      </c>
+      <c r="E161" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F161" t="str">
+        <v>read</v>
+      </c>
+      <c r="G161" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H161" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K161" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L161" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B162" t="str">
+        <v>04:25:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D162" t="str">
+        <v>User</v>
+      </c>
+      <c r="E162" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F162" t="str">
+        <v>read</v>
+      </c>
+      <c r="G162" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H162" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K162" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L162" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B163" t="str">
+        <v>04:31:11 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D163" t="str">
+        <v>User</v>
+      </c>
+      <c r="E163" t="str">
+        <v>/api/validate-id-card</v>
+      </c>
+      <c r="F163" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G163" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H163" t="str">
+        <v>NEX  Admin  edit user 2</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K163" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L163" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B164" t="str">
+        <v>04:31:11 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D164" t="str">
+        <v>User</v>
+      </c>
+      <c r="E164" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F164" t="str">
+        <v>read</v>
+      </c>
+      <c r="G164" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H164" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K164" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L164" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B165" t="str">
+        <v>04:31:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D165" t="str">
+        <v>User</v>
+      </c>
+      <c r="E165" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F165" t="str">
+        <v>read</v>
+      </c>
+      <c r="G165" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H165" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K165" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L165" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B166" t="str">
+        <v>04:39:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D166" t="str">
+        <v>User</v>
+      </c>
+      <c r="E166" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F166" t="str">
+        <v>read</v>
+      </c>
+      <c r="G166" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H166" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K166" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L166" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B167" t="str">
+        <v>04:40:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D167" t="str">
+        <v>User</v>
+      </c>
+      <c r="E167" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F167" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G167" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H167" t="str">
+        <v>NEX  Admin  edit user undefined</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K167" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="M167" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B168" t="str">
+        <v>04:40:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D168" t="str">
+        <v>User</v>
+      </c>
+      <c r="E168" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F168" t="str">
+        <v>read</v>
+      </c>
+      <c r="G168" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H168" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K168" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L168" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B169" t="str">
+        <v>04:40:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D169" t="str">
+        <v>User</v>
+      </c>
+      <c r="E169" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F169" t="str">
+        <v>read</v>
+      </c>
+      <c r="G169" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H169" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K169" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L169" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B170" t="str">
+        <v>04:40:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D170" t="str">
+        <v>User</v>
+      </c>
+      <c r="E170" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F170" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G170" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H170" t="str">
+        <v>NEX  Admin  edit user undefined</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K170" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="M170" t="str">
+        <v>error.missing</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B171" t="str">
+        <v>04:40:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D171" t="str">
+        <v>User</v>
+      </c>
+      <c r="E171" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F171" t="str">
+        <v>read</v>
+      </c>
+      <c r="G171" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H171" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K171" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L171" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B172" t="str">
+        <v>04:41:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D172" t="str">
+        <v>User</v>
+      </c>
+      <c r="E172" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F172" t="str">
+        <v>read</v>
+      </c>
+      <c r="G172" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H172" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K172" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L172" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B173" t="str">
+        <v>04:42:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D173" t="str">
+        <v>User</v>
+      </c>
+      <c r="E173" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F173" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G173" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H173" t="str">
+        <v>NEX  Admin  edit user 2</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K173" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L173" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B174" t="str">
+        <v>04:42:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D174" t="str">
+        <v>User</v>
+      </c>
+      <c r="E174" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F174" t="str">
+        <v>read</v>
+      </c>
+      <c r="G174" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H174" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K174" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L174" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B175" t="str">
+        <v>04:42:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D175" t="str">
+        <v>User</v>
+      </c>
+      <c r="E175" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F175" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G175" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H175" t="str">
+        <v>NEX  Admin  edit user 2</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K175" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L175" t="str">
+        <v>2</v>
+      </c>
+      <c r="M175" t="str">
+        <v>error.alreadyDone</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B176" t="str">
+        <v>04:42:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D176" t="str">
+        <v>User</v>
+      </c>
+      <c r="E176" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F176" t="str">
+        <v>read</v>
+      </c>
+      <c r="G176" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H176" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K176" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L176" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B177" t="str">
+        <v>04:43:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D177" t="str">
+        <v>User</v>
+      </c>
+      <c r="E177" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F177" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G177" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H177" t="str">
+        <v>NEX  Admin  edit user 2</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K177" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L177" t="str">
+        <v>2</v>
+      </c>
+      <c r="M177" t="str">
+        <v>error.alreadyDone</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B178" t="str">
+        <v>04:43:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D178" t="str">
+        <v>User</v>
+      </c>
+      <c r="E178" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F178" t="str">
+        <v>read</v>
+      </c>
+      <c r="G178" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H178" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K178" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L178" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B179" t="str">
+        <v>04:43:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D179" t="str">
+        <v>User</v>
+      </c>
+      <c r="E179" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F179" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G179" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H179" t="str">
+        <v>NEX  Admin  edit user 2</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K179" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L179" t="str">
+        <v>2</v>
+      </c>
+      <c r="M179" t="str">
+        <v>error.alreadyDone</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B180" t="str">
+        <v>04:43:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D180" t="str">
+        <v>User</v>
+      </c>
+      <c r="E180" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F180" t="str">
+        <v>read</v>
+      </c>
+      <c r="G180" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H180" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K180" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L180" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B181" t="str">
+        <v>04:46:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D181" t="str">
+        <v>User</v>
+      </c>
+      <c r="E181" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F181" t="str">
+        <v>read</v>
+      </c>
+      <c r="G181" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H181" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K181" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L181" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B182" t="str">
+        <v>04:49:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D182" t="str">
+        <v>User</v>
+      </c>
+      <c r="E182" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F182" t="str">
+        <v>read</v>
+      </c>
+      <c r="G182" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H182" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K182" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L182" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B183" t="str">
+        <v>04:49:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D183" t="str">
+        <v>User</v>
+      </c>
+      <c r="E183" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F183" t="str">
+        <v>read</v>
+      </c>
+      <c r="G183" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H183" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K183" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L183" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B184" t="str">
+        <v>04:52:29 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D184" t="str">
+        <v>User</v>
+      </c>
+      <c r="E184" t="str">
+        <v>/api/auth/send-otp</v>
+      </c>
+      <c r="F184" t="str">
+        <v>request</v>
+      </c>
+      <c r="G184" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H184" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="N184" t="str">
+        <v>22892942601</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B185" t="str">
+        <v>04:52:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D185" t="str">
+        <v>User</v>
+      </c>
+      <c r="E185" t="str">
+        <v>/api/auth/verify-otp</v>
+      </c>
+      <c r="F185" t="str">
+        <v>request</v>
+      </c>
+      <c r="G185" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H185" t="str">
+        <v>22892942601 request to receive otp</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="L185" t="str">
+        <v>2</v>
+      </c>
+      <c r="N185" t="str">
+        <v>22892942601</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B186" t="str">
+        <v>04:54:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D186" t="str">
+        <v>User</v>
+      </c>
+      <c r="E186" t="str">
+        <v>/api/auth/upload-document</v>
+      </c>
+      <c r="F186" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G186" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H186" t="str">
+        <v>John  DOE  upload his documents</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186" t="str">
+        <v>John</v>
+      </c>
+      <c r="K186" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L186" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B187" t="str">
+        <v>04:54:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D187" t="str">
+        <v>User</v>
+      </c>
+      <c r="E187" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F187" t="str">
+        <v>read</v>
+      </c>
+      <c r="G187" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H187" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K187" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L187" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B188" t="str">
+        <v>04:55:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D188" t="str">
+        <v>User</v>
+      </c>
+      <c r="E188" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F188" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G188" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H188" t="str">
+        <v>NEX  Admin  edit user 2</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K188" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L188" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B189" t="str">
+        <v>04:55:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D189" t="str">
+        <v>User</v>
+      </c>
+      <c r="E189" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F189" t="str">
+        <v>read</v>
+      </c>
+      <c r="G189" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H189" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K189" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L189" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B190" t="str">
+        <v>04:55:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D190" t="str">
+        <v>User</v>
+      </c>
+      <c r="E190" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F190" t="str">
+        <v>read</v>
+      </c>
+      <c r="G190" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H190" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K190" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L190" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B191" t="str">
+        <v>04:55:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D191" t="str">
+        <v>User</v>
+      </c>
+      <c r="E191" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F191" t="str">
+        <v>read</v>
+      </c>
+      <c r="G191" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H191" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K191" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L191" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B192" t="str">
+        <v>04:55:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D192" t="str">
+        <v>User</v>
+      </c>
+      <c r="E192" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F192" t="str">
+        <v>read</v>
+      </c>
+      <c r="G192" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H192" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K192" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L192" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B193" t="str">
+        <v>04:55:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D193" t="str">
+        <v>User</v>
+      </c>
+      <c r="E193" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F193" t="str">
+        <v>read</v>
+      </c>
+      <c r="G193" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H193" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K193" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L193" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B194" t="str">
+        <v>04:55:32 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D194" t="str">
+        <v>User</v>
+      </c>
+      <c r="E194" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F194" t="str">
+        <v>read</v>
+      </c>
+      <c r="G194" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H194" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K194" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L194" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B195" t="str">
+        <v>04:55:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D195" t="str">
+        <v>User</v>
+      </c>
+      <c r="E195" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F195" t="str">
+        <v>read</v>
+      </c>
+      <c r="G195" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H195" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K195" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L195" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B196" t="str">
+        <v>04:58:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E196" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F196" t="str">
+        <v>read</v>
+      </c>
+      <c r="G196" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H196" t="str">
+        <v>John  DOE  read all vehicles (0) from 0 to 100</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196" t="str">
+        <v>John</v>
+      </c>
+      <c r="K196" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L196" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B197" t="str">
+        <v>04:58:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D197" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E197" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F197" t="str">
+        <v>read</v>
+      </c>
+      <c r="G197" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H197" t="str">
+        <v>John  DOE  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197" t="str">
+        <v>John</v>
+      </c>
+      <c r="K197" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L197" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B198" t="str">
+        <v>04:59:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E198" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F198" t="str">
+        <v>write</v>
+      </c>
+      <c r="G198" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H198" t="str">
+        <v>John  DOE  write vehicle 1</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="str">
+        <v>John</v>
+      </c>
+      <c r="K198" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B199" t="str">
+        <v>05:00:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E199" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F199" t="str">
+        <v>read</v>
+      </c>
+      <c r="G199" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H199" t="str">
+        <v>John  DOE  read all vehicles (1) from 0 to 100</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="str">
+        <v>John</v>
+      </c>
+      <c r="K199" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L199" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B200" t="str">
+        <v>05:01:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E200" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F200" t="str">
+        <v>read</v>
+      </c>
+      <c r="G200" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H200" t="str">
+        <v>John  DOE  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" t="str">
+        <v>John</v>
+      </c>
+      <c r="K200" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L200" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B201" t="str">
+        <v>05:02:39 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Vehicle</v>
+      </c>
+      <c r="E201" t="str">
+        <v>/api/vehicle</v>
+      </c>
+      <c r="F201" t="str">
+        <v>read</v>
+      </c>
+      <c r="G201" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H201" t="str">
+        <v>John  DOE  read all vehicles (1) from 0 to 100</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="str">
+        <v>John</v>
+      </c>
+      <c r="K201" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L201" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B202" t="str">
+        <v>05:04:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E202" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F202" t="str">
+        <v>read</v>
+      </c>
+      <c r="G202" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H202" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K202" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L202" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B203" t="str">
+        <v>05:04:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E203" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F203" t="str">
+        <v>write</v>
+      </c>
+      <c r="G203" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H203" t="str">
+        <v>John  DOE  write trip undefined</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="str">
+        <v>John</v>
+      </c>
+      <c r="K203" t="str">
+        <v>DOE</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B204" t="str">
+        <v>05:04:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E204" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F204" t="str">
+        <v>read</v>
+      </c>
+      <c r="G204" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H204" t="str">
+        <v>NEX  Admin  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K204" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L204" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B205" t="str">
+        <v>05:04:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E205" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F205" t="str">
+        <v>read</v>
+      </c>
+      <c r="G205" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H205" t="str">
+        <v>NEX  Admin  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K205" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L205" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B206" t="str">
+        <v>05:05:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E206" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F206" t="str">
+        <v>read</v>
+      </c>
+      <c r="G206" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H206" t="str">
+        <v>John  DOE  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="str">
+        <v>John</v>
+      </c>
+      <c r="K206" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L206" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B207" t="str">
+        <v>05:05:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D207" t="str">
+        <v>User</v>
+      </c>
+      <c r="E207" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F207" t="str">
+        <v>read</v>
+      </c>
+      <c r="G207" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H207" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K207" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L207" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B208" t="str">
+        <v>05:05:24 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E208" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F208" t="str">
+        <v>read</v>
+      </c>
+      <c r="G208" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H208" t="str">
+        <v>NEX  Admin  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K208" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L208" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B209" t="str">
+        <v>05:05:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E209" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F209" t="str">
+        <v>read</v>
+      </c>
+      <c r="G209" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H209" t="str">
+        <v>NEX  Admin  read all trips (0) from 0 to 100</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K209" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L209" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B210" t="str">
+        <v>05:10:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E210" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F210" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G210" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H210" t="str">
+        <v>John  DOE  edit trip 1</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="str">
+        <v>John</v>
+      </c>
+      <c r="K210" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B211" t="str">
+        <v>05:10:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E211" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F211" t="str">
+        <v>read</v>
+      </c>
+      <c r="G211" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H211" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K211" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L211" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B212" t="str">
+        <v>05:11:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D212" t="str">
+        <v>User</v>
+      </c>
+      <c r="E212" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F212" t="str">
+        <v>read</v>
+      </c>
+      <c r="G212" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H212" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K212" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L212" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B213" t="str">
+        <v>05:11:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E213" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F213" t="str">
+        <v>read</v>
+      </c>
+      <c r="G213" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H213" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K213" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L213" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B214" t="str">
+        <v>05:14:24 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E214" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F214" t="str">
+        <v>read</v>
+      </c>
+      <c r="G214" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H214" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K214" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L214" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B215" t="str">
+        <v>05:15:05 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D215" t="str">
+        <v>User</v>
+      </c>
+      <c r="E215" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F215" t="str">
+        <v>read</v>
+      </c>
+      <c r="G215" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H215" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K215" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L215" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B216" t="str">
+        <v>05:17:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D216" t="str">
+        <v>User</v>
+      </c>
+      <c r="E216" t="str">
+        <v>/api/auth/upload-document</v>
+      </c>
+      <c r="F216" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G216" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H216" t="str">
+        <v>John  DOE  upload his documents</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216" t="str">
+        <v>John</v>
+      </c>
+      <c r="K216" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L216" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B217" t="str">
+        <v>05:17:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D217" t="str">
+        <v>User</v>
+      </c>
+      <c r="E217" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F217" t="str">
+        <v>read</v>
+      </c>
+      <c r="G217" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H217" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K217" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L217" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B218" t="str">
+        <v>05:19:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D218" t="str">
+        <v>User</v>
+      </c>
+      <c r="E218" t="str">
+        <v>/api/validate-driver-license</v>
+      </c>
+      <c r="F218" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G218" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H218" t="str">
+        <v>NEX  Admin  edit user 2</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K218" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L218" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B219" t="str">
+        <v>05:19:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D219" t="str">
+        <v>User</v>
+      </c>
+      <c r="E219" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F219" t="str">
+        <v>read</v>
+      </c>
+      <c r="G219" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H219" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K219" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L219" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B220" t="str">
+        <v>05:19:05 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D220" t="str">
+        <v>User</v>
+      </c>
+      <c r="E220" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F220" t="str">
+        <v>read</v>
+      </c>
+      <c r="G220" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H220" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K220" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L220" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B221" t="str">
+        <v>05:19:07 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D221" t="str">
+        <v>User</v>
+      </c>
+      <c r="E221" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F221" t="str">
+        <v>read</v>
+      </c>
+      <c r="G221" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H221" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K221" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L221" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B222" t="str">
+        <v>05:19:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D222" t="str">
+        <v>User</v>
+      </c>
+      <c r="E222" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F222" t="str">
+        <v>read</v>
+      </c>
+      <c r="G222" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H222" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K222" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L222" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B223" t="str">
+        <v>05:19:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D223" t="str">
+        <v>User</v>
+      </c>
+      <c r="E223" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F223" t="str">
+        <v>read</v>
+      </c>
+      <c r="G223" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H223" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K223" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L223" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B224" t="str">
+        <v>05:19:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D224" t="str">
+        <v>User</v>
+      </c>
+      <c r="E224" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F224" t="str">
+        <v>read</v>
+      </c>
+      <c r="G224" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H224" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K224" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L224" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B225" t="str">
+        <v>05:20:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D225" t="str">
+        <v>User</v>
+      </c>
+      <c r="E225" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F225" t="str">
+        <v>read</v>
+      </c>
+      <c r="G225" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H225" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K225" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L225" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B226" t="str">
+        <v>05:20:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D226" t="str">
+        <v>User</v>
+      </c>
+      <c r="E226" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F226" t="str">
+        <v>read</v>
+      </c>
+      <c r="G226" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H226" t="str">
+        <v>NEX  Admin  read user 1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K226" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L226" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B227" t="str">
+        <v>05:20:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D227" t="str">
+        <v>User</v>
+      </c>
+      <c r="E227" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F227" t="str">
+        <v>read</v>
+      </c>
+      <c r="G227" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H227" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K227" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L227" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B228" t="str">
+        <v>05:21:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D228" t="str">
+        <v>User</v>
+      </c>
+      <c r="E228" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F228" t="str">
+        <v>read</v>
+      </c>
+      <c r="G228" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H228" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K228" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L228" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B229" t="str">
+        <v>05:21:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D229" t="str">
+        <v>User</v>
+      </c>
+      <c r="E229" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F229" t="str">
+        <v>read</v>
+      </c>
+      <c r="G229" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H229" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K229" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L229" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B230" t="str">
+        <v>05:21:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E230" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F230" t="str">
+        <v>read</v>
+      </c>
+      <c r="G230" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H230" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K230" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L230" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B231" t="str">
+        <v>05:22:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D231" t="str">
+        <v>User</v>
+      </c>
+      <c r="E231" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F231" t="str">
+        <v>read</v>
+      </c>
+      <c r="G231" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H231" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K231" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L231" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B232" t="str">
+        <v>05:22:11 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D232" t="str">
+        <v>User</v>
+      </c>
+      <c r="E232" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F232" t="str">
+        <v>read</v>
+      </c>
+      <c r="G232" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H232" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K232" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L232" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B233" t="str">
+        <v>05:23:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E233" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F233" t="str">
+        <v>read</v>
+      </c>
+      <c r="G233" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H233" t="str">
+        <v>John  DOE  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="str">
+        <v>John</v>
+      </c>
+      <c r="K233" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L233" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B234" t="str">
+        <v>05:23:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Configuration</v>
+      </c>
+      <c r="E234" t="str">
+        <v>/api/configuration</v>
+      </c>
+      <c r="F234" t="str">
+        <v>write</v>
+      </c>
+      <c r="G234" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H234" t="str">
+        <v xml:space="preserve">John  DOE  write his configurations </v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="str">
+        <v>John</v>
+      </c>
+      <c r="K234" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L234" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B235" t="str">
+        <v>05:23:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D235" t="str">
+        <v>User</v>
+      </c>
+      <c r="E235" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F235" t="str">
+        <v>read</v>
+      </c>
+      <c r="G235" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H235" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K235" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L235" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B236" t="str">
+        <v>05:23:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E236" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F236" t="str">
+        <v>read</v>
+      </c>
+      <c r="G236" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H236" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K236" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L236" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B237" t="str">
+        <v>05:34:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D237" t="str">
+        <v>User</v>
+      </c>
+      <c r="E237" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F237" t="str">
+        <v>read</v>
+      </c>
+      <c r="G237" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H237" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K237" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L237" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B238" t="str">
+        <v>05:34:09 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D238" t="str">
+        <v>User</v>
+      </c>
+      <c r="E238" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F238" t="str">
+        <v>read</v>
+      </c>
+      <c r="G238" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H238" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K238" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L238" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B239" t="str">
+        <v>05:34:11 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E239" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F239" t="str">
+        <v>read</v>
+      </c>
+      <c r="G239" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H239" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K239" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L239" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B240" t="str">
+        <v>05:34:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D240" t="str">
+        <v>User</v>
+      </c>
+      <c r="E240" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F240" t="str">
+        <v>read</v>
+      </c>
+      <c r="G240" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H240" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K240" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L240" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B241" t="str">
+        <v>05:34:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D241" t="str">
+        <v>User</v>
+      </c>
+      <c r="E241" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F241" t="str">
+        <v>read</v>
+      </c>
+      <c r="G241" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H241" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K241" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L241" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B242" t="str">
+        <v>06:05:37 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D242" t="str">
+        <v>User</v>
+      </c>
+      <c r="E242" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F242" t="str">
+        <v>read</v>
+      </c>
+      <c r="G242" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H242" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K242" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L242" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B243" t="str">
+        <v>06:05:49 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D243" t="str">
+        <v>User</v>
+      </c>
+      <c r="E243" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F243" t="str">
+        <v>read</v>
+      </c>
+      <c r="G243" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H243" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K243" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L243" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B244" t="str">
+        <v>06:05:54 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D244" t="str">
+        <v>User</v>
+      </c>
+      <c r="E244" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F244" t="str">
+        <v>read</v>
+      </c>
+      <c r="G244" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H244" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K244" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L244" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B245" t="str">
+        <v>06:05:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D245" t="str">
+        <v>User</v>
+      </c>
+      <c r="E245" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F245" t="str">
+        <v>read</v>
+      </c>
+      <c r="G245" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H245" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K245" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L245" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B246" t="str">
+        <v>06:06:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D246" t="str">
+        <v>User</v>
+      </c>
+      <c r="E246" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F246" t="str">
+        <v>read</v>
+      </c>
+      <c r="G246" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H246" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K246" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L246" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B247" t="str">
+        <v>06:16:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D247" t="str">
+        <v>User</v>
+      </c>
+      <c r="E247" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F247" t="str">
+        <v>read</v>
+      </c>
+      <c r="G247" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H247" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K247" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L247" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B248" t="str">
+        <v>06:17:15 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D248" t="str">
+        <v>User</v>
+      </c>
+      <c r="E248" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F248" t="str">
+        <v>read</v>
+      </c>
+      <c r="G248" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H248" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K248" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L248" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B249" t="str">
+        <v>06:21:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D249" t="str">
+        <v>User</v>
+      </c>
+      <c r="E249" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F249" t="str">
+        <v>read</v>
+      </c>
+      <c r="G249" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H249" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K249" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L249" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B250" t="str">
+        <v>06:38:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D250" t="str">
+        <v>User</v>
+      </c>
+      <c r="E250" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F250" t="str">
+        <v>read</v>
+      </c>
+      <c r="G250" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H250" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K250" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L250" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B251" t="str">
+        <v>06:46:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D251" t="str">
+        <v>User</v>
+      </c>
+      <c r="E251" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F251" t="str">
+        <v>read</v>
+      </c>
+      <c r="G251" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H251" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K251" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L251" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B252" t="str">
+        <v>06:52:38 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E252" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F252" t="str">
+        <v>read</v>
+      </c>
+      <c r="G252" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H252" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K252" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L252" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B253" t="str">
+        <v>06:52:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D253" t="str">
+        <v>User</v>
+      </c>
+      <c r="E253" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F253" t="str">
+        <v>read</v>
+      </c>
+      <c r="G253" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H253" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K253" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L253" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B254" t="str">
+        <v>06:53:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D254" t="str">
+        <v>User</v>
+      </c>
+      <c r="E254" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F254" t="str">
+        <v>read</v>
+      </c>
+      <c r="G254" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H254" t="str">
+        <v>NEX  Admin  read user 1</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K254" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L254" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B255" t="str">
+        <v>06:53:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D255" t="str">
+        <v>User</v>
+      </c>
+      <c r="E255" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F255" t="str">
+        <v>read</v>
+      </c>
+      <c r="G255" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H255" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K255" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L255" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B256" t="str">
+        <v>06:53:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D256" t="str">
+        <v>User</v>
+      </c>
+      <c r="E256" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F256" t="str">
+        <v>read</v>
+      </c>
+      <c r="G256" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H256" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K256" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L256" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B257" t="str">
+        <v>06:53:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E257" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F257" t="str">
+        <v>read</v>
+      </c>
+      <c r="G257" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H257" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K257" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L257" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B258" t="str">
+        <v>06:54:59 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E258" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F258" t="str">
+        <v>read</v>
+      </c>
+      <c r="G258" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H258" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K258" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L258" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B259" t="str">
+        <v>06:55:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D259" t="str">
+        <v>User</v>
+      </c>
+      <c r="E259" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F259" t="str">
+        <v>read</v>
+      </c>
+      <c r="G259" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H259" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K259" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L259" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B260" t="str">
+        <v>06:55:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E260" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F260" t="str">
+        <v>read</v>
+      </c>
+      <c r="G260" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H260" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K260" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L260" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B261" t="str">
+        <v>06:56:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D261" t="str">
+        <v>User</v>
+      </c>
+      <c r="E261" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F261" t="str">
+        <v>read</v>
+      </c>
+      <c r="G261" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H261" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K261" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L261" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B262" t="str">
+        <v>06:56:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D262" t="str">
+        <v>User</v>
+      </c>
+      <c r="E262" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F262" t="str">
+        <v>read</v>
+      </c>
+      <c r="G262" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H262" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K262" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L262" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B263" t="str">
+        <v>06:57:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E263" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F263" t="str">
+        <v>read</v>
+      </c>
+      <c r="G263" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H263" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K263" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L263" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B264" t="str">
+        <v>06:59:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D264" t="str">
+        <v>User</v>
+      </c>
+      <c r="E264" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F264" t="str">
+        <v>read</v>
+      </c>
+      <c r="G264" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H264" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K264" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L264" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B265" t="str">
+        <v>06:59:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D265" t="str">
+        <v>User</v>
+      </c>
+      <c r="E265" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F265" t="str">
+        <v>read</v>
+      </c>
+      <c r="G265" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H265" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K265" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L265" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B266" t="str">
+        <v>06:59:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E266" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F266" t="str">
+        <v>read</v>
+      </c>
+      <c r="G266" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H266" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K266" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L266" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B267" t="str">
+        <v>06:59:16 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D267" t="str">
+        <v>User</v>
+      </c>
+      <c r="E267" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F267" t="str">
+        <v>read</v>
+      </c>
+      <c r="G267" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H267" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K267" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L267" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B268" t="str">
+        <v>07:25:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D268" t="str">
+        <v>User</v>
+      </c>
+      <c r="E268" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F268" t="str">
+        <v>read</v>
+      </c>
+      <c r="G268" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H268" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K268" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L268" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B269" t="str">
+        <v>07:27:31 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D269" t="str">
+        <v>User</v>
+      </c>
+      <c r="E269" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F269" t="str">
+        <v>read</v>
+      </c>
+      <c r="G269" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H269" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K269" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L269" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B270" t="str">
+        <v>07:28:01 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D270" t="str">
+        <v>User</v>
+      </c>
+      <c r="E270" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F270" t="str">
+        <v>read</v>
+      </c>
+      <c r="G270" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H270" t="str">
+        <v>NEX  Admin  read all users (2) from 0 to 100</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K270" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L270" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B271" t="str">
+        <v>07:29:42 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D271" t="str">
+        <v>User</v>
+      </c>
+      <c r="E271" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F271" t="str">
+        <v>write</v>
+      </c>
+      <c r="G271" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H271" t="str">
+        <v xml:space="preserve">NEX  Admin  write user </v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K271" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L271" t="str">
+        <v/>
+      </c>
+      <c r="M271" t="str">
+        <v xml:space="preserve">Invalid login: 535 5.7.8 Error: authentication failed: </v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B272" t="str">
+        <v>07:29:46 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D272" t="str">
+        <v>User</v>
+      </c>
+      <c r="E272" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F272" t="str">
+        <v>read</v>
+      </c>
+      <c r="G272" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H272" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K272" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L272" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B273" t="str">
+        <v>07:31:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D273" t="str">
+        <v>User</v>
+      </c>
+      <c r="E273" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F273" t="str">
+        <v>read</v>
+      </c>
+      <c r="G273" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H273" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K273" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L273" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B274" t="str">
+        <v>07:33:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D274" t="str">
+        <v>User</v>
+      </c>
+      <c r="E274" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F274" t="str">
+        <v>read</v>
+      </c>
+      <c r="G274" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H274" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K274" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L274" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="275" xml:space="preserve">
+      <c r="A275" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B275" t="str">
+        <v>07:34:30 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D275" t="str">
+        <v>User</v>
+      </c>
+      <c r="E275" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F275" t="str">
+        <v>read</v>
+      </c>
+      <c r="G275" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H275" t="str">
+        <v>NEX  Admin  read all users</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K275" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L275" t="str">
+        <v>all</v>
+      </c>
+      <c r="M275" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/app/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+             id: true,
+             avatar: true,
+             lastName: true,
+             firstName: true,
+             phoneNumber: true,
+             gender: true,
+             email: true,
+             birthDay: true,
+             createdAt: true,
+             blockedAt: true,
+             role: true
+           },
+           where: {
+             deletedAt: null
+           },
+           orderBy: {
+             role: 'asc',
+             firstName: 'asc',
+             lastName: 'asc'
+           }
+           ~~~~~~~~~~~~~~~~~~~
+         })
+Argument orderBy of type UserOrderByWithRelationInput needs exactly one argument, but you provided role and firstName and lastName. Please choose one. Available args: 
+type UserOrderByWithRelationInput {
+  id?: SortOrder
+  countryId?: SortOrder
+  avatar?: SortOrder
+  email?: SortOrder
+  phoneNumber?: SortOrder
+  emailVerifiedAt?: SortOrder
+  phoneNumberVerifiedAt?: SortOrder
+  firstName?: SortOrder
+  lastName?: SortOrder
+  gender?: SortOrder
+  birthDay?: SortOrder
+  status?: SortOrder
+  role?: SortOrder
+  language?: SortOrder
+  idCardFront?: SortOrder
+  idCardBack?: SortOrder
+  idCardStatus?: SortOrder
+  idCardRejectionMessage?: SortOrder
+  idCardNumber?: SortOrder
+  idCardUploadedAt?: SortOrder
+  idCardModifiedAt?: SortOrder
+  driverLicenseFront?: SortOrder
+  driverLicenseBack?: SortOrder
+  driverLicenseRejectionMessage?: SortOrder
+  driverLicenseNumber?: SortOrder
+  driverLicenseStatus?: SortOrder
+  driverLicenseUploadedAt?: SortOrder
+  driverLicenseModifiedAt?: SortOrder
+  password?: SortOrder
+  rating?: SortOrder
+  createdAt?: SortOrder
+  blockedAt?: SortOrder
+  updatedAt?: SortOrder
+  profileCompletedAt?: SortOrder
+  deletedAt?: SortOrder
+  deletionReport?: SortOrder
+  preferences?: PreferenceOrderByRelationAggregateInput
+  trips?: TripOrderByRelationAggregateInput
+  travels?: TravelOrderByRelationAggregateInput
+  vehicles?: VehicleOrderByRelationAggregateInput
+  historics?: HistoricOrderByRelationAggregateInput
+  sendedNotifications?: PublicationOrderByRelationAggregateInput
+  receivedNotifications?: NotificationOrderByRelationAggregateInput
+  wallets?: WalletOrderByRelationAggregateInput
+  devices?: DeviceOrderByRelationAggregateInput
+  payments?: PaymentOrderByRelationAggregateInput
+  country?: CountryOrderByWithRelationInput
+  reviewsReceived?: ReviewOrderByRelationAggregateInput
+  reviewsDone?: ReviewOrderByRelationAggregateInput
+}
+</v>
+      </c>
+    </row>
+    <row r="276" xml:space="preserve">
+      <c r="A276" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B276" t="str">
+        <v>07:34:39 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D276" t="str">
+        <v>User</v>
+      </c>
+      <c r="E276" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F276" t="str">
+        <v>read</v>
+      </c>
+      <c r="G276" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H276" t="str">
+        <v>NEX  Admin  read all users</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K276" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L276" t="str">
+        <v>all</v>
+      </c>
+      <c r="M276" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Invalid `this.collection.findMany()` invocation in
+/app/src/db/query.ts:18:38
+  15     orderBy
+  16 }): Promise&lt;T[]&gt; {
+  17     if(env.db.softDelete) where = { ...where, deletedAt: null }
+→ 18     return await this.collection.findMany({
+           take: 100,
+           skip: 0,
+           select: {
+             id: true,
+             avatar: true,
+             lastName: true,
+             firstName: true,
+             phoneNumber: true,
+             gender: true,
+             email: true,
+             birthDay: true,
+             createdAt: true,
+             blockedAt: true,
+             role: true
+           },
+           where: {
+             deletedAt: null
+           },
+           orderBy: {
+             role: 'asc',
+             firstName: 'asc',
+             lastName: 'asc'
+           }
+           ~~~~~~~~~~~~~~~~~~~
+         })
+Argument orderBy of type UserOrderByWithRelationInput needs exactly one argument, but you provided role and firstName and lastName. Please choose one. Available args: 
+type UserOrderByWithRelationInput {
+  id?: SortOrder
+  countryId?: SortOrder
+  avatar?: SortOrder
+  email?: SortOrder
+  phoneNumber?: SortOrder
+  emailVerifiedAt?: SortOrder
+  phoneNumberVerifiedAt?: SortOrder
+  firstName?: SortOrder
+  lastName?: SortOrder
+  gender?: SortOrder
+  birthDay?: SortOrder
+  status?: SortOrder
+  role?: SortOrder
+  language?: SortOrder
+  idCardFront?: SortOrder
+  idCardBack?: SortOrder
+  idCardStatus?: SortOrder
+  idCardRejectionMessage?: SortOrder
+  idCardNumber?: SortOrder
+  idCardUploadedAt?: SortOrder
+  idCardModifiedAt?: SortOrder
+  driverLicenseFront?: SortOrder
+  driverLicenseBack?: SortOrder
+  driverLicenseRejectionMessage?: SortOrder
+  driverLicenseNumber?: SortOrder
+  driverLicenseStatus?: SortOrder
+  driverLicenseUploadedAt?: SortOrder
+  driverLicenseModifiedAt?: SortOrder
+  password?: SortOrder
+  rating?: SortOrder
+  createdAt?: SortOrder
+  blockedAt?: SortOrder
+  updatedAt?: SortOrder
+  profileCompletedAt?: SortOrder
+  deletedAt?: SortOrder
+  deletionReport?: SortOrder
+  preferences?: PreferenceOrderByRelationAggregateInput
+  trips?: TripOrderByRelationAggregateInput
+  travels?: TravelOrderByRelationAggregateInput
+  vehicles?: VehicleOrderByRelationAggregateInput
+  historics?: HistoricOrderByRelationAggregateInput
+  sendedNotifications?: PublicationOrderByRelationAggregateInput
+  receivedNotifications?: NotificationOrderByRelationAggregateInput
+  wallets?: WalletOrderByRelationAggregateInput
+  devices?: DeviceOrderByRelationAggregateInput
+  payments?: PaymentOrderByRelationAggregateInput
+  country?: CountryOrderByWithRelationInput
+  reviewsReceived?: ReviewOrderByRelationAggregateInput
+  reviewsDone?: ReviewOrderByRelationAggregateInput
+}
+</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B277" t="str">
+        <v>07:35:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D277" t="str">
+        <v>User</v>
+      </c>
+      <c r="E277" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F277" t="str">
+        <v>read</v>
+      </c>
+      <c r="G277" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H277" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K277" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L277" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B278" t="str">
+        <v>07:36:12 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D278" t="str">
+        <v>User</v>
+      </c>
+      <c r="E278" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F278" t="str">
+        <v>read</v>
+      </c>
+      <c r="G278" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H278" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K278" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L278" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B279" t="str">
+        <v>07:36:13 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D279" t="str">
+        <v>User</v>
+      </c>
+      <c r="E279" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F279" t="str">
+        <v>read</v>
+      </c>
+      <c r="G279" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H279" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K279" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L279" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B280" t="str">
+        <v>07:36:14 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D280" t="str">
+        <v>User</v>
+      </c>
+      <c r="E280" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F280" t="str">
+        <v>read</v>
+      </c>
+      <c r="G280" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H280" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K280" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L280" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B281" t="str">
+        <v>07:36:33 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D281" t="str">
+        <v>User</v>
+      </c>
+      <c r="E281" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F281" t="str">
+        <v>read</v>
+      </c>
+      <c r="G281" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H281" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K281" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L281" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B282" t="str">
+        <v>07:36:34 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D282" t="str">
+        <v>User</v>
+      </c>
+      <c r="E282" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F282" t="str">
+        <v>read</v>
+      </c>
+      <c r="G282" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H282" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K282" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L282" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B283" t="str">
+        <v>07:36:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D283" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E283" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F283" t="str">
+        <v>read</v>
+      </c>
+      <c r="G283" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H283" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K283" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L283" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B284" t="str">
+        <v>07:36:48 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D284" t="str">
+        <v>User</v>
+      </c>
+      <c r="E284" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F284" t="str">
+        <v>read</v>
+      </c>
+      <c r="G284" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H284" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K284" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L284" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B285" t="str">
+        <v>07:36:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D285" t="str">
+        <v>User</v>
+      </c>
+      <c r="E285" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F285" t="str">
+        <v>read</v>
+      </c>
+      <c r="G285" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H285" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K285" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L285" t="str">
+        <v>all</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N285"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -16059,7 +16059,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N285"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -26180,9 +26180,44 @@
         <v>all</v>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B286" t="str">
+        <v>07:38:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D286" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E286" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F286" t="str">
+        <v>read</v>
+      </c>
+      <c r="G286" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H286" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K286" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L286" t="str">
+        <v>all</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N285"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N286"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -16059,7 +16059,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:N287"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -26215,9 +26215,44 @@
         <v>all</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B287" t="str">
+        <v>08:00:43 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D287" t="str">
+        <v>User</v>
+      </c>
+      <c r="E287" t="str">
+        <v>/api/auth/logout</v>
+      </c>
+      <c r="F287" t="str">
+        <v>logout</v>
+      </c>
+      <c r="G287" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H287" t="str">
+        <v xml:space="preserve">NEX  Admin  logout </v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K287" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L287" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N286"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N287"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user-logs/data.xlsx
+++ b/user-logs/data.xlsx
@@ -16059,7 +16059,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N287"/>
+  <dimension ref="A1:N336"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -26250,9 +26250,1706 @@
         <v>1</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B288" t="str">
+        <v>09:32:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C288" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+      <c r="D288" t="str">
+        <v>User</v>
+      </c>
+      <c r="E288" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F288" t="str">
+        <v>login</v>
+      </c>
+      <c r="G288" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H288" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B289" t="str">
+        <v>09:32:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D289" t="str">
+        <v>User</v>
+      </c>
+      <c r="E289" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F289" t="str">
+        <v>read</v>
+      </c>
+      <c r="G289" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H289" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K289" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L289" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B290" t="str">
+        <v>09:32:29 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D290" t="str">
+        <v>User</v>
+      </c>
+      <c r="E290" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F290" t="str">
+        <v>read</v>
+      </c>
+      <c r="G290" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H290" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K290" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L290" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B291" t="str">
+        <v>09:33:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D291" t="str">
+        <v>User</v>
+      </c>
+      <c r="E291" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F291" t="str">
+        <v>read</v>
+      </c>
+      <c r="G291" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H291" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K291" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L291" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B292" t="str">
+        <v>09:35:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D292" t="str">
+        <v>User</v>
+      </c>
+      <c r="E292" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F292" t="str">
+        <v>read</v>
+      </c>
+      <c r="G292" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H292" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K292" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L292" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B293" t="str">
+        <v>09:35:47 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D293" t="str">
+        <v>User</v>
+      </c>
+      <c r="E293" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F293" t="str">
+        <v>read</v>
+      </c>
+      <c r="G293" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H293" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K293" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L293" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B294" t="str">
+        <v>09:35:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D294" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E294" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F294" t="str">
+        <v>read</v>
+      </c>
+      <c r="G294" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H294" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K294" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L294" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B295" t="str">
+        <v>09:37:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D295" t="str">
+        <v>User</v>
+      </c>
+      <c r="E295" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F295" t="str">
+        <v>read</v>
+      </c>
+      <c r="G295" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H295" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K295" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L295" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B296" t="str">
+        <v>09:37:26 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D296" t="str">
+        <v>User</v>
+      </c>
+      <c r="E296" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F296" t="str">
+        <v>read</v>
+      </c>
+      <c r="G296" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H296" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K296" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L296" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B297" t="str">
+        <v>09:37:27 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D297" t="str">
+        <v>User</v>
+      </c>
+      <c r="E297" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F297" t="str">
+        <v>read</v>
+      </c>
+      <c r="G297" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H297" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K297" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L297" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B298" t="str">
+        <v>09:37:28 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D298" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E298" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F298" t="str">
+        <v>read</v>
+      </c>
+      <c r="G298" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H298" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K298" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L298" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B299" t="str">
+        <v>09:37:48 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D299" t="str">
+        <v>User</v>
+      </c>
+      <c r="E299" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F299" t="str">
+        <v>read</v>
+      </c>
+      <c r="G299" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H299" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K299" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L299" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B300" t="str">
+        <v>09:37:50 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D300" t="str">
+        <v>User</v>
+      </c>
+      <c r="E300" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F300" t="str">
+        <v>read</v>
+      </c>
+      <c r="G300" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H300" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K300" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L300" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B301" t="str">
+        <v>09:37:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D301" t="str">
+        <v>User</v>
+      </c>
+      <c r="E301" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F301" t="str">
+        <v>read</v>
+      </c>
+      <c r="G301" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H301" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K301" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L301" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B302" t="str">
+        <v>09:37:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D302" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E302" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F302" t="str">
+        <v>read</v>
+      </c>
+      <c r="G302" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H302" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K302" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L302" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B303" t="str">
+        <v>09:38:10 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D303" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E303" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F303" t="str">
+        <v>read</v>
+      </c>
+      <c r="G303" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H303" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K303" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L303" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B304" t="str">
+        <v>09:39:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D304" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E304" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F304" t="str">
+        <v>write</v>
+      </c>
+      <c r="G304" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H304" t="str">
+        <v>NEX  Admin  write preference 2</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K304" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B305" t="str">
+        <v>09:39:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D305" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E305" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F305" t="str">
+        <v>read</v>
+      </c>
+      <c r="G305" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H305" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K305" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L305" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B306" t="str">
+        <v>09:42:04 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D306" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E306" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F306" t="str">
+        <v>read</v>
+      </c>
+      <c r="G306" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H306" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K306" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L306" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B307" t="str">
+        <v>09:42:18 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D307" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E307" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F307" t="str">
+        <v>read</v>
+      </c>
+      <c r="G307" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H307" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K307" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L307" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B308" t="str">
+        <v>09:44:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D308" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E308" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F308" t="str">
+        <v>read</v>
+      </c>
+      <c r="G308" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H308" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K308" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L308" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B309" t="str">
+        <v>09:46:45 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D309" t="str">
+        <v>User</v>
+      </c>
+      <c r="E309" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F309" t="str">
+        <v>read</v>
+      </c>
+      <c r="G309" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H309" t="str">
+        <v>NEX  Admin  read all to validate users (0) from 0 to 100</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K309" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L309" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B310" t="str">
+        <v>09:48:53 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D310" t="str">
+        <v>User</v>
+      </c>
+      <c r="E310" t="str">
+        <v>/api/auth/upload-document</v>
+      </c>
+      <c r="F310" t="str">
+        <v>upload</v>
+      </c>
+      <c r="G310" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H310" t="str">
+        <v>John  DOE  upload his documents</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310" t="str">
+        <v>John</v>
+      </c>
+      <c r="K310" t="str">
+        <v>DOE</v>
+      </c>
+      <c r="L310" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B311" t="str">
+        <v>09:49:02 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D311" t="str">
+        <v>User</v>
+      </c>
+      <c r="E311" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F311" t="str">
+        <v>read</v>
+      </c>
+      <c r="G311" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H311" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K311" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L311" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B312" t="str">
+        <v>10:06:23 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D312" t="str">
+        <v>User</v>
+      </c>
+      <c r="E312" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F312" t="str">
+        <v>read</v>
+      </c>
+      <c r="G312" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H312" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K312" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L312" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B313" t="str">
+        <v>10:06:57 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D313" t="str">
+        <v>User</v>
+      </c>
+      <c r="E313" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F313" t="str">
+        <v>read</v>
+      </c>
+      <c r="G313" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H313" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K313" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L313" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B314" t="str">
+        <v>10:06:58 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D314" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E314" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F314" t="str">
+        <v>read</v>
+      </c>
+      <c r="G314" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H314" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K314" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L314" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B315" t="str">
+        <v>10:07:02 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D315" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E315" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F315" t="str">
+        <v>read</v>
+      </c>
+      <c r="G315" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H315" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K315" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L315" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B316" t="str">
+        <v>10:07:06 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D316" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E316" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F316" t="str">
+        <v>read</v>
+      </c>
+      <c r="G316" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H316" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+      <c r="J316" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K316" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L316" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B317" t="str">
+        <v>10:07:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D317" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E317" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F317" t="str">
+        <v>read</v>
+      </c>
+      <c r="G317" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H317" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K317" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L317" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B318" t="str">
+        <v>10:07:17 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D318" t="str">
+        <v>User</v>
+      </c>
+      <c r="E318" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F318" t="str">
+        <v>read</v>
+      </c>
+      <c r="G318" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H318" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K318" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L318" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B319" t="str">
+        <v>10:11:03 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D319" t="str">
+        <v>User</v>
+      </c>
+      <c r="E319" t="str">
+        <v>/api/auth/logout</v>
+      </c>
+      <c r="F319" t="str">
+        <v>logout</v>
+      </c>
+      <c r="G319" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H319" t="str">
+        <v xml:space="preserve">NEX  Admin  logout </v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K319" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L319" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B320" t="str">
+        <v>13:24:35 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="C320" t="str">
+        <v>developer@nex-softwares.com</v>
+      </c>
+      <c r="D320" t="str">
+        <v>User</v>
+      </c>
+      <c r="E320" t="str">
+        <v>/api/auth/login</v>
+      </c>
+      <c r="F320" t="str">
+        <v>login</v>
+      </c>
+      <c r="G320" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H320" t="str">
+        <v>developer@nex-softwares.com  login</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B321" t="str">
+        <v>13:24:36 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D321" t="str">
+        <v>User</v>
+      </c>
+      <c r="E321" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F321" t="str">
+        <v>read</v>
+      </c>
+      <c r="G321" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H321" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K321" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L321" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B322" t="str">
+        <v>13:24:39 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D322" t="str">
+        <v>User</v>
+      </c>
+      <c r="E322" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F322" t="str">
+        <v>read</v>
+      </c>
+      <c r="G322" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H322" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K322" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L322" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B323" t="str">
+        <v>13:24:52 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D323" t="str">
+        <v>User</v>
+      </c>
+      <c r="E323" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F323" t="str">
+        <v>read</v>
+      </c>
+      <c r="G323" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H323" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K323" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L323" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B324" t="str">
+        <v>13:25:25 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D324" t="str">
+        <v>User</v>
+      </c>
+      <c r="E324" t="str">
+        <v>/api/to-validate-users</v>
+      </c>
+      <c r="F324" t="str">
+        <v>read</v>
+      </c>
+      <c r="G324" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H324" t="str">
+        <v>NEX  Admin  read all to validate users (1) from 0 to 100</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K324" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L324" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B325" t="str">
+        <v>13:25:56 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D325" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E325" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F325" t="str">
+        <v>read</v>
+      </c>
+      <c r="G325" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H325" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K325" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L325" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B326" t="str">
+        <v>13:26:19 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D326" t="str">
+        <v>User</v>
+      </c>
+      <c r="E326" t="str">
+        <v>/api/user</v>
+      </c>
+      <c r="F326" t="str">
+        <v>read</v>
+      </c>
+      <c r="G326" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H326" t="str">
+        <v>NEX  Admin  read all users (3) from 0 to 100</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K326" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L326" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B327" t="str">
+        <v>13:26:21 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D327" t="str">
+        <v>User</v>
+      </c>
+      <c r="E327" t="str">
+        <v>/api/user/:id</v>
+      </c>
+      <c r="F327" t="str">
+        <v>read</v>
+      </c>
+      <c r="G327" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H327" t="str">
+        <v>NEX  Admin  read user 2</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K327" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L327" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B328" t="str">
+        <v>13:27:08 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D328" t="str">
+        <v>Trip</v>
+      </c>
+      <c r="E328" t="str">
+        <v>/api/trip</v>
+      </c>
+      <c r="F328" t="str">
+        <v>read</v>
+      </c>
+      <c r="G328" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H328" t="str">
+        <v>NEX  Admin  read all trips (1) from 0 to 100</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K328" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L328" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B329" t="str">
+        <v>13:27:24 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D329" t="str">
+        <v>Preference</v>
+      </c>
+      <c r="E329" t="str">
+        <v>/api/preference</v>
+      </c>
+      <c r="F329" t="str">
+        <v>read</v>
+      </c>
+      <c r="G329" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H329" t="str">
+        <v>NEX  Admin  read all preferences (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K329" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L329" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B330" t="str">
+        <v>13:27:40 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D330" t="str">
+        <v>VehicleType</v>
+      </c>
+      <c r="E330" t="str">
+        <v>/api/vehicle-type</v>
+      </c>
+      <c r="F330" t="str">
+        <v>read</v>
+      </c>
+      <c r="G330" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H330" t="str">
+        <v>NEX  Admin  read all vehicle types (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K330" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L330" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B331" t="str">
+        <v>13:28:00 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D331" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E331" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F331" t="str">
+        <v>read</v>
+      </c>
+      <c r="G331" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H331" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K331" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L331" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B332" t="str">
+        <v>13:28:26 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D332" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E332" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F332" t="str">
+        <v>write</v>
+      </c>
+      <c r="G332" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H332" t="str">
+        <v>NEX  Admin  write pricing 8</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K332" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L332">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B333" t="str">
+        <v>13:28:26 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D333" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E333" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F333" t="str">
+        <v>read</v>
+      </c>
+      <c r="G333" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H333" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K333" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L333" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B334" t="str">
+        <v>13:28:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D334" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E334" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F334" t="str">
+        <v>edit</v>
+      </c>
+      <c r="G334" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H334" t="str">
+        <v>NEX  Admin  edit pricing 8</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K334" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B335" t="str">
+        <v>13:28:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D335" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E335" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F335" t="str">
+        <v>read</v>
+      </c>
+      <c r="G335" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H335" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K335" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L335" t="str">
+        <v>all</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Sun Sep 04 2022</v>
+      </c>
+      <c r="B336" t="str">
+        <v>13:28:51 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="D336" t="str">
+        <v>Pricing</v>
+      </c>
+      <c r="E336" t="str">
+        <v>/api/pricing</v>
+      </c>
+      <c r="F336" t="str">
+        <v>read</v>
+      </c>
+      <c r="G336" t="str">
+        <v>succeeded</v>
+      </c>
+      <c r="H336" t="str">
+        <v>NEX  Admin  read all pricing (undefined) from undefined to NaN</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="str">
+        <v>NEX</v>
+      </c>
+      <c r="K336" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="L336" t="str">
+        <v>all</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N287"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N336"/>
   </ignoredErrors>
 </worksheet>
 </file>